--- a/docs/trim1/levantamiento_informacion/1_recoleccion_informacion.xlsx
+++ b/docs/trim1/levantamiento_informacion/1_recoleccion_informacion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja de Control" sheetId="5" r:id="rId1"/>
@@ -558,7 +558,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -753,6 +753,14 @@
       <color rgb="FFFFFF00"/>
       <name val="Arial2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -798,7 +806,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -1572,13 +1580,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1814,6 +1836,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1854,34 +1907,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1903,6 +1928,36 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1912,15 +1967,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1930,26 +1976,26 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1957,18 +2003,6 @@
     <xf numFmtId="0" fontId="29" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1984,15 +2018,6 @@
     <xf numFmtId="0" fontId="30" fillId="6" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2038,12 +2063,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Excel_BuiltIn_Hyperlink" xfId="2"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -2100,7 +2129,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2200,8 +2228,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="327175448"/>
-        <c:axId val="327175832"/>
+        <c:axId val="324697584"/>
+        <c:axId val="324696800"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2282,11 +2310,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="327175448"/>
-        <c:axId val="327175832"/>
+        <c:axId val="324697584"/>
+        <c:axId val="324696800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="327175448"/>
+        <c:axId val="324697584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2329,7 +2357,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327175832"/>
+        <c:crossAx val="324696800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2337,7 +2365,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="327175832"/>
+        <c:axId val="324696800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2388,7 +2416,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327175448"/>
+        <c:crossAx val="324697584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2523,7 +2551,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2707,12 +2734,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="327297464"/>
-        <c:axId val="327297848"/>
+        <c:axId val="324700328"/>
+        <c:axId val="324699544"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="327297464"/>
+        <c:axId val="324700328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2749,7 +2776,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327297848"/>
+        <c:crossAx val="324699544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2757,7 +2784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="327297848"/>
+        <c:axId val="324699544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2808,7 +2835,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327297464"/>
+        <c:crossAx val="324700328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2822,7 +2849,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2904,7 +2930,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3096,12 +3121,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="327382176"/>
-        <c:axId val="327384616"/>
+        <c:axId val="324698368"/>
+        <c:axId val="324698760"/>
         <c:axId val="0"/>
       </c:area3DChart>
       <c:catAx>
-        <c:axId val="327382176"/>
+        <c:axId val="324698368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3144,7 +3169,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327384616"/>
+        <c:crossAx val="324698760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3152,7 +3177,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="327384616"/>
+        <c:axId val="324698760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3203,7 +3228,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327382176"/>
+        <c:crossAx val="324698368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3217,7 +3242,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4950,7 +4974,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5004,7 +5028,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5058,7 +5082,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5112,7 +5136,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5166,7 +5190,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5220,7 +5244,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5364,7 +5388,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5718,55 +5742,55 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="121"/>
-      <c r="E7" s="122"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="103"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="121"/>
-      <c r="E8" s="122"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="103"/>
     </row>
     <row r="10" spans="1:11" s="41" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="124"/>
-      <c r="B10" s="124"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="13" spans="1:11" ht="30">
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1">
       <c r="B15" s="2"/>
@@ -5777,56 +5801,56 @@
       <c r="B16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="115" t="s">
+      <c r="C16" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
     </row>
     <row r="17" spans="1:16" ht="18">
       <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="116" t="s">
+      <c r="C17" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
     </row>
     <row r="18" spans="1:16" ht="18">
       <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="117" t="s">
+      <c r="C18" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
     </row>
     <row r="19" spans="1:16" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A19" s="29"/>
       <c r="B19" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="116" t="s">
+      <c r="C19" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
     </row>
     <row r="20" spans="1:16" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A20" s="29"/>
       <c r="B20" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="118" t="s">
+      <c r="C20" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="118"/>
+      <c r="D20" s="109"/>
       <c r="E20" s="7" t="s">
         <v>7</v>
       </c>
@@ -5836,13 +5860,13 @@
     </row>
     <row r="21" spans="1:16" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="29"/>
-      <c r="B21" s="113" t="s">
+      <c r="B21" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="99" t="s">
+      <c r="C21" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="100"/>
+      <c r="D21" s="111"/>
       <c r="E21" s="9" t="s">
         <v>9</v>
       </c>
@@ -5852,9 +5876,9 @@
     </row>
     <row r="22" spans="1:16" ht="36.75" thickBot="1">
       <c r="A22" s="29"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="102"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="113"/>
       <c r="E22" s="10" t="s">
         <v>10</v>
       </c>
@@ -5884,10 +5908,10 @@
       <c r="C26" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="106" t="s">
+      <c r="D26" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="106"/>
+      <c r="E26" s="117"/>
       <c r="F26" s="16" t="s">
         <v>16</v>
       </c>
@@ -5899,10 +5923,10 @@
       <c r="C27" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="107" t="s">
+      <c r="D27" s="118" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="107"/>
+      <c r="E27" s="118"/>
       <c r="F27" s="19" t="s">
         <v>42</v>
       </c>
@@ -5914,10 +5938,10 @@
       <c r="C28" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="107" t="s">
+      <c r="D28" s="118" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="107"/>
+      <c r="E28" s="118"/>
       <c r="F28" s="8" t="s">
         <v>109</v>
       </c>
@@ -5925,50 +5949,50 @@
     <row r="29" spans="1:16" ht="39.950000000000003" customHeight="1">
       <c r="B29" s="20"/>
       <c r="C29" s="21"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="109"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="120"/>
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:16" ht="39.950000000000003" customHeight="1">
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:16" ht="25.5" customHeight="1">
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="110"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="121"/>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:16" ht="24.95" customHeight="1">
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="121"/>
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:13" ht="25.5" customHeight="1">
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="25.5" customHeight="1">
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="123"/>
       <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
@@ -5982,34 +6006,34 @@
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1" thickBot="1"/>
     <row r="39" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B39" s="105" t="s">
+      <c r="B39" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
     </row>
     <row r="40" spans="1:13" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B40" s="103" t="s">
+      <c r="B40" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
       <c r="J40" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B41" s="104" t="s">
+      <c r="B41" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="104"/>
-      <c r="D41" s="104"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="104"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
     </row>
     <row r="42" spans="1:13" ht="25.5" customHeight="1">
       <c r="B42" s="25"/>
@@ -6326,18 +6350,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D22"/>
     <mergeCell ref="B40:F40"/>
     <mergeCell ref="B41:F41"/>
@@ -6353,6 +6365,18 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A10:K10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
@@ -6387,56 +6411,56 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" s="41" customFormat="1" ht="5.0999999999999996" customHeight="1">
-      <c r="A3" s="127"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
     </row>
     <row r="4" spans="1:10" s="42" customFormat="1" ht="20.25">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
     </row>
     <row r="5" spans="1:10" s="42" customFormat="1" ht="20.25">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
     </row>
     <row r="6" spans="1:10" s="41" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A6" s="124"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickTop="1"/>
     <row r="8" spans="1:10" ht="15" thickBot="1">
@@ -6476,7 +6500,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" s="36" customFormat="1" ht="60" customHeight="1">
-      <c r="B10" s="125" t="s">
+      <c r="B10" s="126" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="67" t="s">
@@ -6502,7 +6526,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" s="36" customFormat="1" ht="42" customHeight="1">
-      <c r="B11" s="125"/>
+      <c r="B11" s="126"/>
       <c r="C11" s="67" t="s">
         <v>37</v>
       </c>
@@ -6526,7 +6550,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" customFormat="1" ht="69.95" customHeight="1">
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="126" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="67" t="s">
@@ -6552,7 +6576,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" customFormat="1" ht="45" customHeight="1" thickBot="1">
-      <c r="B13" s="126"/>
+      <c r="B13" s="127"/>
       <c r="C13" s="68" t="s">
         <v>37</v>
       </c>
@@ -6784,60 +6808,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="122"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="103"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="121"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="122"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="103"/>
     </row>
     <row r="10" spans="1:11" s="41" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="124"/>
-      <c r="B10" s="124"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="12" spans="1:11">
@@ -7048,8 +7072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IW41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -7072,60 +7096,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="122"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="103"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="121"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="122"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="103"/>
     </row>
     <row r="10" spans="1:257" s="41" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="124"/>
-      <c r="B10" s="124"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
@@ -7139,7 +7163,7 @@
     <row r="15" spans="1:257" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1">
       <c r="A15" s="29"/>
       <c r="B15" s="45"/>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="178" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="51" t="s">
@@ -7157,7 +7181,7 @@
     <row r="16" spans="1:257" s="1" customFormat="1" ht="120" customHeight="1">
       <c r="A16" s="29"/>
       <c r="B16" s="46"/>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="179" t="s">
         <v>64</v>
       </c>
       <c r="D16" s="49">
@@ -7216,7 +7240,7 @@
       <c r="D19" s="84">
         <v>44999</v>
       </c>
-      <c r="E19" s="177" t="s">
+      <c r="E19" s="99" t="s">
         <v>56</v>
       </c>
       <c r="F19" s="34"/>
@@ -7373,10 +7397,13 @@
     <mergeCell ref="A7:K7"/>
     <mergeCell ref="A8:K8"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C16" r:id="rId1"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
-  <pageSetup scale="45" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup scale="45" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -7385,7 +7412,7 @@
   <dimension ref="A2:IW41"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -7410,60 +7437,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:253">
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
     </row>
     <row r="6" spans="1:253">
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
     </row>
     <row r="7" spans="1:253" ht="30">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="122"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="103"/>
     </row>
     <row r="8" spans="1:253" ht="30">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="121"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="122"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="103"/>
     </row>
     <row r="10" spans="1:253" s="41" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="141"/>
-      <c r="B10" s="141"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="141"/>
+      <c r="A10" s="136"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="136"/>
+      <c r="K10" s="136"/>
     </row>
     <row r="11" spans="1:253" ht="15" thickTop="1"/>
     <row r="12" spans="1:253">
@@ -7475,24 +7502,24 @@
     </row>
     <row r="14" spans="1:253" s="58" customFormat="1" ht="30" customHeight="1">
       <c r="A14" s="57"/>
-      <c r="B14" s="132" t="s">
+      <c r="B14" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="134"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="145"/>
       <c r="G14" s="57"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="143"/>
-      <c r="L14" s="143"/>
-      <c r="M14" s="143"/>
-      <c r="N14" s="143"/>
-      <c r="O14" s="143"/>
-      <c r="P14" s="143"/>
-      <c r="Q14" s="144"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="138"/>
+      <c r="N14" s="138"/>
+      <c r="O14" s="138"/>
+      <c r="P14" s="138"/>
+      <c r="Q14" s="139"/>
       <c r="R14" s="57"/>
       <c r="S14" s="57"/>
       <c r="T14" s="57"/>
@@ -7731,13 +7758,13 @@
     </row>
     <row r="15" spans="1:253" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A15" s="29"/>
-      <c r="B15" s="145" t="s">
+      <c r="B15" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="147"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="142"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="IS15" s="2"/>
@@ -7745,9 +7772,9 @@
     <row r="16" spans="1:253" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A16" s="29"/>
       <c r="B16" s="59"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="137"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="135"/>
       <c r="F16" s="93"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -7756,12 +7783,12 @@
     <row r="17" spans="1:257" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A17" s="29"/>
       <c r="B17" s="61"/>
-      <c r="C17" s="135" t="s">
+      <c r="C17" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="137"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="135"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="IS17" s="2"/>
@@ -7769,9 +7796,9 @@
     <row r="18" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A18" s="29"/>
       <c r="B18" s="61"/>
-      <c r="C18" s="138"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="140"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="148"/>
       <c r="F18" s="60"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -7780,118 +7807,118 @@
     <row r="19" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A19" s="29"/>
       <c r="B19" s="61"/>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="130" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="132"/>
       <c r="IS19" s="2"/>
     </row>
     <row r="20" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A20" s="29"/>
       <c r="B20" s="61"/>
-      <c r="C20" s="129" t="s">
+      <c r="C20" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="130"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="132"/>
       <c r="IS20" s="2"/>
     </row>
     <row r="21" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="29"/>
       <c r="B21" s="61"/>
-      <c r="C21" s="129" t="s">
+      <c r="C21" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="130"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="132"/>
       <c r="IS21" s="2"/>
     </row>
     <row r="22" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A22" s="29"/>
       <c r="B22" s="61"/>
-      <c r="C22" s="129" t="s">
+      <c r="C22" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="131"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="132"/>
       <c r="IS22" s="2"/>
     </row>
     <row r="23" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A23" s="29"/>
       <c r="B23" s="61"/>
-      <c r="C23" s="129" t="s">
+      <c r="C23" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="130"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="132"/>
       <c r="IS23" s="2"/>
     </row>
     <row r="24" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A24" s="29"/>
       <c r="B24" s="61"/>
-      <c r="C24" s="129" t="s">
+      <c r="C24" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="132"/>
       <c r="IS24" s="2"/>
     </row>
     <row r="25" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A25" s="29"/>
       <c r="B25" s="61"/>
-      <c r="C25" s="129" t="s">
+      <c r="C25" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="130"/>
-      <c r="E25" s="130"/>
-      <c r="F25" s="131"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="132"/>
       <c r="IS25" s="2"/>
     </row>
     <row r="26" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A26" s="29"/>
       <c r="B26" s="61"/>
-      <c r="C26" s="129" t="s">
+      <c r="C26" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="130"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="131"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="132"/>
       <c r="IS26" s="2"/>
     </row>
     <row r="27" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A27" s="29"/>
       <c r="B27" s="61"/>
-      <c r="C27" s="129" t="s">
+      <c r="C27" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="130"/>
-      <c r="E27" s="130"/>
-      <c r="F27" s="131"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="132"/>
       <c r="IS27" s="2"/>
     </row>
     <row r="28" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B28" s="61"/>
-      <c r="C28" s="138"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="140"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="148"/>
       <c r="IS28" s="2"/>
     </row>
     <row r="29" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B29" s="61"/>
-      <c r="C29" s="135" t="s">
+      <c r="C29" s="133" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="137"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="134"/>
+      <c r="F29" s="135"/>
       <c r="IS29" s="2"/>
     </row>
     <row r="30" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -7904,44 +7931,44 @@
     </row>
     <row r="31" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B31" s="66"/>
-      <c r="C31" s="129" t="s">
+      <c r="C31" s="130" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="130"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="131"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="132"/>
       <c r="IW31" s="2"/>
     </row>
     <row r="32" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B32" s="62"/>
-      <c r="C32" s="129" t="s">
+      <c r="C32" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="130"/>
-      <c r="E32" s="130"/>
-      <c r="F32" s="131"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="132"/>
       <c r="J32" s="34"/>
       <c r="IW32" s="2"/>
     </row>
     <row r="33" spans="2:257" s="1" customFormat="1" ht="15.75">
       <c r="B33" s="66"/>
-      <c r="C33" s="129" t="s">
+      <c r="C33" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="130"/>
-      <c r="E33" s="130"/>
-      <c r="F33" s="131"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="132"/>
       <c r="J33" s="34"/>
       <c r="IW33" s="2"/>
     </row>
     <row r="34" spans="2:257" s="1" customFormat="1" ht="15.75">
       <c r="B34" s="62"/>
-      <c r="C34" s="129" t="s">
+      <c r="C34" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="130"/>
-      <c r="E34" s="130"/>
-      <c r="F34" s="131"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="131"/>
+      <c r="F34" s="132"/>
       <c r="IW34" s="2"/>
     </row>
     <row r="35" spans="2:257" s="1" customFormat="1">
@@ -7993,17 +8020,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="H14:Q14"/>
-    <mergeCell ref="B15:F15"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="C17:F17"/>
@@ -8020,6 +8036,17 @@
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="H14:Q14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A8:K8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
@@ -8055,60 +8082,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="122"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="103"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="121"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="122"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="103"/>
     </row>
     <row r="10" spans="1:257" s="41" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="124"/>
-      <c r="B10" s="124"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
@@ -8129,47 +8156,47 @@
     </row>
     <row r="16" spans="1:257" s="1" customFormat="1" ht="50.1" customHeight="1">
       <c r="A16" s="29"/>
-      <c r="B16" s="156" t="s">
+      <c r="B16" s="160" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="157"/>
-      <c r="D16" s="158"/>
+      <c r="C16" s="161"/>
+      <c r="D16" s="162"/>
       <c r="E16" s="87"/>
-      <c r="F16" s="159" t="s">
+      <c r="F16" s="149" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="160"/>
-      <c r="H16" s="161"/>
+      <c r="G16" s="150"/>
+      <c r="H16" s="151"/>
       <c r="I16" s="34"/>
-      <c r="K16" s="159" t="s">
+      <c r="K16" s="149" t="s">
         <v>103</v>
       </c>
-      <c r="L16" s="160"/>
-      <c r="M16" s="161"/>
+      <c r="L16" s="150"/>
+      <c r="M16" s="151"/>
       <c r="IW16" s="2"/>
     </row>
     <row r="17" spans="1:257" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A17" s="29"/>
-      <c r="B17" s="150" t="s">
+      <c r="B17" s="152" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="151"/>
+      <c r="C17" s="153"/>
       <c r="D17" s="88" t="s">
         <v>87</v>
       </c>
       <c r="E17" s="87"/>
-      <c r="F17" s="150" t="s">
+      <c r="F17" s="152" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="151"/>
+      <c r="G17" s="153"/>
       <c r="H17" s="88" t="s">
         <v>89</v>
       </c>
       <c r="I17" s="34"/>
-      <c r="K17" s="150" t="s">
+      <c r="K17" s="152" t="s">
         <v>90</v>
       </c>
-      <c r="L17" s="151"/>
+      <c r="L17" s="153"/>
       <c r="M17" s="96" t="s">
         <v>106</v>
       </c>
@@ -8177,26 +8204,26 @@
     </row>
     <row r="18" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A18" s="29"/>
-      <c r="B18" s="152" t="s">
+      <c r="B18" s="154" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="153"/>
+      <c r="C18" s="155"/>
       <c r="D18" s="89">
         <v>0.75</v>
       </c>
       <c r="E18" s="87"/>
-      <c r="F18" s="152" t="s">
+      <c r="F18" s="154" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="153"/>
+      <c r="G18" s="155"/>
       <c r="H18" s="89">
         <v>0.65</v>
       </c>
       <c r="I18" s="34"/>
-      <c r="K18" s="152" t="s">
+      <c r="K18" s="154" t="s">
         <v>104</v>
       </c>
-      <c r="L18" s="153"/>
+      <c r="L18" s="155"/>
       <c r="M18" s="89">
         <v>0.85</v>
       </c>
@@ -8204,26 +8231,26 @@
     </row>
     <row r="19" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A19" s="29"/>
-      <c r="B19" s="154" t="s">
+      <c r="B19" s="158" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="155"/>
+      <c r="C19" s="159"/>
       <c r="D19" s="90">
         <v>0.25</v>
       </c>
       <c r="E19" s="87"/>
-      <c r="F19" s="152" t="s">
+      <c r="F19" s="154" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="153"/>
+      <c r="G19" s="155"/>
       <c r="H19" s="89">
         <v>0.1</v>
       </c>
       <c r="I19" s="34"/>
-      <c r="K19" s="152" t="s">
+      <c r="K19" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="L19" s="153"/>
+      <c r="L19" s="155"/>
       <c r="M19" s="89">
         <v>0.15</v>
       </c>
@@ -8235,10 +8262,10 @@
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
       <c r="E20" s="29"/>
-      <c r="F20" s="148" t="s">
+      <c r="F20" s="156" t="s">
         <v>92</v>
       </c>
-      <c r="G20" s="149"/>
+      <c r="G20" s="157"/>
       <c r="H20" s="92">
         <v>0.25</v>
       </c>
@@ -8356,6 +8383,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="K16:M16"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="K18:L18"/>
@@ -8364,17 +8402,6 @@
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
@@ -8387,7 +8414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:I15"/>
     </sheetView>
   </sheetViews>
@@ -8430,56 +8457,56 @@
       <c r="IV4" s="1"/>
     </row>
     <row r="5" spans="1:256">
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
       <c r="IT5" s="1"/>
       <c r="IU5" s="1"/>
       <c r="IV5" s="1"/>
     </row>
     <row r="6" spans="1:256">
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
       <c r="IT6" s="1"/>
       <c r="IU6" s="1"/>
       <c r="IV6" s="1"/>
     </row>
     <row r="7" spans="1:256" ht="30">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="122"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="103"/>
       <c r="IT7" s="1"/>
       <c r="IU7" s="1"/>
       <c r="IV7" s="1"/>
     </row>
     <row r="8" spans="1:256" ht="30">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="121"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="122"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="103"/>
       <c r="IT8" s="1"/>
       <c r="IU8" s="1"/>
       <c r="IV8" s="1"/>
@@ -8490,17 +8517,17 @@
       <c r="IV9" s="1"/>
     </row>
     <row r="10" spans="1:256" s="41" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="124"/>
-      <c r="B10" s="124"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
     </row>
     <row r="11" spans="1:256" ht="15" thickTop="1">
       <c r="IT11" s="1"/>
@@ -8522,44 +8549,44 @@
     </row>
     <row r="14" spans="1:256" ht="30" customHeight="1">
       <c r="A14" s="29"/>
-      <c r="B14" s="168" t="s">
+      <c r="B14" s="169" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="169"/>
-      <c r="D14" s="169"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="169"/>
-      <c r="G14" s="169"/>
-      <c r="H14" s="169"/>
-      <c r="I14" s="170"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="171"/>
       <c r="J14" s="34"/>
     </row>
     <row r="15" spans="1:256" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="29"/>
-      <c r="B15" s="171"/>
-      <c r="C15" s="172"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="173"/>
+      <c r="B15" s="172"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="174"/>
       <c r="J15" s="34"/>
       <c r="K15" s="13"/>
       <c r="IT15" s="2"/>
     </row>
     <row r="16" spans="1:256" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A16" s="29"/>
-      <c r="B16" s="174" t="s">
+      <c r="B16" s="175" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="175"/>
-      <c r="D16" s="175"/>
-      <c r="E16" s="175"/>
-      <c r="F16" s="175"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="175"/>
-      <c r="I16" s="176"/>
+      <c r="C16" s="176"/>
+      <c r="D16" s="176"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="176"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="176"/>
+      <c r="I16" s="177"/>
       <c r="J16" s="94"/>
       <c r="K16" s="94"/>
       <c r="L16" s="94"/>
@@ -8568,194 +8595,194 @@
     </row>
     <row r="17" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A17" s="29"/>
-      <c r="B17" s="174"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="175"/>
-      <c r="E17" s="175"/>
-      <c r="F17" s="175"/>
-      <c r="G17" s="175"/>
-      <c r="H17" s="175"/>
-      <c r="I17" s="176"/>
+      <c r="B17" s="175"/>
+      <c r="C17" s="176"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="177"/>
       <c r="J17" s="34"/>
       <c r="K17" s="13"/>
       <c r="IT17" s="2"/>
     </row>
     <row r="18" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A18" s="29"/>
-      <c r="B18" s="174"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="175"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="175"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="175"/>
-      <c r="I18" s="176"/>
+      <c r="B18" s="175"/>
+      <c r="C18" s="176"/>
+      <c r="D18" s="176"/>
+      <c r="E18" s="176"/>
+      <c r="F18" s="176"/>
+      <c r="G18" s="176"/>
+      <c r="H18" s="176"/>
+      <c r="I18" s="177"/>
       <c r="J18" s="34"/>
       <c r="K18" s="13"/>
       <c r="IT18" s="2"/>
     </row>
     <row r="19" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A19" s="29"/>
-      <c r="B19" s="174"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="175"/>
-      <c r="F19" s="175"/>
-      <c r="G19" s="175"/>
-      <c r="H19" s="175"/>
-      <c r="I19" s="176"/>
+      <c r="B19" s="175"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="176"/>
+      <c r="E19" s="176"/>
+      <c r="F19" s="176"/>
+      <c r="G19" s="176"/>
+      <c r="H19" s="176"/>
+      <c r="I19" s="177"/>
       <c r="J19" s="34"/>
       <c r="IT19" s="2"/>
     </row>
     <row r="20" spans="1:254" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A20" s="29"/>
-      <c r="B20" s="171" t="s">
+      <c r="B20" s="172" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="172"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="173"/>
+      <c r="C20" s="173"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="173"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="174"/>
       <c r="J20" s="34"/>
       <c r="IT20" s="2"/>
     </row>
     <row r="21" spans="1:254" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="29"/>
-      <c r="B21" s="171"/>
-      <c r="C21" s="172"/>
-      <c r="D21" s="172"/>
-      <c r="E21" s="172"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="173"/>
+      <c r="B21" s="172"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="174"/>
       <c r="J21" s="34"/>
       <c r="IT21" s="2"/>
     </row>
     <row r="22" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A22" s="29"/>
-      <c r="B22" s="162" t="s">
+      <c r="B22" s="163" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="163"/>
-      <c r="D22" s="163"/>
-      <c r="E22" s="163"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="163"/>
-      <c r="H22" s="163"/>
-      <c r="I22" s="164"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="165"/>
       <c r="J22" s="34"/>
       <c r="IT22" s="2"/>
     </row>
     <row r="23" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A23" s="29"/>
-      <c r="B23" s="162"/>
-      <c r="C23" s="163"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="164"/>
+      <c r="B23" s="163"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="165"/>
       <c r="J23" s="34"/>
       <c r="IT23" s="2"/>
     </row>
     <row r="24" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A24" s="29"/>
-      <c r="B24" s="162"/>
-      <c r="C24" s="163"/>
-      <c r="D24" s="163"/>
-      <c r="E24" s="163"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="163"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="164"/>
+      <c r="B24" s="163"/>
+      <c r="C24" s="164"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="164"/>
+      <c r="I24" s="165"/>
       <c r="J24" s="34"/>
       <c r="IT24" s="2"/>
     </row>
     <row r="25" spans="1:254" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A25" s="29"/>
-      <c r="B25" s="171" t="s">
+      <c r="B25" s="172" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="172"/>
-      <c r="D25" s="172"/>
-      <c r="E25" s="172"/>
-      <c r="F25" s="172"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="172"/>
-      <c r="I25" s="173"/>
+      <c r="C25" s="173"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="173"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="173"/>
+      <c r="H25" s="173"/>
+      <c r="I25" s="174"/>
       <c r="J25" s="34"/>
       <c r="IT25" s="2"/>
     </row>
     <row r="26" spans="1:254" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A26" s="29"/>
-      <c r="B26" s="171"/>
-      <c r="C26" s="172"/>
-      <c r="D26" s="172"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="173"/>
+      <c r="B26" s="172"/>
+      <c r="C26" s="173"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="173"/>
+      <c r="F26" s="173"/>
+      <c r="G26" s="173"/>
+      <c r="H26" s="173"/>
+      <c r="I26" s="174"/>
       <c r="J26" s="34"/>
       <c r="IT26" s="2"/>
     </row>
     <row r="27" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A27" s="29"/>
-      <c r="B27" s="162" t="s">
+      <c r="B27" s="163" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="163"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="163"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="164"/>
+      <c r="C27" s="164"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="164"/>
+      <c r="F27" s="164"/>
+      <c r="G27" s="164"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="165"/>
       <c r="J27" s="34"/>
       <c r="L27" s="97"/>
       <c r="IT27" s="2"/>
     </row>
     <row r="28" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A28" s="29"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="163"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="164"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="164"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="165"/>
       <c r="J28" s="34"/>
       <c r="IT28" s="2"/>
     </row>
     <row r="29" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A29" s="29"/>
-      <c r="B29" s="162"/>
-      <c r="C29" s="163"/>
-      <c r="D29" s="163"/>
-      <c r="E29" s="163"/>
-      <c r="F29" s="163"/>
-      <c r="G29" s="163"/>
-      <c r="H29" s="163"/>
-      <c r="I29" s="164"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="164"/>
+      <c r="H29" s="164"/>
+      <c r="I29" s="165"/>
       <c r="J29" s="34"/>
       <c r="IT29" s="2"/>
     </row>
     <row r="30" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A30" s="29"/>
-      <c r="B30" s="165"/>
-      <c r="C30" s="166"/>
-      <c r="D30" s="166"/>
-      <c r="E30" s="166"/>
-      <c r="F30" s="166"/>
-      <c r="G30" s="166"/>
-      <c r="H30" s="166"/>
-      <c r="I30" s="167"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="168"/>
       <c r="J30" s="34"/>
       <c r="IT30" s="2"/>
     </row>

--- a/docs/trim1/levantamiento_informacion/1_recoleccion_informacion.xlsx
+++ b/docs/trim1/levantamiento_informacion/1_recoleccion_informacion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja de Control" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="164">
   <si>
     <t>HOJA DE CONTROL</t>
   </si>
@@ -455,9 +455,6 @@
     </r>
   </si>
   <si>
-    <t>Elián Ibarra</t>
-  </si>
-  <si>
     <t>AutOsiris</t>
   </si>
   <si>
@@ -509,9 +506,6 @@
     <t>0.2</t>
   </si>
   <si>
-    <t>Elián Ibarra y Alan Prada</t>
-  </si>
-  <si>
     <t>Gráfico 2: Diagrama de líneas: Tipos de Productos en el Negocio (Papelería y Miscelánea)</t>
   </si>
   <si>
@@ -548,17 +542,182 @@
     <t>Pudimos encontrar que cuentan con dos lugares: Uno es la distribuidora siendo el negocio más grande, y el otro que es donde fue hecha la entrevista, donde venden los productos. Se pudo observar que cuentan en su mayoría de papelería tales como: Cuadernos, lapices, lapiceros, carpetas. Pero también algunos dulces.</t>
   </si>
   <si>
-    <t>12/03/23</t>
-  </si>
-  <si>
     <t>Se pudo encontrar que el administrador y el diatribuidor buscan un diseño gráfico, con imágenes más que texto pero al mismo tiempo sencillo</t>
+  </si>
+  <si>
+    <t>Alan Prada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elián Ibarra </t>
+  </si>
+  <si>
+    <t>11/03/23</t>
+  </si>
+  <si>
+    <t>0.2.1</t>
+  </si>
+  <si>
+    <t>Corrección archivos Gestíón proyecto</t>
+  </si>
+  <si>
+    <t>05/03/23</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>Wireframes Avance</t>
+  </si>
+  <si>
+    <t>08/03/23</t>
+  </si>
+  <si>
+    <t>0.3.1</t>
+  </si>
+  <si>
+    <t>Corrección wireframe administrador</t>
+  </si>
+  <si>
+    <t>10/03/23</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carga de Diagramas UML </t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>Carpetas prototipo no funcional</t>
+  </si>
+  <si>
+    <t>26/03/23</t>
+  </si>
+  <si>
+    <t>0.5.1</t>
+  </si>
+  <si>
+    <t>Ejemplo Instructor</t>
+  </si>
+  <si>
+    <t>0.5.2</t>
+  </si>
+  <si>
+    <t>Creación de archivos PTNF</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>Diagramas UML: Procesos y UML - Casos Uso y Clases</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>Avance Casos de Uso Extendido</t>
+  </si>
+  <si>
+    <t>01/04/23</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>Wireframe de Adminstrador (archivo final)</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>Análisis de la recolección de datos</t>
+  </si>
+  <si>
+    <t>03/04/23</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>Archivos gestión proyecto (final)</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>Prototipo no funcional (final)</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>Diagramas UML: Procesos y UML - Casos Uso y Clases (final)</t>
+  </si>
+  <si>
+    <t>13/04/23</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>PTNF - Interfaz Vendedor, Distribuidor</t>
+  </si>
+  <si>
+    <t>14/04/23</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>Sistema de archivos css boostrap 4.6.2</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>Archivos plantilla Arquitectura de Software</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>Requisitos de software e Historia Usuario</t>
+  </si>
+  <si>
+    <t>15/04/23</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>CUE - Dibujo conceptual</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>.docxs de Casos de uso Extendido</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>Imagen Empresa - Logo</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>Actualización Hoja control y cronograma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="35">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -761,8 +920,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -805,8 +983,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="58">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -927,51 +1111,6 @@
       <top style="double">
         <color rgb="FF999999"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="double">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="double">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="double">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="double">
-        <color rgb="FF999999"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF999999"/>
       </bottom>
@@ -1003,81 +1142,6 @@
         <color rgb="FF999999"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="double">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="double">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF999999"/>
       </bottom>
       <diagonal/>
@@ -1555,7 +1619,251 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="double">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="double">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="double">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="double">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="double">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="double">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="double">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="double">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="double">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="double">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="double">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="double">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="double">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF999999"/>
       </left>
       <right/>
@@ -1569,7 +1877,18 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
         <color rgb="FF999999"/>
       </right>
       <top style="thin">
@@ -1580,19 +1899,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1600,7 +1906,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1633,34 +1939,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
@@ -1670,68 +1952,62 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="2" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="2" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="2" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="4" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="4" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1744,173 +2020,160 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="4" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="4" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="27" xfId="2" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="2" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="29" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="29" fillId="4" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="29" fillId="4" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="29" fillId="4" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1919,156 +2182,200 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel_BuiltIn_Hyperlink" xfId="2"/>
@@ -2228,8 +2535,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="324697584"/>
-        <c:axId val="324696800"/>
+        <c:axId val="394792240"/>
+        <c:axId val="394790672"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2310,11 +2617,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="324697584"/>
-        <c:axId val="324696800"/>
+        <c:axId val="394792240"/>
+        <c:axId val="394790672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="324697584"/>
+        <c:axId val="394792240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2357,7 +2664,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324696800"/>
+        <c:crossAx val="394790672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2365,7 +2672,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324696800"/>
+        <c:axId val="394790672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2416,7 +2723,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324697584"/>
+        <c:crossAx val="394792240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2734,12 +3041,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="324700328"/>
-        <c:axId val="324699544"/>
+        <c:axId val="394791064"/>
+        <c:axId val="394787144"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="324700328"/>
+        <c:axId val="394791064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2776,7 +3083,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324699544"/>
+        <c:crossAx val="394787144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2784,7 +3091,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324699544"/>
+        <c:axId val="394787144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2835,7 +3142,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324700328"/>
+        <c:crossAx val="394791064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3121,12 +3428,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="324698368"/>
-        <c:axId val="324698760"/>
+        <c:axId val="394794200"/>
+        <c:axId val="394789104"/>
         <c:axId val="0"/>
       </c:area3DChart>
       <c:catAx>
-        <c:axId val="324698368"/>
+        <c:axId val="394794200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3169,7 +3476,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324698760"/>
+        <c:crossAx val="394789104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3177,7 +3484,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324698760"/>
+        <c:axId val="394789104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3228,7 +3535,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324698368"/>
+        <c:crossAx val="394794200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4974,7 +5281,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5028,7 +5335,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5082,7 +5389,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5136,7 +5443,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5190,7 +5497,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5244,7 +5551,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5388,7 +5695,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5716,8 +6023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IV84"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -5742,55 +6049,55 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="C7" s="101" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="102"/>
-      <c r="E7" s="103"/>
+      <c r="C7" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="105"/>
+      <c r="E7" s="106"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="C8" s="101" t="s">
+      <c r="C8" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="102"/>
-      <c r="E8" s="103"/>
-    </row>
-    <row r="10" spans="1:11" s="41" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="105"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="106"/>
+    </row>
+    <row r="10" spans="1:11" s="31" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A10" s="108"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="13" spans="1:11" ht="30">
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1">
       <c r="B15" s="2"/>
@@ -5801,56 +6108,56 @@
       <c r="B16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="106" t="s">
+      <c r="C16" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
     </row>
     <row r="17" spans="1:16" ht="18">
       <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="107" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
+      <c r="C17" s="100" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
     </row>
     <row r="18" spans="1:16" ht="18">
       <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
     </row>
     <row r="19" spans="1:16" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="44" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="107" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
+      <c r="C19" s="100" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
     </row>
     <row r="20" spans="1:16" ht="19.899999999999999" customHeight="1" thickTop="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="44" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="109" t="s">
+      <c r="C20" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="109"/>
+      <c r="D20" s="102"/>
       <c r="E20" s="7" t="s">
         <v>7</v>
       </c>
@@ -5859,14 +6166,14 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="124" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="110" t="s">
+      <c r="C21" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="111"/>
+      <c r="D21" s="94"/>
       <c r="E21" s="9" t="s">
         <v>9</v>
       </c>
@@ -5875,10 +6182,10 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="36.75" thickBot="1">
-      <c r="A22" s="29"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="113"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="96"/>
       <c r="E22" s="10" t="s">
         <v>10</v>
       </c>
@@ -5902,459 +6209,689 @@
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:16" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="117" t="s">
+      <c r="D26" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="117"/>
-      <c r="F26" s="16" t="s">
+      <c r="E26" s="164"/>
+      <c r="F26" s="165" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="118" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" s="118"/>
-      <c r="F27" s="19" t="s">
+      <c r="D27" s="166" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="167"/>
+      <c r="F27" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="24.95" customHeight="1" thickTop="1">
-      <c r="B28" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="20" t="s">
+    <row r="28" spans="1:16" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B28" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="118" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="118"/>
-      <c r="F28" s="8" t="s">
+      <c r="C28" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="166" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="39.950000000000003" customHeight="1">
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:16" ht="39.950000000000003" customHeight="1">
-      <c r="B30" s="20"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:16" ht="25.5" customHeight="1">
-      <c r="B31" s="20"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:16" ht="24.95" customHeight="1">
-      <c r="B32" s="20"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B33" s="20"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="123"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="11"/>
-    </row>
-    <row r="36" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
+      <c r="E28" s="167"/>
+      <c r="F28" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B29" s="168" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="166" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="167"/>
+      <c r="F29" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B30" s="168" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="90" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="167"/>
+      <c r="F30" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B31" s="168" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="167"/>
+      <c r="F31" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B32" s="168" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="169" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="167"/>
+      <c r="F32" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B33" s="168" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="169" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="167"/>
+      <c r="F33" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B34" s="168" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="169" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="166" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="167"/>
+      <c r="F34" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B35" s="168" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="168" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="167"/>
+      <c r="F35" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
       <c r="A36" s="2"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="B37" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="30" customHeight="1" thickBot="1"/>
+      <c r="B36" s="170" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="171" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="167"/>
+      <c r="F36" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B37" s="170" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="170" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="166" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="167"/>
+      <c r="F37" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B38" s="170" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="170" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="167"/>
+      <c r="F38" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
     <row r="39" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B39" s="116" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="116"/>
-    </row>
-    <row r="40" spans="1:13" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B40" s="114" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="114"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="114"/>
+      <c r="B39" s="170" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="170" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" s="167"/>
+      <c r="F39" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B40" s="170" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="171" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="166" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="167"/>
+      <c r="F40" s="15" t="s">
+        <v>138</v>
+      </c>
       <c r="J40" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B41" s="115" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="115"/>
-    </row>
-    <row r="42" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B42" s="25"/>
-      <c r="C42" s="24"/>
-      <c r="G42" s="24"/>
-    </row>
-    <row r="43" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B43" s="25"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-    </row>
-    <row r="44" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="24"/>
-    </row>
-    <row r="45" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-    </row>
-    <row r="46" spans="1:13" ht="19.899999999999999" customHeight="1">
+    <row r="41" spans="1:13" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B41" s="170" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="170" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" s="167"/>
+      <c r="F41" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B42" s="170" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="171" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="167"/>
+      <c r="F42" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" s="16"/>
+    </row>
+    <row r="43" spans="1:13" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B43" s="170" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="171" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="167"/>
+      <c r="F43" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A44" s="17"/>
+      <c r="B44" s="170" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="171" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" s="166" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="167"/>
+      <c r="F44" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A45" s="17"/>
+      <c r="B45" s="170" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" s="170" t="s">
+        <v>152</v>
+      </c>
+      <c r="D45" s="166" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="167"/>
+      <c r="F45" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
       <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
+      <c r="B46" s="170" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="170" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" s="166" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="167"/>
+      <c r="F46" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="G46" s="2"/>
-      <c r="I46" s="27"/>
-    </row>
-    <row r="47" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
+      <c r="I46" s="19"/>
+    </row>
+    <row r="47" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A47" s="17"/>
+      <c r="B47" s="170" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" s="170" t="s">
+        <v>157</v>
+      </c>
+      <c r="D47" s="166" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="167"/>
+      <c r="F47" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G47" s="16"/>
       <c r="K47" s="13"/>
       <c r="L47" s="13"/>
       <c r="M47" s="13"/>
     </row>
-    <row r="48" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="26"/>
-      <c r="G48" s="24"/>
+    <row r="48" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A48" s="17"/>
+      <c r="B48" s="170" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="90" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" s="166" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="167"/>
+      <c r="F48" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G48" s="16"/>
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
     </row>
-    <row r="49" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="24"/>
+    <row r="49" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A49" s="17"/>
+      <c r="B49" s="170" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" s="90" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" s="167"/>
+      <c r="F49" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="G49" s="2"/>
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
     </row>
-    <row r="50" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="28"/>
+    <row r="50" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A50" s="17"/>
+      <c r="B50" s="170" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" s="90" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="E50" s="167"/>
+      <c r="F50" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G50" s="16"/>
+      <c r="H50" s="20"/>
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
       <c r="M50" s="13"/>
     </row>
-    <row r="51" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A51" s="25"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
+    <row r="51" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
+      <c r="A51" s="17"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
       <c r="K51" s="13"/>
       <c r="L51" s="13"/>
     </row>
     <row r="52" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A52" s="29"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="172" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="173"/>
+      <c r="D52" s="173"/>
+      <c r="E52" s="173"/>
+      <c r="F52" s="173"/>
       <c r="K52" s="13"/>
       <c r="L52" s="13"/>
     </row>
-    <row r="53" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A53" s="29"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="F53" s="32"/>
+    <row r="53" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A53" s="21"/>
+      <c r="B53" s="173"/>
+      <c r="C53" s="173"/>
+      <c r="D53" s="173"/>
+      <c r="E53" s="173"/>
+      <c r="F53" s="173"/>
       <c r="K53" s="13"/>
       <c r="L53" s="13"/>
     </row>
-    <row r="54" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A54" s="29"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
+    <row r="54" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A54" s="21"/>
+      <c r="B54" s="174" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="175"/>
+      <c r="D54" s="175"/>
+      <c r="E54" s="175"/>
+      <c r="F54" s="176"/>
       <c r="K54" s="13"/>
       <c r="L54" s="13"/>
     </row>
-    <row r="55" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A55" s="29"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="F55" s="26"/>
+    <row r="55" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
+      <c r="A55" s="21"/>
+      <c r="B55" s="177" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="178"/>
+      <c r="D55" s="178"/>
+      <c r="E55" s="178"/>
+      <c r="F55" s="179"/>
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
     </row>
     <row r="56" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A56" s="29"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="24"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="180" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="181"/>
+      <c r="D56" s="181"/>
+      <c r="E56" s="181"/>
+      <c r="F56" s="182"/>
+      <c r="G56" s="16"/>
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
     </row>
     <row r="57" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A57" s="29"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="25"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="17"/>
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
     </row>
     <row r="58" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A58" s="29"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="26"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="18"/>
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
     </row>
     <row r="59" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A59" s="29"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="26"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="18"/>
       <c r="K59" s="13"/>
       <c r="L59" s="13"/>
     </row>
     <row r="60" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A60" s="29"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="G60" s="24"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="G60" s="16"/>
       <c r="K60" s="13"/>
       <c r="L60" s="13"/>
     </row>
     <row r="61" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A61" s="29"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="G61" s="24"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="G61" s="16"/>
       <c r="K61" s="13"/>
       <c r="L61" s="13"/>
     </row>
     <row r="62" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A62" s="29"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="G62" s="24"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="G62" s="16"/>
       <c r="K62" s="13"/>
       <c r="L62" s="13"/>
     </row>
     <row r="63" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A63" s="29"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
       <c r="K63" s="13"/>
       <c r="L63" s="13"/>
     </row>
     <row r="64" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A64" s="29"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
     </row>
     <row r="65" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A65" s="29"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
     </row>
     <row r="66" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A66" s="29"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
     </row>
     <row r="67" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A67" s="29"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
     </row>
     <row r="68" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A68" s="29"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
     </row>
     <row r="69" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A69" s="29"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
     </row>
     <row r="70" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A70" s="29"/>
-      <c r="B70" s="33"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
     </row>
     <row r="71" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A71" s="29"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
     </row>
     <row r="72" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A72" s="29"/>
-      <c r="B72" s="33"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
     </row>
     <row r="73" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="B73" s="24"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
     </row>
     <row r="74" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="B74" s="33"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
     </row>
     <row r="75" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="B75" s="24"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
     </row>
     <row r="76" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="B76" s="33"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
     </row>
     <row r="77" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="B77" s="24"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
-      <c r="J77" s="34"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="J77" s="24"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="B78" s="33"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="J78" s="34"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="J78" s="24"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="B79" s="24"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="B80" s="33"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
     </row>
     <row r="81" spans="2:4">
-      <c r="B81" s="24"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
     </row>
     <row r="82" spans="2:4">
-      <c r="B82" s="33"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
     </row>
     <row r="83" spans="2:4">
-      <c r="B83" s="26"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
     </row>
     <row r="84" spans="2:4">
-      <c r="C84" s="26"/>
-      <c r="D84" s="24"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="38">
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
@@ -6365,23 +6902,23 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="D36:E36"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C36" r:id="rId1" display="https://github.com/FazeElian/TPS_FDS-2671339-AutOsiris-SIW7/commit/2ecb800010571b5d940e7676f0266ceec1077960"/>
+    <hyperlink ref="C42" r:id="rId2" display="https://github.com/FazeElian/TPS_FDS-2671339-AutOsiris-SIW7/commit/2ecb800010571b5d940e7676f0266ceec1077960"/>
+    <hyperlink ref="C43" r:id="rId3" display="https://github.com/FazeElian/TPS_FDS-2671339-AutOsiris-SIW7/commit/ddef5646d1619856509cd4f6dfa08cbbf65d9218"/>
+    <hyperlink ref="C44" r:id="rId4" display="https://github.com/FazeElian/TPS_FDS-2671339-AutOsiris-SIW7/commit/0c769153084fe7db0108fb14201abfc7337a63a6"/>
+    <hyperlink ref="C45" r:id="rId5" display="https://github.com/FazeElian/TPS_FDS-2671339-AutOsiris-SIW7/commit/a5924840849b6af44446e8ba51c6b3dfdb20fa5b"/>
+    <hyperlink ref="C46" r:id="rId6" display="https://github.com/FazeElian/TPS_FDS-2671339-AutOsiris-SIW7/commit/1653bf22f70f0bb1794a795c1aa8e547e51318a3"/>
+    <hyperlink ref="C47" r:id="rId7" display="https://github.com/FazeElian/TPS_FDS-2671339-AutOsiris-SIW7/commit/e6e8b3c9e3916fc54fa43712278852888c255f72"/>
+    <hyperlink ref="C48" r:id="rId8" display="https://github.com/FazeElian/TPS_FDS-2671339-AutOsiris-SIW7/commit/725397936391c6848b06ebf337da927ad0bb5592"/>
+    <hyperlink ref="C49" r:id="rId9" display="https://github.com/FazeElian/TPS_FDS-2671339-AutOsiris-SIW7/commit/2eed1e38b0b118dc5f3af284241409ba06b6bfd6"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
-  <pageSetup scale="45" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup scale="45" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId10"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -6410,209 +6947,209 @@
     <col min="254" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" s="41" customFormat="1" ht="5.0999999999999996" customHeight="1">
-      <c r="A3" s="128"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-    </row>
-    <row r="4" spans="1:10" s="42" customFormat="1" ht="20.25">
-      <c r="A4" s="129" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="129"/>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-    </row>
-    <row r="5" spans="1:10" s="42" customFormat="1" ht="20.25">
-      <c r="A5" s="129" t="s">
+    <row r="3" spans="1:10" s="31" customFormat="1" ht="5.0999999999999996" customHeight="1">
+      <c r="A3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+    </row>
+    <row r="4" spans="1:10" s="32" customFormat="1" ht="20.25">
+      <c r="A4" s="112" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+    </row>
+    <row r="5" spans="1:10" s="32" customFormat="1" ht="20.25">
+      <c r="A5" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-    </row>
-    <row r="6" spans="1:10" s="41" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A6" s="105"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+    </row>
+    <row r="6" spans="1:10" s="31" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A6" s="108"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickTop="1"/>
     <row r="8" spans="1:10" ht="15" thickBot="1">
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-    </row>
-    <row r="9" spans="1:10" s="35" customFormat="1" ht="24" customHeight="1">
-      <c r="B9" s="78" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
+      <c r="B9" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="79" t="s">
+      <c r="E9" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="F9" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="79" t="s">
+      <c r="H9" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="80" t="s">
+      <c r="I9" s="70" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="36" customFormat="1" ht="60" customHeight="1">
-      <c r="B10" s="126" t="s">
+    <row r="10" spans="1:10" s="26" customFormat="1" ht="60" customHeight="1">
+      <c r="B10" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="69">
+      <c r="F10" s="59">
         <v>44991</v>
       </c>
-      <c r="G10" s="67" t="s">
+      <c r="G10" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="36" customFormat="1" ht="42" customHeight="1">
-      <c r="B11" s="126"/>
-      <c r="C11" s="67" t="s">
+    <row r="11" spans="1:10" s="26" customFormat="1" ht="42" customHeight="1">
+      <c r="B11" s="109"/>
+      <c r="C11" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="67" t="s">
+      <c r="E11" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="69">
+      <c r="F11" s="59">
         <v>44991</v>
       </c>
-      <c r="G11" s="67" t="s">
+      <c r="G11" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="67" t="s">
+      <c r="H11" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="43" t="s">
+      <c r="I11" s="33" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:10" customFormat="1" ht="69.95" customHeight="1">
-      <c r="B12" s="126" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="67" t="s">
+      <c r="B12" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="C12" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="69">
+      <c r="F12" s="59">
         <v>44999</v>
       </c>
-      <c r="G12" s="67" t="s">
+      <c r="G12" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="67" t="s">
+      <c r="H12" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="43" t="s">
+      <c r="I12" s="33" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:10" customFormat="1" ht="45" customHeight="1" thickBot="1">
-      <c r="B13" s="127"/>
-      <c r="C13" s="68" t="s">
+      <c r="B13" s="110"/>
+      <c r="C13" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="68" t="s">
+      <c r="E13" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="69">
+      <c r="F13" s="59">
         <v>44999</v>
       </c>
-      <c r="G13" s="68" t="s">
+      <c r="G13" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="68" t="s">
+      <c r="H13" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="77" t="s">
+      <c r="I13" s="67" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:10" customFormat="1" ht="43.5" customHeight="1">
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:10" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -6620,9 +7157,9 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:10" customFormat="1" ht="15">
-      <c r="B16" s="33"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -6630,9 +7167,9 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:253" customFormat="1" ht="15">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -6640,9 +7177,9 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:253" customFormat="1" ht="15">
-      <c r="B18" s="33"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -6650,102 +7187,102 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:253" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
       <c r="IS19" s="2"/>
     </row>
     <row r="20" spans="1:253" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
       <c r="IS20" s="2"/>
     </row>
     <row r="21" spans="1:253" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
       <c r="IS21" s="2"/>
     </row>
     <row r="22" spans="1:253" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A22" s="29"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
       <c r="IS22" s="2"/>
     </row>
     <row r="23" spans="1:253" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
       <c r="IS23" s="2"/>
     </row>
     <row r="24" spans="1:253" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="I24" s="34"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="I24" s="24"/>
       <c r="IS24" s="2"/>
     </row>
     <row r="25" spans="1:253" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="I25" s="34"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="I25" s="24"/>
       <c r="IS25" s="2"/>
     </row>
     <row r="26" spans="1:253" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B26" s="33"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
       <c r="IS26" s="2"/>
     </row>
     <row r="27" spans="1:253" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
       <c r="IS27" s="2"/>
     </row>
     <row r="28" spans="1:253" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B28" s="33"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
       <c r="IS28" s="2"/>
     </row>
     <row r="29" spans="1:253" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
       <c r="IS29" s="2"/>
     </row>
     <row r="30" spans="1:253" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B30" s="33"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
       <c r="IS30" s="2"/>
     </row>
     <row r="31" spans="1:253" s="1" customFormat="1">
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
       <c r="IS31" s="2"/>
     </row>
     <row r="32" spans="1:253" s="1" customFormat="1">
-      <c r="B32" s="33"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
       <c r="IS32" s="2"/>
     </row>
     <row r="33" spans="2:253" s="1" customFormat="1">
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="24"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="16"/>
       <c r="IS33" s="2"/>
     </row>
     <row r="34" spans="2:253" s="1" customFormat="1">
@@ -6808,60 +7345,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="A7" s="101" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="103"/>
+      <c r="A7" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="106"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="103"/>
-    </row>
-    <row r="10" spans="1:11" s="41" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="105"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="106"/>
+    </row>
+    <row r="10" spans="1:11" s="31" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A10" s="108"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="12" spans="1:11">
@@ -6869,188 +7406,188 @@
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1"/>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="50" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="60"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A16" s="21"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="62">
+        <v>44991</v>
+      </c>
+      <c r="F16" s="60"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A17" s="21"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="62">
+        <v>44991</v>
+      </c>
+      <c r="F17" s="60"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A18" s="21"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="70"/>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="72">
-        <v>44991</v>
-      </c>
-      <c r="F16" s="70"/>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="54" t="s">
+      <c r="E18" s="64">
+        <v>44996</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="A19" s="21"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="72">
-        <v>44991</v>
-      </c>
-      <c r="F17" s="70"/>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="74">
+      <c r="E19" s="66">
         <v>44996</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="K18" s="13"/>
-    </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="76">
-        <v>44996</v>
-      </c>
-      <c r="F19" s="34"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A22" s="29"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
     </row>
     <row r="24" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A27" s="29"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
     </row>
     <row r="28" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B29" s="33"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
     </row>
     <row r="30" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
     </row>
     <row r="31" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B31" s="33"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
     </row>
     <row r="32" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="J32" s="34"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="J32" s="24"/>
     </row>
     <row r="33" spans="2:10" s="1" customFormat="1">
-      <c r="B33" s="33"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="J33" s="34"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="J33" s="24"/>
     </row>
     <row r="34" spans="2:10" s="1" customFormat="1">
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
     </row>
     <row r="35" spans="2:10" s="1" customFormat="1">
-      <c r="B35" s="33"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
     </row>
     <row r="36" spans="2:10" s="1" customFormat="1">
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
     </row>
     <row r="37" spans="2:10" s="1" customFormat="1">
-      <c r="B37" s="33"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
     </row>
     <row r="38" spans="2:10" s="1" customFormat="1">
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
     </row>
     <row r="39" spans="2:10" s="1" customFormat="1">
-      <c r="B39" s="33"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
     </row>
     <row r="40" spans="2:10" s="1" customFormat="1">
-      <c r="B40" s="26"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
     </row>
     <row r="41" spans="2:10" s="1" customFormat="1">
-      <c r="C41" s="26"/>
-      <c r="D41" s="24"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7072,7 +7609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IW41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -7096,296 +7633,296 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="101" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="103"/>
+      <c r="A7" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="106"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="103"/>
-    </row>
-    <row r="10" spans="1:257" s="41" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="105"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="106"/>
+    </row>
+    <row r="10" spans="1:257" s="31" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A10" s="108"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
       <c r="F12" s="4"/>
     </row>
     <row r="14" spans="1:257" ht="15" thickBot="1">
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
     </row>
     <row r="15" spans="1:257" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="178" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="47"/>
-      <c r="G15" s="24"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="16"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="IW15" s="2"/>
     </row>
     <row r="16" spans="1:257" s="1" customFormat="1" ht="120" customHeight="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="179" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="39">
         <v>44991</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="24"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="16"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="IW16" s="2"/>
     </row>
     <row r="17" spans="1:257" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="54" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="39">
         <v>44991</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="16"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="IW17" s="2"/>
     </row>
     <row r="18" spans="1:257" s="1" customFormat="1" ht="90" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="82">
+      <c r="A18" s="21"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="72">
         <v>44999</v>
       </c>
-      <c r="E18" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="34"/>
+      <c r="E18" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="24"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="IT18" s="2"/>
     </row>
     <row r="19" spans="1:257" s="1" customFormat="1" ht="90" customHeight="1" thickBot="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="83" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="84">
+      <c r="D19" s="74">
         <v>44999</v>
       </c>
-      <c r="E19" s="99" t="s">
+      <c r="E19" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="34"/>
+      <c r="F19" s="24"/>
       <c r="IT19" s="2"/>
     </row>
     <row r="20" spans="1:257" s="1" customFormat="1" ht="69.95" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
       <c r="IT20" s="2"/>
     </row>
     <row r="21" spans="1:257" s="1" customFormat="1" ht="69.95" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="34"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="24"/>
       <c r="IT21" s="2"/>
     </row>
     <row r="22" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A22" s="29"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
       <c r="IW22" s="2"/>
     </row>
     <row r="23" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
       <c r="IW23" s="2"/>
     </row>
     <row r="24" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
       <c r="IW24" s="2"/>
     </row>
     <row r="25" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
       <c r="IW25" s="2"/>
     </row>
     <row r="26" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
       <c r="IW26" s="2"/>
     </row>
     <row r="27" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A27" s="29"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
       <c r="IW27" s="2"/>
     </row>
     <row r="28" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
       <c r="IW28" s="2"/>
     </row>
     <row r="29" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B29" s="33"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
       <c r="IW29" s="2"/>
     </row>
     <row r="30" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
       <c r="IW30" s="2"/>
     </row>
     <row r="31" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B31" s="33"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
       <c r="IW31" s="2"/>
     </row>
     <row r="32" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="J32" s="34"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="J32" s="24"/>
       <c r="IW32" s="2"/>
     </row>
     <row r="33" spans="2:257" s="1" customFormat="1">
-      <c r="B33" s="33"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="J33" s="34"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="J33" s="24"/>
       <c r="IW33" s="2"/>
     </row>
     <row r="34" spans="2:257" s="1" customFormat="1">
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
       <c r="IW34" s="2"/>
     </row>
     <row r="35" spans="2:257" s="1" customFormat="1">
-      <c r="B35" s="33"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
       <c r="IW35" s="2"/>
     </row>
     <row r="36" spans="2:257" s="1" customFormat="1">
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
       <c r="IW36" s="2"/>
     </row>
     <row r="37" spans="2:257" s="1" customFormat="1">
-      <c r="B37" s="33"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
       <c r="IW37" s="2"/>
     </row>
     <row r="38" spans="2:257" s="1" customFormat="1">
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
       <c r="IW38" s="2"/>
     </row>
     <row r="39" spans="2:257" s="1" customFormat="1">
-      <c r="B39" s="33"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
       <c r="IW39" s="2"/>
     </row>
     <row r="40" spans="2:257" s="1" customFormat="1">
-      <c r="B40" s="26"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
       <c r="IW40" s="2"/>
     </row>
     <row r="41" spans="2:257" s="1" customFormat="1">
-      <c r="C41" s="26"/>
-      <c r="D41" s="24"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="16"/>
       <c r="IW41" s="2"/>
     </row>
   </sheetData>
@@ -7437,589 +7974,600 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:253">
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
     </row>
     <row r="6" spans="1:253">
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
     </row>
     <row r="7" spans="1:253" ht="30">
-      <c r="A7" s="101" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="103"/>
+      <c r="A7" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="106"/>
     </row>
     <row r="8" spans="1:253" ht="30">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="103"/>
-    </row>
-    <row r="10" spans="1:253" s="41" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="136"/>
-      <c r="B10" s="136"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="136"/>
-      <c r="K10" s="136"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="106"/>
+    </row>
+    <row r="10" spans="1:253" s="31" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A10" s="125"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
     </row>
     <row r="11" spans="1:253" ht="15" thickTop="1"/>
     <row r="12" spans="1:253">
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:253">
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-    </row>
-    <row r="14" spans="1:253" s="58" customFormat="1" ht="30" customHeight="1">
-      <c r="A14" s="57"/>
-      <c r="B14" s="143" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+    </row>
+    <row r="14" spans="1:253" s="48" customFormat="1" ht="30" customHeight="1">
+      <c r="A14" s="47"/>
+      <c r="B14" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="144"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="138"/>
-      <c r="K14" s="138"/>
-      <c r="L14" s="138"/>
-      <c r="M14" s="138"/>
-      <c r="N14" s="138"/>
-      <c r="O14" s="138"/>
-      <c r="P14" s="138"/>
-      <c r="Q14" s="139"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="57"/>
-      <c r="AB14" s="57"/>
-      <c r="AC14" s="57"/>
-      <c r="AD14" s="57"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="57"/>
-      <c r="AG14" s="57"/>
-      <c r="AH14" s="57"/>
-      <c r="AI14" s="57"/>
-      <c r="AJ14" s="57"/>
-      <c r="AK14" s="57"/>
-      <c r="AL14" s="57"/>
-      <c r="AM14" s="57"/>
-      <c r="AN14" s="57"/>
-      <c r="AO14" s="57"/>
-      <c r="AP14" s="57"/>
-      <c r="AQ14" s="57"/>
-      <c r="AR14" s="57"/>
-      <c r="AS14" s="57"/>
-      <c r="AT14" s="57"/>
-      <c r="AU14" s="57"/>
-      <c r="AV14" s="57"/>
-      <c r="AW14" s="57"/>
-      <c r="AX14" s="57"/>
-      <c r="AY14" s="57"/>
-      <c r="AZ14" s="57"/>
-      <c r="BA14" s="57"/>
-      <c r="BB14" s="57"/>
-      <c r="BC14" s="57"/>
-      <c r="BD14" s="57"/>
-      <c r="BE14" s="57"/>
-      <c r="BF14" s="57"/>
-      <c r="BG14" s="57"/>
-      <c r="BH14" s="57"/>
-      <c r="BI14" s="57"/>
-      <c r="BJ14" s="57"/>
-      <c r="BK14" s="57"/>
-      <c r="BL14" s="57"/>
-      <c r="BM14" s="57"/>
-      <c r="BN14" s="57"/>
-      <c r="BO14" s="57"/>
-      <c r="BP14" s="57"/>
-      <c r="BQ14" s="57"/>
-      <c r="BR14" s="57"/>
-      <c r="BS14" s="57"/>
-      <c r="BT14" s="57"/>
-      <c r="BU14" s="57"/>
-      <c r="BV14" s="57"/>
-      <c r="BW14" s="57"/>
-      <c r="BX14" s="57"/>
-      <c r="BY14" s="57"/>
-      <c r="BZ14" s="57"/>
-      <c r="CA14" s="57"/>
-      <c r="CB14" s="57"/>
-      <c r="CC14" s="57"/>
-      <c r="CD14" s="57"/>
-      <c r="CE14" s="57"/>
-      <c r="CF14" s="57"/>
-      <c r="CG14" s="57"/>
-      <c r="CH14" s="57"/>
-      <c r="CI14" s="57"/>
-      <c r="CJ14" s="57"/>
-      <c r="CK14" s="57"/>
-      <c r="CL14" s="57"/>
-      <c r="CM14" s="57"/>
-      <c r="CN14" s="57"/>
-      <c r="CO14" s="57"/>
-      <c r="CP14" s="57"/>
-      <c r="CQ14" s="57"/>
-      <c r="CR14" s="57"/>
-      <c r="CS14" s="57"/>
-      <c r="CT14" s="57"/>
-      <c r="CU14" s="57"/>
-      <c r="CV14" s="57"/>
-      <c r="CW14" s="57"/>
-      <c r="CX14" s="57"/>
-      <c r="CY14" s="57"/>
-      <c r="CZ14" s="57"/>
-      <c r="DA14" s="57"/>
-      <c r="DB14" s="57"/>
-      <c r="DC14" s="57"/>
-      <c r="DD14" s="57"/>
-      <c r="DE14" s="57"/>
-      <c r="DF14" s="57"/>
-      <c r="DG14" s="57"/>
-      <c r="DH14" s="57"/>
-      <c r="DI14" s="57"/>
-      <c r="DJ14" s="57"/>
-      <c r="DK14" s="57"/>
-      <c r="DL14" s="57"/>
-      <c r="DM14" s="57"/>
-      <c r="DN14" s="57"/>
-      <c r="DO14" s="57"/>
-      <c r="DP14" s="57"/>
-      <c r="DQ14" s="57"/>
-      <c r="DR14" s="57"/>
-      <c r="DS14" s="57"/>
-      <c r="DT14" s="57"/>
-      <c r="DU14" s="57"/>
-      <c r="DV14" s="57"/>
-      <c r="DW14" s="57"/>
-      <c r="DX14" s="57"/>
-      <c r="DY14" s="57"/>
-      <c r="DZ14" s="57"/>
-      <c r="EA14" s="57"/>
-      <c r="EB14" s="57"/>
-      <c r="EC14" s="57"/>
-      <c r="ED14" s="57"/>
-      <c r="EE14" s="57"/>
-      <c r="EF14" s="57"/>
-      <c r="EG14" s="57"/>
-      <c r="EH14" s="57"/>
-      <c r="EI14" s="57"/>
-      <c r="EJ14" s="57"/>
-      <c r="EK14" s="57"/>
-      <c r="EL14" s="57"/>
-      <c r="EM14" s="57"/>
-      <c r="EN14" s="57"/>
-      <c r="EO14" s="57"/>
-      <c r="EP14" s="57"/>
-      <c r="EQ14" s="57"/>
-      <c r="ER14" s="57"/>
-      <c r="ES14" s="57"/>
-      <c r="ET14" s="57"/>
-      <c r="EU14" s="57"/>
-      <c r="EV14" s="57"/>
-      <c r="EW14" s="57"/>
-      <c r="EX14" s="57"/>
-      <c r="EY14" s="57"/>
-      <c r="EZ14" s="57"/>
-      <c r="FA14" s="57"/>
-      <c r="FB14" s="57"/>
-      <c r="FC14" s="57"/>
-      <c r="FD14" s="57"/>
-      <c r="FE14" s="57"/>
-      <c r="FF14" s="57"/>
-      <c r="FG14" s="57"/>
-      <c r="FH14" s="57"/>
-      <c r="FI14" s="57"/>
-      <c r="FJ14" s="57"/>
-      <c r="FK14" s="57"/>
-      <c r="FL14" s="57"/>
-      <c r="FM14" s="57"/>
-      <c r="FN14" s="57"/>
-      <c r="FO14" s="57"/>
-      <c r="FP14" s="57"/>
-      <c r="FQ14" s="57"/>
-      <c r="FR14" s="57"/>
-      <c r="FS14" s="57"/>
-      <c r="FT14" s="57"/>
-      <c r="FU14" s="57"/>
-      <c r="FV14" s="57"/>
-      <c r="FW14" s="57"/>
-      <c r="FX14" s="57"/>
-      <c r="FY14" s="57"/>
-      <c r="FZ14" s="57"/>
-      <c r="GA14" s="57"/>
-      <c r="GB14" s="57"/>
-      <c r="GC14" s="57"/>
-      <c r="GD14" s="57"/>
-      <c r="GE14" s="57"/>
-      <c r="GF14" s="57"/>
-      <c r="GG14" s="57"/>
-      <c r="GH14" s="57"/>
-      <c r="GI14" s="57"/>
-      <c r="GJ14" s="57"/>
-      <c r="GK14" s="57"/>
-      <c r="GL14" s="57"/>
-      <c r="GM14" s="57"/>
-      <c r="GN14" s="57"/>
-      <c r="GO14" s="57"/>
-      <c r="GP14" s="57"/>
-      <c r="GQ14" s="57"/>
-      <c r="GR14" s="57"/>
-      <c r="GS14" s="57"/>
-      <c r="GT14" s="57"/>
-      <c r="GU14" s="57"/>
-      <c r="GV14" s="57"/>
-      <c r="GW14" s="57"/>
-      <c r="GX14" s="57"/>
-      <c r="GY14" s="57"/>
-      <c r="GZ14" s="57"/>
-      <c r="HA14" s="57"/>
-      <c r="HB14" s="57"/>
-      <c r="HC14" s="57"/>
-      <c r="HD14" s="57"/>
-      <c r="HE14" s="57"/>
-      <c r="HF14" s="57"/>
-      <c r="HG14" s="57"/>
-      <c r="HH14" s="57"/>
-      <c r="HI14" s="57"/>
-      <c r="HJ14" s="57"/>
-      <c r="HK14" s="57"/>
-      <c r="HL14" s="57"/>
-      <c r="HM14" s="57"/>
-      <c r="HN14" s="57"/>
-      <c r="HO14" s="57"/>
-      <c r="HP14" s="57"/>
-      <c r="HQ14" s="57"/>
-      <c r="HR14" s="57"/>
-      <c r="HS14" s="57"/>
-      <c r="HT14" s="57"/>
-      <c r="HU14" s="57"/>
-      <c r="HV14" s="57"/>
-      <c r="HW14" s="57"/>
-      <c r="HX14" s="57"/>
-      <c r="HY14" s="57"/>
-      <c r="HZ14" s="57"/>
-      <c r="IA14" s="57"/>
-      <c r="IB14" s="57"/>
-      <c r="IC14" s="57"/>
-      <c r="ID14" s="57"/>
-      <c r="IE14" s="57"/>
-      <c r="IF14" s="57"/>
-      <c r="IG14" s="57"/>
-      <c r="IH14" s="57"/>
-      <c r="II14" s="57"/>
-      <c r="IJ14" s="57"/>
-      <c r="IK14" s="57"/>
-      <c r="IL14" s="57"/>
-      <c r="IM14" s="57"/>
-      <c r="IN14" s="57"/>
-      <c r="IO14" s="57"/>
-      <c r="IP14" s="57"/>
-      <c r="IQ14" s="57"/>
-      <c r="IR14" s="57"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="127"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="127"/>
+      <c r="N14" s="127"/>
+      <c r="O14" s="127"/>
+      <c r="P14" s="127"/>
+      <c r="Q14" s="128"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="47"/>
+      <c r="AD14" s="47"/>
+      <c r="AE14" s="47"/>
+      <c r="AF14" s="47"/>
+      <c r="AG14" s="47"/>
+      <c r="AH14" s="47"/>
+      <c r="AI14" s="47"/>
+      <c r="AJ14" s="47"/>
+      <c r="AK14" s="47"/>
+      <c r="AL14" s="47"/>
+      <c r="AM14" s="47"/>
+      <c r="AN14" s="47"/>
+      <c r="AO14" s="47"/>
+      <c r="AP14" s="47"/>
+      <c r="AQ14" s="47"/>
+      <c r="AR14" s="47"/>
+      <c r="AS14" s="47"/>
+      <c r="AT14" s="47"/>
+      <c r="AU14" s="47"/>
+      <c r="AV14" s="47"/>
+      <c r="AW14" s="47"/>
+      <c r="AX14" s="47"/>
+      <c r="AY14" s="47"/>
+      <c r="AZ14" s="47"/>
+      <c r="BA14" s="47"/>
+      <c r="BB14" s="47"/>
+      <c r="BC14" s="47"/>
+      <c r="BD14" s="47"/>
+      <c r="BE14" s="47"/>
+      <c r="BF14" s="47"/>
+      <c r="BG14" s="47"/>
+      <c r="BH14" s="47"/>
+      <c r="BI14" s="47"/>
+      <c r="BJ14" s="47"/>
+      <c r="BK14" s="47"/>
+      <c r="BL14" s="47"/>
+      <c r="BM14" s="47"/>
+      <c r="BN14" s="47"/>
+      <c r="BO14" s="47"/>
+      <c r="BP14" s="47"/>
+      <c r="BQ14" s="47"/>
+      <c r="BR14" s="47"/>
+      <c r="BS14" s="47"/>
+      <c r="BT14" s="47"/>
+      <c r="BU14" s="47"/>
+      <c r="BV14" s="47"/>
+      <c r="BW14" s="47"/>
+      <c r="BX14" s="47"/>
+      <c r="BY14" s="47"/>
+      <c r="BZ14" s="47"/>
+      <c r="CA14" s="47"/>
+      <c r="CB14" s="47"/>
+      <c r="CC14" s="47"/>
+      <c r="CD14" s="47"/>
+      <c r="CE14" s="47"/>
+      <c r="CF14" s="47"/>
+      <c r="CG14" s="47"/>
+      <c r="CH14" s="47"/>
+      <c r="CI14" s="47"/>
+      <c r="CJ14" s="47"/>
+      <c r="CK14" s="47"/>
+      <c r="CL14" s="47"/>
+      <c r="CM14" s="47"/>
+      <c r="CN14" s="47"/>
+      <c r="CO14" s="47"/>
+      <c r="CP14" s="47"/>
+      <c r="CQ14" s="47"/>
+      <c r="CR14" s="47"/>
+      <c r="CS14" s="47"/>
+      <c r="CT14" s="47"/>
+      <c r="CU14" s="47"/>
+      <c r="CV14" s="47"/>
+      <c r="CW14" s="47"/>
+      <c r="CX14" s="47"/>
+      <c r="CY14" s="47"/>
+      <c r="CZ14" s="47"/>
+      <c r="DA14" s="47"/>
+      <c r="DB14" s="47"/>
+      <c r="DC14" s="47"/>
+      <c r="DD14" s="47"/>
+      <c r="DE14" s="47"/>
+      <c r="DF14" s="47"/>
+      <c r="DG14" s="47"/>
+      <c r="DH14" s="47"/>
+      <c r="DI14" s="47"/>
+      <c r="DJ14" s="47"/>
+      <c r="DK14" s="47"/>
+      <c r="DL14" s="47"/>
+      <c r="DM14" s="47"/>
+      <c r="DN14" s="47"/>
+      <c r="DO14" s="47"/>
+      <c r="DP14" s="47"/>
+      <c r="DQ14" s="47"/>
+      <c r="DR14" s="47"/>
+      <c r="DS14" s="47"/>
+      <c r="DT14" s="47"/>
+      <c r="DU14" s="47"/>
+      <c r="DV14" s="47"/>
+      <c r="DW14" s="47"/>
+      <c r="DX14" s="47"/>
+      <c r="DY14" s="47"/>
+      <c r="DZ14" s="47"/>
+      <c r="EA14" s="47"/>
+      <c r="EB14" s="47"/>
+      <c r="EC14" s="47"/>
+      <c r="ED14" s="47"/>
+      <c r="EE14" s="47"/>
+      <c r="EF14" s="47"/>
+      <c r="EG14" s="47"/>
+      <c r="EH14" s="47"/>
+      <c r="EI14" s="47"/>
+      <c r="EJ14" s="47"/>
+      <c r="EK14" s="47"/>
+      <c r="EL14" s="47"/>
+      <c r="EM14" s="47"/>
+      <c r="EN14" s="47"/>
+      <c r="EO14" s="47"/>
+      <c r="EP14" s="47"/>
+      <c r="EQ14" s="47"/>
+      <c r="ER14" s="47"/>
+      <c r="ES14" s="47"/>
+      <c r="ET14" s="47"/>
+      <c r="EU14" s="47"/>
+      <c r="EV14" s="47"/>
+      <c r="EW14" s="47"/>
+      <c r="EX14" s="47"/>
+      <c r="EY14" s="47"/>
+      <c r="EZ14" s="47"/>
+      <c r="FA14" s="47"/>
+      <c r="FB14" s="47"/>
+      <c r="FC14" s="47"/>
+      <c r="FD14" s="47"/>
+      <c r="FE14" s="47"/>
+      <c r="FF14" s="47"/>
+      <c r="FG14" s="47"/>
+      <c r="FH14" s="47"/>
+      <c r="FI14" s="47"/>
+      <c r="FJ14" s="47"/>
+      <c r="FK14" s="47"/>
+      <c r="FL14" s="47"/>
+      <c r="FM14" s="47"/>
+      <c r="FN14" s="47"/>
+      <c r="FO14" s="47"/>
+      <c r="FP14" s="47"/>
+      <c r="FQ14" s="47"/>
+      <c r="FR14" s="47"/>
+      <c r="FS14" s="47"/>
+      <c r="FT14" s="47"/>
+      <c r="FU14" s="47"/>
+      <c r="FV14" s="47"/>
+      <c r="FW14" s="47"/>
+      <c r="FX14" s="47"/>
+      <c r="FY14" s="47"/>
+      <c r="FZ14" s="47"/>
+      <c r="GA14" s="47"/>
+      <c r="GB14" s="47"/>
+      <c r="GC14" s="47"/>
+      <c r="GD14" s="47"/>
+      <c r="GE14" s="47"/>
+      <c r="GF14" s="47"/>
+      <c r="GG14" s="47"/>
+      <c r="GH14" s="47"/>
+      <c r="GI14" s="47"/>
+      <c r="GJ14" s="47"/>
+      <c r="GK14" s="47"/>
+      <c r="GL14" s="47"/>
+      <c r="GM14" s="47"/>
+      <c r="GN14" s="47"/>
+      <c r="GO14" s="47"/>
+      <c r="GP14" s="47"/>
+      <c r="GQ14" s="47"/>
+      <c r="GR14" s="47"/>
+      <c r="GS14" s="47"/>
+      <c r="GT14" s="47"/>
+      <c r="GU14" s="47"/>
+      <c r="GV14" s="47"/>
+      <c r="GW14" s="47"/>
+      <c r="GX14" s="47"/>
+      <c r="GY14" s="47"/>
+      <c r="GZ14" s="47"/>
+      <c r="HA14" s="47"/>
+      <c r="HB14" s="47"/>
+      <c r="HC14" s="47"/>
+      <c r="HD14" s="47"/>
+      <c r="HE14" s="47"/>
+      <c r="HF14" s="47"/>
+      <c r="HG14" s="47"/>
+      <c r="HH14" s="47"/>
+      <c r="HI14" s="47"/>
+      <c r="HJ14" s="47"/>
+      <c r="HK14" s="47"/>
+      <c r="HL14" s="47"/>
+      <c r="HM14" s="47"/>
+      <c r="HN14" s="47"/>
+      <c r="HO14" s="47"/>
+      <c r="HP14" s="47"/>
+      <c r="HQ14" s="47"/>
+      <c r="HR14" s="47"/>
+      <c r="HS14" s="47"/>
+      <c r="HT14" s="47"/>
+      <c r="HU14" s="47"/>
+      <c r="HV14" s="47"/>
+      <c r="HW14" s="47"/>
+      <c r="HX14" s="47"/>
+      <c r="HY14" s="47"/>
+      <c r="HZ14" s="47"/>
+      <c r="IA14" s="47"/>
+      <c r="IB14" s="47"/>
+      <c r="IC14" s="47"/>
+      <c r="ID14" s="47"/>
+      <c r="IE14" s="47"/>
+      <c r="IF14" s="47"/>
+      <c r="IG14" s="47"/>
+      <c r="IH14" s="47"/>
+      <c r="II14" s="47"/>
+      <c r="IJ14" s="47"/>
+      <c r="IK14" s="47"/>
+      <c r="IL14" s="47"/>
+      <c r="IM14" s="47"/>
+      <c r="IN14" s="47"/>
+      <c r="IO14" s="47"/>
+      <c r="IP14" s="47"/>
+      <c r="IQ14" s="47"/>
+      <c r="IR14" s="47"/>
     </row>
     <row r="15" spans="1:253" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="140" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="142"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="131"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="IS15" s="2"/>
     </row>
     <row r="16" spans="1:253" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="133"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="93"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="83"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="IS16" s="2"/>
     </row>
     <row r="17" spans="1:257" s="1" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="133" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="135"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="121"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="IS17" s="2"/>
     </row>
     <row r="18" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="60"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="50"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="IS18" s="2"/>
     </row>
     <row r="19" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="130" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="132"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="115"/>
       <c r="IS19" s="2"/>
     </row>
     <row r="20" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="130" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="132"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="115"/>
       <c r="IS20" s="2"/>
     </row>
     <row r="21" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="130" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="132"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="115"/>
       <c r="IS21" s="2"/>
     </row>
     <row r="22" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A22" s="29"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="130" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="131"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="132"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="115"/>
       <c r="IS22" s="2"/>
     </row>
     <row r="23" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="130" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="132"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="115"/>
       <c r="IS23" s="2"/>
     </row>
     <row r="24" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="130" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="132"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="115"/>
       <c r="IS24" s="2"/>
     </row>
     <row r="25" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="130" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="131"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="132"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="115"/>
       <c r="IS25" s="2"/>
     </row>
     <row r="26" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="130" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="131"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="132"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="115"/>
       <c r="IS26" s="2"/>
     </row>
     <row r="27" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A27" s="29"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="130" t="s">
+      <c r="A27" s="21"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="131"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="132"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="115"/>
       <c r="IS27" s="2"/>
     </row>
     <row r="28" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B28" s="61"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="148"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="124"/>
       <c r="IS28" s="2"/>
     </row>
     <row r="29" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B29" s="61"/>
-      <c r="C29" s="133" t="s">
+      <c r="B29" s="51"/>
+      <c r="C29" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="134"/>
-      <c r="E29" s="134"/>
-      <c r="F29" s="135"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="121"/>
       <c r="IS29" s="2"/>
     </row>
     <row r="30" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B30" s="62"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="65"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="55"/>
       <c r="IW30" s="2"/>
     </row>
     <row r="31" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B31" s="66"/>
-      <c r="C31" s="130" t="s">
+      <c r="B31" s="56"/>
+      <c r="C31" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="131"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="132"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="115"/>
       <c r="IW31" s="2"/>
     </row>
     <row r="32" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B32" s="62"/>
-      <c r="C32" s="130" t="s">
+      <c r="B32" s="52"/>
+      <c r="C32" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="131"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="132"/>
-      <c r="J32" s="34"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="115"/>
+      <c r="J32" s="24"/>
       <c r="IW32" s="2"/>
     </row>
     <row r="33" spans="2:257" s="1" customFormat="1" ht="15.75">
-      <c r="B33" s="66"/>
-      <c r="C33" s="130" t="s">
+      <c r="B33" s="56"/>
+      <c r="C33" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="131"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="132"/>
-      <c r="J33" s="34"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="115"/>
+      <c r="J33" s="24"/>
       <c r="IW33" s="2"/>
     </row>
     <row r="34" spans="2:257" s="1" customFormat="1" ht="15.75">
-      <c r="B34" s="62"/>
-      <c r="C34" s="130" t="s">
+      <c r="B34" s="52"/>
+      <c r="C34" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="131"/>
-      <c r="E34" s="131"/>
-      <c r="F34" s="132"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="115"/>
       <c r="IW34" s="2"/>
     </row>
     <row r="35" spans="2:257" s="1" customFormat="1">
-      <c r="B35" s="66"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
       <c r="IW35" s="2"/>
     </row>
     <row r="36" spans="2:257" s="1" customFormat="1">
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
       <c r="IW36" s="2"/>
     </row>
     <row r="37" spans="2:257" s="1" customFormat="1">
-      <c r="B37" s="66"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
       <c r="IW37" s="2"/>
     </row>
     <row r="38" spans="2:257" s="1" customFormat="1">
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
       <c r="IW38" s="2"/>
     </row>
     <row r="39" spans="2:257" s="1" customFormat="1">
-      <c r="B39" s="33"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
       <c r="IW39" s="2"/>
     </row>
     <row r="40" spans="2:257" s="1" customFormat="1">
-      <c r="B40" s="26"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
       <c r="IW40" s="2"/>
     </row>
     <row r="41" spans="2:257" s="1" customFormat="1">
-      <c r="C41" s="26"/>
-      <c r="D41" s="24"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="16"/>
       <c r="IW41" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="H14:Q14"/>
+    <mergeCell ref="B15:F15"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="C17:F17"/>
@@ -8036,17 +8584,6 @@
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="H14:Q14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A8:K8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
@@ -8082,318 +8619,307 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="101" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="103"/>
+      <c r="A7" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="106"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="103"/>
-    </row>
-    <row r="10" spans="1:257" s="41" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="105"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="106"/>
+    </row>
+    <row r="10" spans="1:257" s="31" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A10" s="108"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
       <c r="F12" s="4"/>
     </row>
     <row r="15" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="37"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="27"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="IW15" s="2"/>
     </row>
     <row r="16" spans="1:257" s="1" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="160" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="161"/>
-      <c r="D16" s="162"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="149" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="150"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="34"/>
-      <c r="K16" s="149" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="140" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="141"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="143" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="144"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="24"/>
+      <c r="K16" s="143" t="s">
+        <v>101</v>
+      </c>
+      <c r="L16" s="144"/>
+      <c r="M16" s="145"/>
+      <c r="IW16" s="2"/>
+    </row>
+    <row r="17" spans="1:257" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A17" s="21"/>
+      <c r="B17" s="134" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="135"/>
+      <c r="D17" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="77"/>
+      <c r="F17" s="134" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="135"/>
+      <c r="H17" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="24"/>
+      <c r="K17" s="134" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" s="135"/>
+      <c r="M17" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="IW17" s="2"/>
+    </row>
+    <row r="18" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A18" s="21"/>
+      <c r="B18" s="136" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="137"/>
+      <c r="D18" s="79">
+        <v>0.75</v>
+      </c>
+      <c r="E18" s="77"/>
+      <c r="F18" s="136" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="137"/>
+      <c r="H18" s="79">
+        <v>0.65</v>
+      </c>
+      <c r="I18" s="24"/>
+      <c r="K18" s="136" t="s">
+        <v>102</v>
+      </c>
+      <c r="L18" s="137"/>
+      <c r="M18" s="79">
+        <v>0.85</v>
+      </c>
+      <c r="IW18" s="2"/>
+    </row>
+    <row r="19" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A19" s="21"/>
+      <c r="B19" s="138" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="139"/>
+      <c r="D19" s="80">
+        <v>0.25</v>
+      </c>
+      <c r="E19" s="77"/>
+      <c r="F19" s="136" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="137"/>
+      <c r="H19" s="79">
+        <v>0.1</v>
+      </c>
+      <c r="I19" s="24"/>
+      <c r="K19" s="136" t="s">
         <v>103</v>
       </c>
-      <c r="L16" s="150"/>
-      <c r="M16" s="151"/>
-      <c r="IW16" s="2"/>
-    </row>
-    <row r="17" spans="1:257" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="152" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="153"/>
-      <c r="D17" s="88" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="87"/>
-      <c r="F17" s="152" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="153"/>
-      <c r="H17" s="88" t="s">
-        <v>89</v>
-      </c>
-      <c r="I17" s="34"/>
-      <c r="K17" s="152" t="s">
-        <v>90</v>
-      </c>
-      <c r="L17" s="153"/>
-      <c r="M17" s="96" t="s">
-        <v>106</v>
-      </c>
-      <c r="IW17" s="2"/>
-    </row>
-    <row r="18" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="154" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="155"/>
-      <c r="D18" s="89">
-        <v>0.75</v>
-      </c>
-      <c r="E18" s="87"/>
-      <c r="F18" s="154" t="s">
+      <c r="L19" s="137"/>
+      <c r="M19" s="79">
+        <v>0.15</v>
+      </c>
+      <c r="IW19" s="2"/>
+    </row>
+    <row r="20" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A20" s="21"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="132" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="155"/>
-      <c r="H18" s="89">
-        <v>0.65</v>
-      </c>
-      <c r="I18" s="34"/>
-      <c r="K18" s="154" t="s">
-        <v>104</v>
-      </c>
-      <c r="L18" s="155"/>
-      <c r="M18" s="89">
-        <v>0.85</v>
-      </c>
-      <c r="IW18" s="2"/>
-    </row>
-    <row r="19" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="158" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="159"/>
-      <c r="D19" s="90">
+      <c r="G20" s="133"/>
+      <c r="H20" s="82">
         <v>0.25</v>
       </c>
-      <c r="E19" s="87"/>
-      <c r="F19" s="154" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="155"/>
-      <c r="H19" s="89">
-        <v>0.1</v>
-      </c>
-      <c r="I19" s="34"/>
-      <c r="K19" s="154" t="s">
-        <v>105</v>
-      </c>
-      <c r="L19" s="155"/>
-      <c r="M19" s="89">
-        <v>0.15</v>
-      </c>
-      <c r="IW19" s="2"/>
-    </row>
-    <row r="20" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="156" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="157"/>
-      <c r="H20" s="92">
-        <v>0.25</v>
-      </c>
-      <c r="I20" s="34"/>
+      <c r="I20" s="24"/>
       <c r="IW20" s="2"/>
     </row>
     <row r="21" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
       <c r="IW21" s="2"/>
     </row>
     <row r="22" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A22" s="29"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
       <c r="IW22" s="2"/>
     </row>
     <row r="23" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
       <c r="IW23" s="2"/>
     </row>
     <row r="24" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
       <c r="IW24" s="2"/>
     </row>
     <row r="25" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B25" s="33"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
       <c r="IW25" s="2"/>
     </row>
     <row r="26" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
       <c r="IW26" s="2"/>
     </row>
     <row r="27" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B27" s="33"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
       <c r="IW27" s="2"/>
     </row>
     <row r="28" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="J28" s="34"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="J28" s="24"/>
       <c r="IW28" s="2"/>
     </row>
     <row r="29" spans="1:257" s="1" customFormat="1">
-      <c r="B29" s="33"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="J29" s="34"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="J29" s="24"/>
       <c r="IW29" s="2"/>
     </row>
     <row r="30" spans="1:257" s="1" customFormat="1">
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
       <c r="IW30" s="2"/>
     </row>
     <row r="31" spans="1:257" s="1" customFormat="1">
-      <c r="B31" s="33"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
       <c r="IW31" s="2"/>
     </row>
     <row r="32" spans="1:257" s="1" customFormat="1">
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
       <c r="IW32" s="2"/>
     </row>
     <row r="33" spans="2:257" s="1" customFormat="1">
-      <c r="B33" s="33"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
       <c r="IW33" s="2"/>
     </row>
     <row r="34" spans="2:257" s="1" customFormat="1">
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
       <c r="IW34" s="2"/>
     </row>
     <row r="35" spans="2:257" s="1" customFormat="1">
-      <c r="B35" s="33"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
       <c r="IW35" s="2"/>
     </row>
     <row r="36" spans="2:257" s="1" customFormat="1">
-      <c r="B36" s="26"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
       <c r="IW36" s="2"/>
     </row>
     <row r="37" spans="2:257" s="1" customFormat="1">
-      <c r="C37" s="26"/>
-      <c r="D37" s="24"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="16"/>
       <c r="IW37" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B16:D16"/>
     <mergeCell ref="K16:M16"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="K18:L18"/>
@@ -8402,6 +8928,17 @@
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
@@ -8457,56 +8994,56 @@
       <c r="IV4" s="1"/>
     </row>
     <row r="5" spans="1:256">
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
       <c r="IT5" s="1"/>
       <c r="IU5" s="1"/>
       <c r="IV5" s="1"/>
     </row>
     <row r="6" spans="1:256">
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
       <c r="IT6" s="1"/>
       <c r="IU6" s="1"/>
       <c r="IV6" s="1"/>
     </row>
     <row r="7" spans="1:256" ht="30">
-      <c r="A7" s="101" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="103"/>
+      <c r="A7" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="106"/>
       <c r="IT7" s="1"/>
       <c r="IU7" s="1"/>
       <c r="IV7" s="1"/>
     </row>
     <row r="8" spans="1:256" ht="30">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="103"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="106"/>
       <c r="IT8" s="1"/>
       <c r="IU8" s="1"/>
       <c r="IV8" s="1"/>
@@ -8516,18 +9053,18 @@
       <c r="IU9" s="1"/>
       <c r="IV9" s="1"/>
     </row>
-    <row r="10" spans="1:256" s="41" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="105"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
+    <row r="10" spans="1:256" s="31" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A10" s="108"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
     </row>
     <row r="11" spans="1:256" ht="15" thickTop="1">
       <c r="IT11" s="1"/>
@@ -8538,324 +9075,324 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:256" ht="15" thickBot="1">
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" spans="1:256" ht="30" customHeight="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="169" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="171"/>
-      <c r="J14" s="34"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="152" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="153"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="24"/>
     </row>
     <row r="15" spans="1:256" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="172"/>
-      <c r="C15" s="173"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="34"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="24"/>
       <c r="K15" s="13"/>
       <c r="IT15" s="2"/>
     </row>
     <row r="16" spans="1:256" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="175" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="176"/>
-      <c r="D16" s="176"/>
-      <c r="E16" s="176"/>
-      <c r="F16" s="176"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="176"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="95"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="158" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="159"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="85"/>
       <c r="IT16" s="2"/>
     </row>
     <row r="17" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="175"/>
-      <c r="C17" s="176"/>
-      <c r="D17" s="176"/>
-      <c r="E17" s="176"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="176"/>
-      <c r="I17" s="177"/>
-      <c r="J17" s="34"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="159"/>
+      <c r="D17" s="159"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="160"/>
+      <c r="J17" s="24"/>
       <c r="K17" s="13"/>
       <c r="IT17" s="2"/>
     </row>
     <row r="18" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="175"/>
-      <c r="C18" s="176"/>
-      <c r="D18" s="176"/>
-      <c r="E18" s="176"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="176"/>
-      <c r="I18" s="177"/>
-      <c r="J18" s="34"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="24"/>
       <c r="K18" s="13"/>
       <c r="IT18" s="2"/>
     </row>
     <row r="19" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="175"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="176"/>
-      <c r="E19" s="176"/>
-      <c r="F19" s="176"/>
-      <c r="G19" s="176"/>
-      <c r="H19" s="176"/>
-      <c r="I19" s="177"/>
-      <c r="J19" s="34"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="24"/>
       <c r="IT19" s="2"/>
     </row>
     <row r="20" spans="1:254" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="172" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="173"/>
-      <c r="D20" s="173"/>
-      <c r="E20" s="173"/>
-      <c r="F20" s="173"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="173"/>
-      <c r="I20" s="174"/>
-      <c r="J20" s="34"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="155" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="157"/>
+      <c r="J20" s="24"/>
       <c r="IT20" s="2"/>
     </row>
     <row r="21" spans="1:254" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="172"/>
-      <c r="C21" s="173"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="173"/>
-      <c r="H21" s="173"/>
-      <c r="I21" s="174"/>
-      <c r="J21" s="34"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="24"/>
       <c r="IT21" s="2"/>
     </row>
     <row r="22" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A22" s="29"/>
-      <c r="B22" s="163" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="164"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="164"/>
-      <c r="F22" s="164"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="164"/>
-      <c r="I22" s="165"/>
-      <c r="J22" s="34"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="146" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="147"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="148"/>
+      <c r="J22" s="24"/>
       <c r="IT22" s="2"/>
     </row>
     <row r="23" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="163"/>
-      <c r="C23" s="164"/>
-      <c r="D23" s="164"/>
-      <c r="E23" s="164"/>
-      <c r="F23" s="164"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="34"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="146"/>
+      <c r="C23" s="147"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="148"/>
+      <c r="J23" s="24"/>
       <c r="IT23" s="2"/>
     </row>
     <row r="24" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="163"/>
-      <c r="C24" s="164"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="164"/>
-      <c r="I24" s="165"/>
-      <c r="J24" s="34"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="146"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="24"/>
       <c r="IT24" s="2"/>
     </row>
     <row r="25" spans="1:254" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="172" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="173"/>
-      <c r="D25" s="173"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="173"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="34"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="155" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="156"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="157"/>
+      <c r="J25" s="24"/>
       <c r="IT25" s="2"/>
     </row>
     <row r="26" spans="1:254" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="172"/>
-      <c r="C26" s="173"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="173"/>
-      <c r="F26" s="173"/>
-      <c r="G26" s="173"/>
-      <c r="H26" s="173"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="34"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="157"/>
+      <c r="J26" s="24"/>
       <c r="IT26" s="2"/>
     </row>
     <row r="27" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A27" s="29"/>
-      <c r="B27" s="163" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="164"/>
-      <c r="D27" s="164"/>
-      <c r="E27" s="164"/>
-      <c r="F27" s="164"/>
-      <c r="G27" s="164"/>
-      <c r="H27" s="164"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="34"/>
-      <c r="L27" s="97"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="146" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="24"/>
+      <c r="L27" s="87"/>
       <c r="IT27" s="2"/>
     </row>
     <row r="28" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A28" s="29"/>
-      <c r="B28" s="163"/>
-      <c r="C28" s="164"/>
-      <c r="D28" s="164"/>
-      <c r="E28" s="164"/>
-      <c r="F28" s="164"/>
-      <c r="G28" s="164"/>
-      <c r="H28" s="164"/>
-      <c r="I28" s="165"/>
-      <c r="J28" s="34"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="24"/>
       <c r="IT28" s="2"/>
     </row>
     <row r="29" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A29" s="29"/>
-      <c r="B29" s="163"/>
-      <c r="C29" s="164"/>
-      <c r="D29" s="164"/>
-      <c r="E29" s="164"/>
-      <c r="F29" s="164"/>
-      <c r="G29" s="164"/>
-      <c r="H29" s="164"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="34"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="24"/>
       <c r="IT29" s="2"/>
     </row>
     <row r="30" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A30" s="29"/>
-      <c r="B30" s="166"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="167"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="34"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="149"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="24"/>
       <c r="IT30" s="2"/>
     </row>
     <row r="31" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B31" s="38"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
       <c r="IT31" s="2"/>
     </row>
     <row r="32" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="J32" s="34"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="J32" s="24"/>
       <c r="IT32" s="2"/>
     </row>
     <row r="33" spans="2:254" s="1" customFormat="1">
-      <c r="B33" s="33"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="J33" s="34"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="J33" s="24"/>
       <c r="IT33" s="2"/>
     </row>
     <row r="34" spans="2:254" s="1" customFormat="1">
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
       <c r="IT34" s="2"/>
     </row>
     <row r="35" spans="2:254" s="1" customFormat="1">
-      <c r="B35" s="33"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
       <c r="IT35" s="2"/>
     </row>
     <row r="36" spans="2:254" s="1" customFormat="1">
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
       <c r="IT36" s="2"/>
     </row>
     <row r="37" spans="2:254" s="1" customFormat="1">
-      <c r="B37" s="33"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
       <c r="IT37" s="2"/>
     </row>
     <row r="38" spans="2:254" s="1" customFormat="1">
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
       <c r="IT38" s="2"/>
     </row>
     <row r="39" spans="2:254" s="1" customFormat="1">
-      <c r="B39" s="33"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
       <c r="IT39" s="2"/>
     </row>
     <row r="40" spans="2:254" s="1" customFormat="1">
-      <c r="B40" s="26"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
       <c r="IT40" s="2"/>
     </row>
     <row r="41" spans="2:254" s="1" customFormat="1">
-      <c r="C41" s="26"/>
-      <c r="D41" s="24"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="16"/>
       <c r="IT41" s="2"/>
     </row>
   </sheetData>

--- a/docs/trim1/levantamiento_informacion/1_recoleccion_informacion.xlsx
+++ b/docs/trim1/levantamiento_informacion/1_recoleccion_informacion.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="169">
   <si>
     <t>HOJA DE CONTROL</t>
   </si>
@@ -711,6 +711,21 @@
   </si>
   <si>
     <t>Actualización Hoja control y cronograma</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>Corrección Casos de Uso</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>Actualización PTNF Vendedor, distribuidor</t>
+  </si>
+  <si>
+    <t>0.23</t>
   </si>
 </sst>
 </file>
@@ -990,7 +1005,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="68">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -1744,37 +1759,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="double">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
@@ -1906,7 +1891,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1955,9 +1940,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2124,208 +2106,6 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="8" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2341,41 +2121,237 @@
     <xf numFmtId="0" fontId="35" fillId="8" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="36" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="36" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel_BuiltIn_Hyperlink" xfId="2"/>
@@ -2535,8 +2511,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="394792240"/>
-        <c:axId val="394790672"/>
+        <c:axId val="411572824"/>
+        <c:axId val="411573216"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2617,11 +2593,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="394792240"/>
-        <c:axId val="394790672"/>
+        <c:axId val="411572824"/>
+        <c:axId val="411573216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="394792240"/>
+        <c:axId val="411572824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2664,7 +2640,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394790672"/>
+        <c:crossAx val="411573216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2672,7 +2648,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="394790672"/>
+        <c:axId val="411573216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2723,7 +2699,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394792240"/>
+        <c:crossAx val="411572824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3041,12 +3017,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="394791064"/>
-        <c:axId val="394787144"/>
+        <c:axId val="411573608"/>
+        <c:axId val="411568512"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="394791064"/>
+        <c:axId val="411573608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3083,7 +3059,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394787144"/>
+        <c:crossAx val="411568512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3091,7 +3067,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="394787144"/>
+        <c:axId val="411568512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3142,7 +3118,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394791064"/>
+        <c:crossAx val="411573608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3428,12 +3404,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="394794200"/>
-        <c:axId val="394789104"/>
+        <c:axId val="411566160"/>
+        <c:axId val="411567728"/>
         <c:axId val="0"/>
       </c:area3DChart>
       <c:catAx>
-        <c:axId val="394794200"/>
+        <c:axId val="411566160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3476,7 +3452,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394789104"/>
+        <c:crossAx val="411567728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3484,7 +3460,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="394789104"/>
+        <c:axId val="411567728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3535,7 +3511,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394794200"/>
+        <c:crossAx val="411566160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5281,7 +5257,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5335,7 +5311,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5389,7 +5365,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5443,7 +5419,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5497,7 +5473,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5551,7 +5527,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5695,7 +5671,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6021,10 +5997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:IV84"/>
+  <dimension ref="A2:IV78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -6049,55 +6025,55 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="105"/>
-      <c r="E7" s="106"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="115"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="105"/>
-      <c r="E8" s="106"/>
-    </row>
-    <row r="10" spans="1:11" s="31" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="108"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="115"/>
+    </row>
+    <row r="10" spans="1:11" s="30" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A10" s="117"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="13" spans="1:11" ht="30">
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1">
       <c r="B15" s="2"/>
@@ -6108,56 +6084,56 @@
       <c r="B16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="99" t="s">
+      <c r="C16" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
     </row>
     <row r="17" spans="1:16" ht="18">
       <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="100" t="s">
+      <c r="C17" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
     </row>
     <row r="18" spans="1:16" ht="18">
       <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="101" t="s">
+      <c r="C18" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
     </row>
     <row r="19" spans="1:16" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="100" t="s">
+      <c r="C19" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
     </row>
     <row r="20" spans="1:16" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="102" t="s">
+      <c r="C20" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="102"/>
+      <c r="D20" s="121"/>
       <c r="E20" s="7" t="s">
         <v>7</v>
       </c>
@@ -6167,13 +6143,13 @@
     </row>
     <row r="21" spans="1:16" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="97" t="s">
+      <c r="B21" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="93" t="s">
+      <c r="C21" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="94"/>
+      <c r="D21" s="123"/>
       <c r="E21" s="9" t="s">
         <v>9</v>
       </c>
@@ -6183,9 +6159,9 @@
     </row>
     <row r="22" spans="1:16" ht="36.75" thickBot="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="96"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="125"/>
       <c r="E22" s="10" t="s">
         <v>10</v>
       </c>
@@ -6209,17 +6185,17 @@
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:16" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B26" s="161" t="s">
+      <c r="B26" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="162" t="s">
+      <c r="C26" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="163" t="s">
+      <c r="D26" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="164"/>
-      <c r="F26" s="165" t="s">
+      <c r="E26" s="95"/>
+      <c r="F26" s="96" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6227,209 +6203,209 @@
       <c r="B27" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="90" t="s">
+      <c r="C27" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="166" t="s">
+      <c r="D27" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="167"/>
+      <c r="E27" s="111"/>
       <c r="F27" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="90" t="s">
+      <c r="C28" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="166" t="s">
+      <c r="D28" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="E28" s="167"/>
+      <c r="E28" s="111"/>
       <c r="F28" s="15" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B29" s="168" t="s">
+      <c r="B29" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="90" t="s">
+      <c r="C29" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="166" t="s">
+      <c r="D29" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="E29" s="167"/>
+      <c r="E29" s="111"/>
       <c r="F29" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B30" s="168" t="s">
+      <c r="B30" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="90" t="s">
+      <c r="C30" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="166" t="s">
+      <c r="D30" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="167"/>
+      <c r="E30" s="111"/>
       <c r="F30" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B31" s="168" t="s">
+    <row r="31" spans="1:16" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B31" s="97" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="90" t="s">
+      <c r="C31" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="166" t="s">
+      <c r="D31" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="E31" s="167"/>
+      <c r="E31" s="111"/>
       <c r="F31" s="15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B32" s="168" t="s">
+    <row r="32" spans="1:16" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B32" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="169" t="s">
+      <c r="C32" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="D32" s="166" t="s">
+      <c r="D32" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="E32" s="167"/>
+      <c r="E32" s="111"/>
       <c r="F32" s="15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B33" s="168" t="s">
+    <row r="33" spans="1:13" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B33" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="169" t="s">
+      <c r="C33" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="166" t="s">
+      <c r="D33" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="167"/>
+      <c r="E33" s="111"/>
       <c r="F33" s="15" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B34" s="168" t="s">
+      <c r="B34" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="169" t="s">
+      <c r="C34" s="89" t="s">
         <v>126</v>
       </c>
-      <c r="D34" s="166" t="s">
+      <c r="D34" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="167"/>
+      <c r="E34" s="111"/>
       <c r="F34" s="15" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B35" s="168" t="s">
+    <row r="35" spans="1:13" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B35" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="168" t="s">
+      <c r="C35" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="D35" s="166" t="s">
+      <c r="D35" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="E35" s="167"/>
+      <c r="E35" s="111"/>
       <c r="F35" s="15" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+    <row r="36" spans="1:13" ht="45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A36" s="2"/>
-      <c r="B36" s="170" t="s">
+      <c r="B36" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="171" t="s">
+      <c r="C36" s="89" t="s">
         <v>130</v>
       </c>
-      <c r="D36" s="166" t="s">
+      <c r="D36" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="E36" s="167"/>
+      <c r="E36" s="111"/>
       <c r="F36" s="15" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B37" s="170" t="s">
+    <row r="37" spans="1:13" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B37" s="98" t="s">
         <v>131</v>
       </c>
-      <c r="C37" s="170" t="s">
+      <c r="C37" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="D37" s="166" t="s">
+      <c r="D37" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="E37" s="167"/>
+      <c r="E37" s="111"/>
       <c r="F37" s="15" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B38" s="170" t="s">
+    <row r="38" spans="1:13" ht="45" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B38" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="C38" s="170" t="s">
+      <c r="C38" s="89" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="166" t="s">
+      <c r="D38" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="E38" s="167"/>
+      <c r="E38" s="111"/>
       <c r="F38" s="15" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B39" s="170" t="s">
+    <row r="39" spans="1:13" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B39" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="C39" s="170" t="s">
+      <c r="C39" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="D39" s="166" t="s">
+      <c r="D39" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="E39" s="167"/>
+      <c r="E39" s="111"/>
       <c r="F39" s="15" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B40" s="170" t="s">
+    <row r="40" spans="1:13" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B40" s="98" t="s">
         <v>139</v>
       </c>
-      <c r="C40" s="171" t="s">
+      <c r="C40" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="D40" s="166" t="s">
+      <c r="D40" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="E40" s="167"/>
+      <c r="E40" s="111"/>
       <c r="F40" s="15" t="s">
         <v>138</v>
       </c>
@@ -6437,96 +6413,96 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B41" s="170" t="s">
+    <row r="41" spans="1:13" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B41" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="170" t="s">
+      <c r="C41" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="166" t="s">
+      <c r="D41" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="E41" s="167"/>
+      <c r="E41" s="111"/>
       <c r="F41" s="15" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B42" s="170" t="s">
+    <row r="42" spans="1:13" ht="45" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B42" s="98" t="s">
         <v>143</v>
       </c>
-      <c r="C42" s="171" t="s">
+      <c r="C42" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="D42" s="166" t="s">
+      <c r="D42" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="E42" s="167"/>
+      <c r="E42" s="111"/>
       <c r="F42" s="15" t="s">
         <v>145</v>
       </c>
       <c r="G42" s="16"/>
     </row>
-    <row r="43" spans="1:13" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B43" s="170" t="s">
+    <row r="43" spans="1:13" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B43" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="C43" s="171" t="s">
+      <c r="C43" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="D43" s="166" t="s">
+      <c r="D43" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="E43" s="167"/>
+      <c r="E43" s="111"/>
       <c r="F43" s="15" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+    <row r="44" spans="1:13" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
       <c r="A44" s="17"/>
-      <c r="B44" s="170" t="s">
+      <c r="B44" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C44" s="171" t="s">
+      <c r="C44" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="D44" s="166" t="s">
+      <c r="D44" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="E44" s="167"/>
+      <c r="E44" s="111"/>
       <c r="F44" s="15" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+    <row r="45" spans="1:13" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
       <c r="A45" s="17"/>
-      <c r="B45" s="170" t="s">
+      <c r="B45" s="98" t="s">
         <v>151</v>
       </c>
-      <c r="C45" s="170" t="s">
+      <c r="C45" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="D45" s="166" t="s">
+      <c r="D45" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="E45" s="167"/>
+      <c r="E45" s="111"/>
       <c r="F45" s="15" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+    <row r="46" spans="1:13" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
       <c r="A46" s="2"/>
-      <c r="B46" s="170" t="s">
+      <c r="B46" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="C46" s="170" t="s">
+      <c r="C46" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="D46" s="166" t="s">
+      <c r="D46" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="E46" s="167"/>
+      <c r="E46" s="111"/>
       <c r="F46" s="15" t="s">
         <v>155</v>
       </c>
@@ -6535,16 +6511,16 @@
     </row>
     <row r="47" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
       <c r="A47" s="17"/>
-      <c r="B47" s="170" t="s">
+      <c r="B47" s="98" t="s">
         <v>156</v>
       </c>
-      <c r="C47" s="170" t="s">
+      <c r="C47" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="D47" s="166" t="s">
+      <c r="D47" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="167"/>
+      <c r="E47" s="111"/>
       <c r="F47" s="15" t="s">
         <v>155</v>
       </c>
@@ -6553,18 +6529,18 @@
       <c r="L47" s="13"/>
       <c r="M47" s="13"/>
     </row>
-    <row r="48" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+    <row r="48" spans="1:13" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A48" s="17"/>
-      <c r="B48" s="170" t="s">
+      <c r="B48" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="C48" s="90" t="s">
+      <c r="C48" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="D48" s="166" t="s">
+      <c r="D48" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="167"/>
+      <c r="E48" s="111"/>
       <c r="F48" s="15" t="s">
         <v>155</v>
       </c>
@@ -6575,16 +6551,16 @@
     </row>
     <row r="49" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
       <c r="A49" s="17"/>
-      <c r="B49" s="170" t="s">
+      <c r="B49" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="C49" s="90" t="s">
+      <c r="C49" s="89" t="s">
         <v>161</v>
       </c>
-      <c r="D49" s="166" t="s">
+      <c r="D49" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="E49" s="167"/>
+      <c r="E49" s="111"/>
       <c r="F49" s="15" t="s">
         <v>155</v>
       </c>
@@ -6593,18 +6569,18 @@
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
     </row>
-    <row r="50" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+    <row r="50" spans="1:13" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
       <c r="A50" s="17"/>
-      <c r="B50" s="170" t="s">
+      <c r="B50" s="98" t="s">
         <v>162</v>
       </c>
-      <c r="C50" s="90" t="s">
+      <c r="C50" s="89" t="s">
         <v>163</v>
       </c>
-      <c r="D50" s="166" t="s">
+      <c r="D50" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="E50" s="167"/>
+      <c r="E50" s="111"/>
       <c r="F50" s="15" t="s">
         <v>155</v>
       </c>
@@ -6614,111 +6590,138 @@
       <c r="L50" s="13"/>
       <c r="M50" s="13"/>
     </row>
-    <row r="51" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
+    <row r="51" spans="1:13" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
       <c r="A51" s="17"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
+      <c r="B51" s="98" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" s="89" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="110" t="s">
+        <v>109</v>
+      </c>
+      <c r="E51" s="111"/>
+      <c r="F51" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="K51" s="13"/>
       <c r="L51" s="13"/>
     </row>
-    <row r="52" spans="1:13" ht="19.899999999999999" customHeight="1">
+    <row r="52" spans="1:13" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
       <c r="A52" s="21"/>
-      <c r="B52" s="172" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="173"/>
-      <c r="D52" s="173"/>
-      <c r="E52" s="173"/>
-      <c r="F52" s="173"/>
+      <c r="B52" s="98" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" s="110" t="s">
+        <v>109</v>
+      </c>
+      <c r="E52" s="111"/>
+      <c r="F52" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="K52" s="13"/>
       <c r="L52" s="13"/>
     </row>
-    <row r="53" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="53" spans="1:13" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
       <c r="A53" s="21"/>
-      <c r="B53" s="173"/>
-      <c r="C53" s="173"/>
-      <c r="D53" s="173"/>
-      <c r="E53" s="173"/>
-      <c r="F53" s="173"/>
+      <c r="B53" s="98" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53" s="89" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53" s="110" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="111"/>
+      <c r="F53" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="K53" s="13"/>
       <c r="L53" s="13"/>
     </row>
-    <row r="54" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+    <row r="54" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A54" s="21"/>
-      <c r="B54" s="174" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="175"/>
-      <c r="D54" s="175"/>
-      <c r="E54" s="175"/>
-      <c r="F54" s="176"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="17"/>
       <c r="K54" s="13"/>
       <c r="L54" s="13"/>
     </row>
-    <row r="55" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
+    <row r="55" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A55" s="21"/>
-      <c r="B55" s="177" t="s">
-        <v>43</v>
-      </c>
-      <c r="C55" s="178"/>
-      <c r="D55" s="178"/>
-      <c r="E55" s="178"/>
-      <c r="F55" s="179"/>
+      <c r="B55" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="100"/>
+      <c r="D55" s="100"/>
+      <c r="E55" s="100"/>
+      <c r="F55" s="100"/>
+      <c r="G55" s="18"/>
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
     </row>
-    <row r="56" spans="1:13" ht="19.899999999999999" customHeight="1">
+    <row r="56" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A56" s="21"/>
-      <c r="B56" s="180" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="181"/>
-      <c r="D56" s="181"/>
-      <c r="E56" s="181"/>
-      <c r="F56" s="182"/>
-      <c r="G56" s="16"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="100"/>
+      <c r="E56" s="100"/>
+      <c r="F56" s="100"/>
+      <c r="G56" s="18"/>
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
     </row>
-    <row r="57" spans="1:13" ht="19.899999999999999" customHeight="1">
+    <row r="57" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
       <c r="A57" s="21"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="17"/>
+      <c r="B57" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="102"/>
+      <c r="D57" s="102"/>
+      <c r="E57" s="102"/>
+      <c r="F57" s="103"/>
+      <c r="G57" s="16"/>
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
     </row>
-    <row r="58" spans="1:13" ht="19.899999999999999" customHeight="1">
+    <row r="58" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A58" s="21"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="18"/>
+      <c r="B58" s="104" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" s="105"/>
+      <c r="D58" s="105"/>
+      <c r="E58" s="105"/>
+      <c r="F58" s="106"/>
+      <c r="G58" s="16"/>
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
     </row>
     <row r="59" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A59" s="21"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="18"/>
+      <c r="B59" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="108"/>
+      <c r="D59" s="108"/>
+      <c r="E59" s="108"/>
+      <c r="F59" s="109"/>
+      <c r="G59" s="16"/>
       <c r="K59" s="13"/>
       <c r="L59" s="13"/>
     </row>
     <row r="60" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A60" s="21"/>
-      <c r="B60" s="23"/>
+      <c r="B60" s="22"/>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
-      <c r="G60" s="16"/>
       <c r="K60" s="13"/>
       <c r="L60" s="13"/>
     </row>
@@ -6727,30 +6730,22 @@
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
     </row>
     <row r="62" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A62" s="21"/>
-      <c r="B62" s="23"/>
+      <c r="B62" s="22"/>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
     </row>
     <row r="63" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A63" s="21"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
       <c r="D63" s="16"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
     </row>
     <row r="64" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A64" s="21"/>
-      <c r="B64" s="23"/>
+      <c r="B64" s="22"/>
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
     </row>
@@ -6762,7 +6757,7 @@
     </row>
     <row r="66" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A66" s="21"/>
-      <c r="B66" s="23"/>
+      <c r="B66" s="22"/>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
     </row>
@@ -6774,7 +6769,7 @@
     </row>
     <row r="68" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A68" s="21"/>
-      <c r="B68" s="23"/>
+      <c r="B68" s="22"/>
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
     </row>
@@ -6785,20 +6780,17 @@
       <c r="D69" s="16"/>
     </row>
     <row r="70" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A70" s="21"/>
-      <c r="B70" s="23"/>
+      <c r="B70" s="22"/>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
     </row>
     <row r="71" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A71" s="21"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
     </row>
     <row r="72" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A72" s="21"/>
-      <c r="B72" s="23"/>
+      <c r="B72" s="22"/>
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
     </row>
@@ -6808,63 +6800,65 @@
       <c r="D73" s="16"/>
     </row>
     <row r="74" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="B74" s="23"/>
+      <c r="B74" s="22"/>
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
-    </row>
-    <row r="75" spans="1:10" ht="19.899999999999999" customHeight="1">
+      <c r="J74" s="23"/>
+    </row>
+    <row r="75" spans="1:10">
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
       <c r="D75" s="16"/>
-    </row>
-    <row r="76" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="B76" s="23"/>
+      <c r="J75" s="23"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="B76" s="22"/>
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
     </row>
-    <row r="77" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="B77" s="16"/>
+    <row r="77" spans="1:10">
+      <c r="B77" s="18"/>
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
-      <c r="J77" s="24"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="B78" s="23"/>
-      <c r="C78" s="16"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="16"/>
-      <c r="J78" s="24"/>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="B80" s="23"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-    </row>
-    <row r="81" spans="2:4">
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-    </row>
-    <row r="82" spans="2:4">
-      <c r="B82" s="23"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-    </row>
-    <row r="83" spans="2:4">
-      <c r="B83" s="18"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-    </row>
-    <row r="84" spans="2:4">
-      <c r="C84" s="18"/>
-      <c r="D84" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="41">
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="D49:E49"/>
@@ -6874,35 +6868,6 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D36:E36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C36" r:id="rId1" display="https://github.com/FazeElian/TPS_FDS-2671339-AutOsiris-SIW7/commit/2ecb800010571b5d940e7676f0266ceec1077960"/>
@@ -6947,204 +6912,204 @@
     <col min="254" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" s="31" customFormat="1" ht="5.0999999999999996" customHeight="1">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-    </row>
-    <row r="4" spans="1:10" s="32" customFormat="1" ht="20.25">
-      <c r="A4" s="112" t="s">
+    <row r="3" spans="1:10" s="30" customFormat="1" ht="5.0999999999999996" customHeight="1">
+      <c r="A3" s="130"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+    </row>
+    <row r="4" spans="1:10" s="31" customFormat="1" ht="20.25">
+      <c r="A4" s="131" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-    </row>
-    <row r="5" spans="1:10" s="32" customFormat="1" ht="20.25">
-      <c r="A5" s="112" t="s">
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+    </row>
+    <row r="5" spans="1:10" s="31" customFormat="1" ht="20.25">
+      <c r="A5" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-    </row>
-    <row r="6" spans="1:10" s="31" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A6" s="108"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+    </row>
+    <row r="6" spans="1:10" s="30" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A6" s="117"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickTop="1"/>
     <row r="8" spans="1:10" ht="15" thickBot="1">
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="9" spans="1:10" s="25" customFormat="1" ht="24" customHeight="1">
-      <c r="B9" s="68" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+    </row>
+    <row r="9" spans="1:10" s="24" customFormat="1" ht="24" customHeight="1">
+      <c r="B9" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="69" t="s">
+      <c r="E9" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="69" t="s">
+      <c r="F9" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="69" t="s">
+      <c r="G9" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="69" t="s">
+      <c r="H9" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="70" t="s">
+      <c r="I9" s="69" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="26" customFormat="1" ht="60" customHeight="1">
-      <c r="B10" s="109" t="s">
+    <row r="10" spans="1:10" s="25" customFormat="1" ht="60" customHeight="1">
+      <c r="B10" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="58">
         <v>44991</v>
       </c>
-      <c r="G10" s="57" t="s">
+      <c r="G10" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="57" t="s">
+      <c r="H10" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="26" customFormat="1" ht="42" customHeight="1">
-      <c r="B11" s="109"/>
-      <c r="C11" s="57" t="s">
+    <row r="11" spans="1:10" s="25" customFormat="1" ht="42" customHeight="1">
+      <c r="B11" s="128"/>
+      <c r="C11" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="58">
         <v>44991</v>
       </c>
-      <c r="G11" s="57" t="s">
+      <c r="G11" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="57" t="s">
+      <c r="H11" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="32" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:10" customFormat="1" ht="69.95" customHeight="1">
-      <c r="B12" s="109" t="s">
+      <c r="B12" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="59">
+      <c r="F12" s="58">
         <v>44999</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="57" t="s">
+      <c r="H12" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="32" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:10" customFormat="1" ht="45" customHeight="1" thickBot="1">
-      <c r="B13" s="110"/>
-      <c r="C13" s="58" t="s">
+      <c r="B13" s="129"/>
+      <c r="C13" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="59">
+      <c r="F13" s="58">
         <v>44999</v>
       </c>
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="58" t="s">
+      <c r="H13" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="67" t="s">
+      <c r="I13" s="66" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:10" customFormat="1" ht="43.5" customHeight="1">
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:10" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="B15" s="16"/>
@@ -7157,7 +7122,7 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:10" customFormat="1" ht="15">
-      <c r="B16" s="23"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="1"/>
@@ -7177,7 +7142,7 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:253" customFormat="1" ht="15">
-      <c r="B18" s="23"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="1"/>
@@ -7195,7 +7160,7 @@
     </row>
     <row r="20" spans="1:253" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="23"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="IS20" s="2"/>
@@ -7209,7 +7174,7 @@
     </row>
     <row r="22" spans="1:253" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="23"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="IS22" s="2"/>
@@ -7223,10 +7188,10 @@
     </row>
     <row r="24" spans="1:253" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="23"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
-      <c r="I24" s="24"/>
+      <c r="I24" s="23"/>
       <c r="IS24" s="2"/>
     </row>
     <row r="25" spans="1:253" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -7234,11 +7199,11 @@
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
-      <c r="I25" s="24"/>
+      <c r="I25" s="23"/>
       <c r="IS25" s="2"/>
     </row>
     <row r="26" spans="1:253" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B26" s="23"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
       <c r="IS26" s="2"/>
@@ -7250,7 +7215,7 @@
       <c r="IS27" s="2"/>
     </row>
     <row r="28" spans="1:253" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B28" s="23"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="IS28" s="2"/>
@@ -7262,7 +7227,7 @@
       <c r="IS29" s="2"/>
     </row>
     <row r="30" spans="1:253" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B30" s="23"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
       <c r="IS30" s="2"/>
@@ -7274,7 +7239,7 @@
       <c r="IS31" s="2"/>
     </row>
     <row r="32" spans="1:253" s="1" customFormat="1">
-      <c r="B32" s="23"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="IS32" s="2"/>
@@ -7345,60 +7310,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="106"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="115"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="106"/>
-    </row>
-    <row r="10" spans="1:11" s="31" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="108"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="115"/>
+    </row>
+    <row r="10" spans="1:11" s="30" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A10" s="117"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="12" spans="1:11">
@@ -7407,78 +7372,78 @@
     <row r="14" spans="1:11" ht="15" thickBot="1"/>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="40" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="61" t="s">
+      <c r="E15" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="60"/>
+      <c r="F15" s="59"/>
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A16" s="21"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="43" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="62">
+      <c r="E16" s="61">
         <v>44991</v>
       </c>
-      <c r="F16" s="60"/>
+      <c r="F16" s="59"/>
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="44" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="62">
+      <c r="E17" s="61">
         <v>44991</v>
       </c>
-      <c r="F17" s="60"/>
+      <c r="F17" s="59"/>
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A18" s="21"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="63" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="64">
+      <c r="E18" s="63">
         <v>44996</v>
       </c>
-      <c r="F18" s="24"/>
+      <c r="F18" s="23"/>
       <c r="K18" s="13"/>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="65" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="66">
+      <c r="E19" s="65">
         <v>44996</v>
       </c>
-      <c r="F19" s="24"/>
+      <c r="F19" s="23"/>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A20" s="21"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="29"/>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="23"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
     </row>
@@ -7490,7 +7455,7 @@
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="23"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
     </row>
@@ -7502,7 +7467,7 @@
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="23"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
     </row>
@@ -7514,7 +7479,7 @@
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="23"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
     </row>
@@ -7524,7 +7489,7 @@
       <c r="D28" s="16"/>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B29" s="23"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
     </row>
@@ -7534,7 +7499,7 @@
       <c r="D30" s="16"/>
     </row>
     <row r="31" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B31" s="23"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
     </row>
@@ -7542,13 +7507,13 @@
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
-      <c r="J32" s="24"/>
+      <c r="J32" s="23"/>
     </row>
     <row r="33" spans="2:10" s="1" customFormat="1">
-      <c r="B33" s="23"/>
+      <c r="B33" s="22"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
-      <c r="J33" s="24"/>
+      <c r="J33" s="23"/>
     </row>
     <row r="34" spans="2:10" s="1" customFormat="1">
       <c r="B34" s="16"/>
@@ -7556,7 +7521,7 @@
       <c r="D34" s="16"/>
     </row>
     <row r="35" spans="2:10" s="1" customFormat="1">
-      <c r="B35" s="23"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
     </row>
@@ -7566,7 +7531,7 @@
       <c r="D36" s="16"/>
     </row>
     <row r="37" spans="2:10" s="1" customFormat="1">
-      <c r="B37" s="23"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
     </row>
@@ -7576,7 +7541,7 @@
       <c r="D38" s="16"/>
     </row>
     <row r="39" spans="2:10" s="1" customFormat="1">
-      <c r="B39" s="23"/>
+      <c r="B39" s="22"/>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
     </row>
@@ -7633,83 +7598,83 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="106"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="115"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="106"/>
-    </row>
-    <row r="10" spans="1:257" s="31" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="108"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="115"/>
+    </row>
+    <row r="10" spans="1:257" s="30" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A10" s="117"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
       <c r="F12" s="4"/>
     </row>
     <row r="14" spans="1:257" ht="15" thickBot="1">
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" spans="1:257" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="91" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="37"/>
+      <c r="F15" s="36"/>
       <c r="G15" s="16"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
@@ -7717,17 +7682,17 @@
     </row>
     <row r="16" spans="1:257" s="1" customFormat="1" ht="120" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="92" t="s">
+      <c r="B16" s="35"/>
+      <c r="C16" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="38">
         <v>44991</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="38"/>
+      <c r="F16" s="37"/>
       <c r="G16" s="16"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -7735,17 +7700,17 @@
     </row>
     <row r="17" spans="1:257" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="44" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="38">
         <v>44991</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="24"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="16"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
@@ -7753,61 +7718,61 @@
     </row>
     <row r="18" spans="1:257" s="1" customFormat="1" ht="90" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="44" t="s">
+      <c r="B18" s="35"/>
+      <c r="C18" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="72">
+      <c r="D18" s="71">
         <v>44999</v>
       </c>
-      <c r="E18" s="88" t="s">
+      <c r="E18" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="24"/>
+      <c r="F18" s="23"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="IT18" s="2"/>
     </row>
     <row r="19" spans="1:257" s="1" customFormat="1" ht="90" customHeight="1" thickBot="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="73" t="s">
+      <c r="B19" s="34"/>
+      <c r="C19" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="74">
+      <c r="D19" s="73">
         <v>44999</v>
       </c>
-      <c r="E19" s="89" t="s">
+      <c r="E19" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="24"/>
+      <c r="F19" s="23"/>
       <c r="IT19" s="2"/>
     </row>
     <row r="20" spans="1:257" s="1" customFormat="1" ht="69.95" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
       <c r="IT20" s="2"/>
     </row>
     <row r="21" spans="1:257" s="1" customFormat="1" ht="69.95" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="24"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="23"/>
       <c r="IT21" s="2"/>
     </row>
     <row r="22" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A22" s="21"/>
       <c r="B22" s="16"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="29"/>
       <c r="IW22" s="2"/>
     </row>
     <row r="23" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="23"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="IW23" s="2"/>
@@ -7821,7 +7786,7 @@
     </row>
     <row r="25" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="23"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
       <c r="IW25" s="2"/>
@@ -7835,7 +7800,7 @@
     </row>
     <row r="27" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="23"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
       <c r="IW27" s="2"/>
@@ -7847,7 +7812,7 @@
       <c r="IW28" s="2"/>
     </row>
     <row r="29" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B29" s="23"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="IW29" s="2"/>
@@ -7859,7 +7824,7 @@
       <c r="IW30" s="2"/>
     </row>
     <row r="31" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B31" s="23"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="IW31" s="2"/>
@@ -7868,14 +7833,14 @@
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
-      <c r="J32" s="24"/>
+      <c r="J32" s="23"/>
       <c r="IW32" s="2"/>
     </row>
     <row r="33" spans="2:257" s="1" customFormat="1">
-      <c r="B33" s="23"/>
+      <c r="B33" s="22"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
-      <c r="J33" s="24"/>
+      <c r="J33" s="23"/>
       <c r="IW33" s="2"/>
     </row>
     <row r="34" spans="2:257" s="1" customFormat="1">
@@ -7885,7 +7850,7 @@
       <c r="IW34" s="2"/>
     </row>
     <row r="35" spans="2:257" s="1" customFormat="1">
-      <c r="B35" s="23"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
       <c r="IW35" s="2"/>
@@ -7897,7 +7862,7 @@
       <c r="IW36" s="2"/>
     </row>
     <row r="37" spans="2:257" s="1" customFormat="1">
-      <c r="B37" s="23"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
       <c r="IW37" s="2"/>
@@ -7909,7 +7874,7 @@
       <c r="IW38" s="2"/>
     </row>
     <row r="39" spans="2:257" s="1" customFormat="1">
-      <c r="B39" s="23"/>
+      <c r="B39" s="22"/>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
       <c r="IW39" s="2"/>
@@ -7974,562 +7939,562 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:253">
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
     </row>
     <row r="6" spans="1:253">
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
     </row>
     <row r="7" spans="1:253" ht="30">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="106"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="115"/>
     </row>
     <row r="8" spans="1:253" ht="30">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="106"/>
-    </row>
-    <row r="10" spans="1:253" s="31" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="125"/>
-      <c r="B10" s="125"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="115"/>
+    </row>
+    <row r="10" spans="1:253" s="30" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A10" s="138"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="138"/>
     </row>
     <row r="11" spans="1:253" ht="15" thickTop="1"/>
     <row r="12" spans="1:253">
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:253">
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-    </row>
-    <row r="14" spans="1:253" s="48" customFormat="1" ht="30" customHeight="1">
-      <c r="A14" s="47"/>
-      <c r="B14" s="116" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+    </row>
+    <row r="14" spans="1:253" s="47" customFormat="1" ht="30" customHeight="1">
+      <c r="A14" s="46"/>
+      <c r="B14" s="145" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="127"/>
-      <c r="L14" s="127"/>
-      <c r="M14" s="127"/>
-      <c r="N14" s="127"/>
-      <c r="O14" s="127"/>
-      <c r="P14" s="127"/>
-      <c r="Q14" s="128"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="47"/>
-      <c r="AD14" s="47"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="47"/>
-      <c r="AG14" s="47"/>
-      <c r="AH14" s="47"/>
-      <c r="AI14" s="47"/>
-      <c r="AJ14" s="47"/>
-      <c r="AK14" s="47"/>
-      <c r="AL14" s="47"/>
-      <c r="AM14" s="47"/>
-      <c r="AN14" s="47"/>
-      <c r="AO14" s="47"/>
-      <c r="AP14" s="47"/>
-      <c r="AQ14" s="47"/>
-      <c r="AR14" s="47"/>
-      <c r="AS14" s="47"/>
-      <c r="AT14" s="47"/>
-      <c r="AU14" s="47"/>
-      <c r="AV14" s="47"/>
-      <c r="AW14" s="47"/>
-      <c r="AX14" s="47"/>
-      <c r="AY14" s="47"/>
-      <c r="AZ14" s="47"/>
-      <c r="BA14" s="47"/>
-      <c r="BB14" s="47"/>
-      <c r="BC14" s="47"/>
-      <c r="BD14" s="47"/>
-      <c r="BE14" s="47"/>
-      <c r="BF14" s="47"/>
-      <c r="BG14" s="47"/>
-      <c r="BH14" s="47"/>
-      <c r="BI14" s="47"/>
-      <c r="BJ14" s="47"/>
-      <c r="BK14" s="47"/>
-      <c r="BL14" s="47"/>
-      <c r="BM14" s="47"/>
-      <c r="BN14" s="47"/>
-      <c r="BO14" s="47"/>
-      <c r="BP14" s="47"/>
-      <c r="BQ14" s="47"/>
-      <c r="BR14" s="47"/>
-      <c r="BS14" s="47"/>
-      <c r="BT14" s="47"/>
-      <c r="BU14" s="47"/>
-      <c r="BV14" s="47"/>
-      <c r="BW14" s="47"/>
-      <c r="BX14" s="47"/>
-      <c r="BY14" s="47"/>
-      <c r="BZ14" s="47"/>
-      <c r="CA14" s="47"/>
-      <c r="CB14" s="47"/>
-      <c r="CC14" s="47"/>
-      <c r="CD14" s="47"/>
-      <c r="CE14" s="47"/>
-      <c r="CF14" s="47"/>
-      <c r="CG14" s="47"/>
-      <c r="CH14" s="47"/>
-      <c r="CI14" s="47"/>
-      <c r="CJ14" s="47"/>
-      <c r="CK14" s="47"/>
-      <c r="CL14" s="47"/>
-      <c r="CM14" s="47"/>
-      <c r="CN14" s="47"/>
-      <c r="CO14" s="47"/>
-      <c r="CP14" s="47"/>
-      <c r="CQ14" s="47"/>
-      <c r="CR14" s="47"/>
-      <c r="CS14" s="47"/>
-      <c r="CT14" s="47"/>
-      <c r="CU14" s="47"/>
-      <c r="CV14" s="47"/>
-      <c r="CW14" s="47"/>
-      <c r="CX14" s="47"/>
-      <c r="CY14" s="47"/>
-      <c r="CZ14" s="47"/>
-      <c r="DA14" s="47"/>
-      <c r="DB14" s="47"/>
-      <c r="DC14" s="47"/>
-      <c r="DD14" s="47"/>
-      <c r="DE14" s="47"/>
-      <c r="DF14" s="47"/>
-      <c r="DG14" s="47"/>
-      <c r="DH14" s="47"/>
-      <c r="DI14" s="47"/>
-      <c r="DJ14" s="47"/>
-      <c r="DK14" s="47"/>
-      <c r="DL14" s="47"/>
-      <c r="DM14" s="47"/>
-      <c r="DN14" s="47"/>
-      <c r="DO14" s="47"/>
-      <c r="DP14" s="47"/>
-      <c r="DQ14" s="47"/>
-      <c r="DR14" s="47"/>
-      <c r="DS14" s="47"/>
-      <c r="DT14" s="47"/>
-      <c r="DU14" s="47"/>
-      <c r="DV14" s="47"/>
-      <c r="DW14" s="47"/>
-      <c r="DX14" s="47"/>
-      <c r="DY14" s="47"/>
-      <c r="DZ14" s="47"/>
-      <c r="EA14" s="47"/>
-      <c r="EB14" s="47"/>
-      <c r="EC14" s="47"/>
-      <c r="ED14" s="47"/>
-      <c r="EE14" s="47"/>
-      <c r="EF14" s="47"/>
-      <c r="EG14" s="47"/>
-      <c r="EH14" s="47"/>
-      <c r="EI14" s="47"/>
-      <c r="EJ14" s="47"/>
-      <c r="EK14" s="47"/>
-      <c r="EL14" s="47"/>
-      <c r="EM14" s="47"/>
-      <c r="EN14" s="47"/>
-      <c r="EO14" s="47"/>
-      <c r="EP14" s="47"/>
-      <c r="EQ14" s="47"/>
-      <c r="ER14" s="47"/>
-      <c r="ES14" s="47"/>
-      <c r="ET14" s="47"/>
-      <c r="EU14" s="47"/>
-      <c r="EV14" s="47"/>
-      <c r="EW14" s="47"/>
-      <c r="EX14" s="47"/>
-      <c r="EY14" s="47"/>
-      <c r="EZ14" s="47"/>
-      <c r="FA14" s="47"/>
-      <c r="FB14" s="47"/>
-      <c r="FC14" s="47"/>
-      <c r="FD14" s="47"/>
-      <c r="FE14" s="47"/>
-      <c r="FF14" s="47"/>
-      <c r="FG14" s="47"/>
-      <c r="FH14" s="47"/>
-      <c r="FI14" s="47"/>
-      <c r="FJ14" s="47"/>
-      <c r="FK14" s="47"/>
-      <c r="FL14" s="47"/>
-      <c r="FM14" s="47"/>
-      <c r="FN14" s="47"/>
-      <c r="FO14" s="47"/>
-      <c r="FP14" s="47"/>
-      <c r="FQ14" s="47"/>
-      <c r="FR14" s="47"/>
-      <c r="FS14" s="47"/>
-      <c r="FT14" s="47"/>
-      <c r="FU14" s="47"/>
-      <c r="FV14" s="47"/>
-      <c r="FW14" s="47"/>
-      <c r="FX14" s="47"/>
-      <c r="FY14" s="47"/>
-      <c r="FZ14" s="47"/>
-      <c r="GA14" s="47"/>
-      <c r="GB14" s="47"/>
-      <c r="GC14" s="47"/>
-      <c r="GD14" s="47"/>
-      <c r="GE14" s="47"/>
-      <c r="GF14" s="47"/>
-      <c r="GG14" s="47"/>
-      <c r="GH14" s="47"/>
-      <c r="GI14" s="47"/>
-      <c r="GJ14" s="47"/>
-      <c r="GK14" s="47"/>
-      <c r="GL14" s="47"/>
-      <c r="GM14" s="47"/>
-      <c r="GN14" s="47"/>
-      <c r="GO14" s="47"/>
-      <c r="GP14" s="47"/>
-      <c r="GQ14" s="47"/>
-      <c r="GR14" s="47"/>
-      <c r="GS14" s="47"/>
-      <c r="GT14" s="47"/>
-      <c r="GU14" s="47"/>
-      <c r="GV14" s="47"/>
-      <c r="GW14" s="47"/>
-      <c r="GX14" s="47"/>
-      <c r="GY14" s="47"/>
-      <c r="GZ14" s="47"/>
-      <c r="HA14" s="47"/>
-      <c r="HB14" s="47"/>
-      <c r="HC14" s="47"/>
-      <c r="HD14" s="47"/>
-      <c r="HE14" s="47"/>
-      <c r="HF14" s="47"/>
-      <c r="HG14" s="47"/>
-      <c r="HH14" s="47"/>
-      <c r="HI14" s="47"/>
-      <c r="HJ14" s="47"/>
-      <c r="HK14" s="47"/>
-      <c r="HL14" s="47"/>
-      <c r="HM14" s="47"/>
-      <c r="HN14" s="47"/>
-      <c r="HO14" s="47"/>
-      <c r="HP14" s="47"/>
-      <c r="HQ14" s="47"/>
-      <c r="HR14" s="47"/>
-      <c r="HS14" s="47"/>
-      <c r="HT14" s="47"/>
-      <c r="HU14" s="47"/>
-      <c r="HV14" s="47"/>
-      <c r="HW14" s="47"/>
-      <c r="HX14" s="47"/>
-      <c r="HY14" s="47"/>
-      <c r="HZ14" s="47"/>
-      <c r="IA14" s="47"/>
-      <c r="IB14" s="47"/>
-      <c r="IC14" s="47"/>
-      <c r="ID14" s="47"/>
-      <c r="IE14" s="47"/>
-      <c r="IF14" s="47"/>
-      <c r="IG14" s="47"/>
-      <c r="IH14" s="47"/>
-      <c r="II14" s="47"/>
-      <c r="IJ14" s="47"/>
-      <c r="IK14" s="47"/>
-      <c r="IL14" s="47"/>
-      <c r="IM14" s="47"/>
-      <c r="IN14" s="47"/>
-      <c r="IO14" s="47"/>
-      <c r="IP14" s="47"/>
-      <c r="IQ14" s="47"/>
-      <c r="IR14" s="47"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="140"/>
+      <c r="N14" s="140"/>
+      <c r="O14" s="140"/>
+      <c r="P14" s="140"/>
+      <c r="Q14" s="141"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="46"/>
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="46"/>
+      <c r="AH14" s="46"/>
+      <c r="AI14" s="46"/>
+      <c r="AJ14" s="46"/>
+      <c r="AK14" s="46"/>
+      <c r="AL14" s="46"/>
+      <c r="AM14" s="46"/>
+      <c r="AN14" s="46"/>
+      <c r="AO14" s="46"/>
+      <c r="AP14" s="46"/>
+      <c r="AQ14" s="46"/>
+      <c r="AR14" s="46"/>
+      <c r="AS14" s="46"/>
+      <c r="AT14" s="46"/>
+      <c r="AU14" s="46"/>
+      <c r="AV14" s="46"/>
+      <c r="AW14" s="46"/>
+      <c r="AX14" s="46"/>
+      <c r="AY14" s="46"/>
+      <c r="AZ14" s="46"/>
+      <c r="BA14" s="46"/>
+      <c r="BB14" s="46"/>
+      <c r="BC14" s="46"/>
+      <c r="BD14" s="46"/>
+      <c r="BE14" s="46"/>
+      <c r="BF14" s="46"/>
+      <c r="BG14" s="46"/>
+      <c r="BH14" s="46"/>
+      <c r="BI14" s="46"/>
+      <c r="BJ14" s="46"/>
+      <c r="BK14" s="46"/>
+      <c r="BL14" s="46"/>
+      <c r="BM14" s="46"/>
+      <c r="BN14" s="46"/>
+      <c r="BO14" s="46"/>
+      <c r="BP14" s="46"/>
+      <c r="BQ14" s="46"/>
+      <c r="BR14" s="46"/>
+      <c r="BS14" s="46"/>
+      <c r="BT14" s="46"/>
+      <c r="BU14" s="46"/>
+      <c r="BV14" s="46"/>
+      <c r="BW14" s="46"/>
+      <c r="BX14" s="46"/>
+      <c r="BY14" s="46"/>
+      <c r="BZ14" s="46"/>
+      <c r="CA14" s="46"/>
+      <c r="CB14" s="46"/>
+      <c r="CC14" s="46"/>
+      <c r="CD14" s="46"/>
+      <c r="CE14" s="46"/>
+      <c r="CF14" s="46"/>
+      <c r="CG14" s="46"/>
+      <c r="CH14" s="46"/>
+      <c r="CI14" s="46"/>
+      <c r="CJ14" s="46"/>
+      <c r="CK14" s="46"/>
+      <c r="CL14" s="46"/>
+      <c r="CM14" s="46"/>
+      <c r="CN14" s="46"/>
+      <c r="CO14" s="46"/>
+      <c r="CP14" s="46"/>
+      <c r="CQ14" s="46"/>
+      <c r="CR14" s="46"/>
+      <c r="CS14" s="46"/>
+      <c r="CT14" s="46"/>
+      <c r="CU14" s="46"/>
+      <c r="CV14" s="46"/>
+      <c r="CW14" s="46"/>
+      <c r="CX14" s="46"/>
+      <c r="CY14" s="46"/>
+      <c r="CZ14" s="46"/>
+      <c r="DA14" s="46"/>
+      <c r="DB14" s="46"/>
+      <c r="DC14" s="46"/>
+      <c r="DD14" s="46"/>
+      <c r="DE14" s="46"/>
+      <c r="DF14" s="46"/>
+      <c r="DG14" s="46"/>
+      <c r="DH14" s="46"/>
+      <c r="DI14" s="46"/>
+      <c r="DJ14" s="46"/>
+      <c r="DK14" s="46"/>
+      <c r="DL14" s="46"/>
+      <c r="DM14" s="46"/>
+      <c r="DN14" s="46"/>
+      <c r="DO14" s="46"/>
+      <c r="DP14" s="46"/>
+      <c r="DQ14" s="46"/>
+      <c r="DR14" s="46"/>
+      <c r="DS14" s="46"/>
+      <c r="DT14" s="46"/>
+      <c r="DU14" s="46"/>
+      <c r="DV14" s="46"/>
+      <c r="DW14" s="46"/>
+      <c r="DX14" s="46"/>
+      <c r="DY14" s="46"/>
+      <c r="DZ14" s="46"/>
+      <c r="EA14" s="46"/>
+      <c r="EB14" s="46"/>
+      <c r="EC14" s="46"/>
+      <c r="ED14" s="46"/>
+      <c r="EE14" s="46"/>
+      <c r="EF14" s="46"/>
+      <c r="EG14" s="46"/>
+      <c r="EH14" s="46"/>
+      <c r="EI14" s="46"/>
+      <c r="EJ14" s="46"/>
+      <c r="EK14" s="46"/>
+      <c r="EL14" s="46"/>
+      <c r="EM14" s="46"/>
+      <c r="EN14" s="46"/>
+      <c r="EO14" s="46"/>
+      <c r="EP14" s="46"/>
+      <c r="EQ14" s="46"/>
+      <c r="ER14" s="46"/>
+      <c r="ES14" s="46"/>
+      <c r="ET14" s="46"/>
+      <c r="EU14" s="46"/>
+      <c r="EV14" s="46"/>
+      <c r="EW14" s="46"/>
+      <c r="EX14" s="46"/>
+      <c r="EY14" s="46"/>
+      <c r="EZ14" s="46"/>
+      <c r="FA14" s="46"/>
+      <c r="FB14" s="46"/>
+      <c r="FC14" s="46"/>
+      <c r="FD14" s="46"/>
+      <c r="FE14" s="46"/>
+      <c r="FF14" s="46"/>
+      <c r="FG14" s="46"/>
+      <c r="FH14" s="46"/>
+      <c r="FI14" s="46"/>
+      <c r="FJ14" s="46"/>
+      <c r="FK14" s="46"/>
+      <c r="FL14" s="46"/>
+      <c r="FM14" s="46"/>
+      <c r="FN14" s="46"/>
+      <c r="FO14" s="46"/>
+      <c r="FP14" s="46"/>
+      <c r="FQ14" s="46"/>
+      <c r="FR14" s="46"/>
+      <c r="FS14" s="46"/>
+      <c r="FT14" s="46"/>
+      <c r="FU14" s="46"/>
+      <c r="FV14" s="46"/>
+      <c r="FW14" s="46"/>
+      <c r="FX14" s="46"/>
+      <c r="FY14" s="46"/>
+      <c r="FZ14" s="46"/>
+      <c r="GA14" s="46"/>
+      <c r="GB14" s="46"/>
+      <c r="GC14" s="46"/>
+      <c r="GD14" s="46"/>
+      <c r="GE14" s="46"/>
+      <c r="GF14" s="46"/>
+      <c r="GG14" s="46"/>
+      <c r="GH14" s="46"/>
+      <c r="GI14" s="46"/>
+      <c r="GJ14" s="46"/>
+      <c r="GK14" s="46"/>
+      <c r="GL14" s="46"/>
+      <c r="GM14" s="46"/>
+      <c r="GN14" s="46"/>
+      <c r="GO14" s="46"/>
+      <c r="GP14" s="46"/>
+      <c r="GQ14" s="46"/>
+      <c r="GR14" s="46"/>
+      <c r="GS14" s="46"/>
+      <c r="GT14" s="46"/>
+      <c r="GU14" s="46"/>
+      <c r="GV14" s="46"/>
+      <c r="GW14" s="46"/>
+      <c r="GX14" s="46"/>
+      <c r="GY14" s="46"/>
+      <c r="GZ14" s="46"/>
+      <c r="HA14" s="46"/>
+      <c r="HB14" s="46"/>
+      <c r="HC14" s="46"/>
+      <c r="HD14" s="46"/>
+      <c r="HE14" s="46"/>
+      <c r="HF14" s="46"/>
+      <c r="HG14" s="46"/>
+      <c r="HH14" s="46"/>
+      <c r="HI14" s="46"/>
+      <c r="HJ14" s="46"/>
+      <c r="HK14" s="46"/>
+      <c r="HL14" s="46"/>
+      <c r="HM14" s="46"/>
+      <c r="HN14" s="46"/>
+      <c r="HO14" s="46"/>
+      <c r="HP14" s="46"/>
+      <c r="HQ14" s="46"/>
+      <c r="HR14" s="46"/>
+      <c r="HS14" s="46"/>
+      <c r="HT14" s="46"/>
+      <c r="HU14" s="46"/>
+      <c r="HV14" s="46"/>
+      <c r="HW14" s="46"/>
+      <c r="HX14" s="46"/>
+      <c r="HY14" s="46"/>
+      <c r="HZ14" s="46"/>
+      <c r="IA14" s="46"/>
+      <c r="IB14" s="46"/>
+      <c r="IC14" s="46"/>
+      <c r="ID14" s="46"/>
+      <c r="IE14" s="46"/>
+      <c r="IF14" s="46"/>
+      <c r="IG14" s="46"/>
+      <c r="IH14" s="46"/>
+      <c r="II14" s="46"/>
+      <c r="IJ14" s="46"/>
+      <c r="IK14" s="46"/>
+      <c r="IL14" s="46"/>
+      <c r="IM14" s="46"/>
+      <c r="IN14" s="46"/>
+      <c r="IO14" s="46"/>
+      <c r="IP14" s="46"/>
+      <c r="IQ14" s="46"/>
+      <c r="IR14" s="46"/>
     </row>
     <row r="15" spans="1:253" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="129" t="s">
+      <c r="B15" s="142" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="131"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="144"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="IS15" s="2"/>
     </row>
     <row r="16" spans="1:253" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="83"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="82"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="IS16" s="2"/>
     </row>
     <row r="17" spans="1:257" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="119" t="s">
+      <c r="B17" s="50"/>
+      <c r="C17" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="121"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="137"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="IS17" s="2"/>
     </row>
     <row r="18" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="50"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="49"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="IS18" s="2"/>
     </row>
     <row r="19" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="113" t="s">
+      <c r="B19" s="50"/>
+      <c r="C19" s="132" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="115"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="134"/>
       <c r="IS19" s="2"/>
     </row>
     <row r="20" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="113" t="s">
+      <c r="B20" s="50"/>
+      <c r="C20" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="115"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="134"/>
       <c r="IS20" s="2"/>
     </row>
     <row r="21" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="113" t="s">
+      <c r="B21" s="50"/>
+      <c r="C21" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="115"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="134"/>
       <c r="IS21" s="2"/>
     </row>
     <row r="22" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="113" t="s">
+      <c r="B22" s="50"/>
+      <c r="C22" s="132" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="115"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="134"/>
       <c r="IS22" s="2"/>
     </row>
     <row r="23" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="113" t="s">
+      <c r="B23" s="50"/>
+      <c r="C23" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="115"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="134"/>
       <c r="IS23" s="2"/>
     </row>
     <row r="24" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="113" t="s">
+      <c r="B24" s="50"/>
+      <c r="C24" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="115"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="134"/>
       <c r="IS24" s="2"/>
     </row>
     <row r="25" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="113" t="s">
+      <c r="B25" s="50"/>
+      <c r="C25" s="132" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="115"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="134"/>
       <c r="IS25" s="2"/>
     </row>
     <row r="26" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="113" t="s">
+      <c r="B26" s="50"/>
+      <c r="C26" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="115"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="134"/>
       <c r="IS26" s="2"/>
     </row>
     <row r="27" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="113" t="s">
+      <c r="B27" s="50"/>
+      <c r="C27" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="115"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="134"/>
       <c r="IS27" s="2"/>
     </row>
     <row r="28" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B28" s="51"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="124"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="150"/>
       <c r="IS28" s="2"/>
     </row>
     <row r="29" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B29" s="51"/>
-      <c r="C29" s="119" t="s">
+      <c r="B29" s="50"/>
+      <c r="C29" s="135" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="121"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="137"/>
       <c r="IS29" s="2"/>
     </row>
     <row r="30" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="55"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="54"/>
       <c r="IW30" s="2"/>
     </row>
     <row r="31" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B31" s="56"/>
-      <c r="C31" s="113" t="s">
+      <c r="B31" s="55"/>
+      <c r="C31" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="115"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="134"/>
       <c r="IW31" s="2"/>
     </row>
     <row r="32" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B32" s="52"/>
-      <c r="C32" s="113" t="s">
+      <c r="B32" s="51"/>
+      <c r="C32" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="115"/>
-      <c r="J32" s="24"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="133"/>
+      <c r="F32" s="134"/>
+      <c r="J32" s="23"/>
       <c r="IW32" s="2"/>
     </row>
     <row r="33" spans="2:257" s="1" customFormat="1" ht="15.75">
-      <c r="B33" s="56"/>
-      <c r="C33" s="113" t="s">
+      <c r="B33" s="55"/>
+      <c r="C33" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="115"/>
-      <c r="J33" s="24"/>
+      <c r="D33" s="133"/>
+      <c r="E33" s="133"/>
+      <c r="F33" s="134"/>
+      <c r="J33" s="23"/>
       <c r="IW33" s="2"/>
     </row>
     <row r="34" spans="2:257" s="1" customFormat="1" ht="15.75">
-      <c r="B34" s="52"/>
-      <c r="C34" s="113" t="s">
+      <c r="B34" s="51"/>
+      <c r="C34" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="115"/>
+      <c r="D34" s="133"/>
+      <c r="E34" s="133"/>
+      <c r="F34" s="134"/>
       <c r="IW34" s="2"/>
     </row>
     <row r="35" spans="2:257" s="1" customFormat="1">
-      <c r="B35" s="56"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
       <c r="IW35" s="2"/>
     </row>
     <row r="36" spans="2:257" s="1" customFormat="1">
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
       <c r="IW36" s="2"/>
     </row>
     <row r="37" spans="2:257" s="1" customFormat="1">
-      <c r="B37" s="56"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
       <c r="IW37" s="2"/>
     </row>
     <row r="38" spans="2:257" s="1" customFormat="1">
@@ -8539,7 +8504,7 @@
       <c r="IW38" s="2"/>
     </row>
     <row r="39" spans="2:257" s="1" customFormat="1">
-      <c r="B39" s="23"/>
+      <c r="B39" s="22"/>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
       <c r="IW39" s="2"/>
@@ -8557,17 +8522,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="H14:Q14"/>
-    <mergeCell ref="B15:F15"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="C17:F17"/>
@@ -8584,6 +8538,17 @@
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="H14:Q14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A8:K8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
@@ -8619,60 +8584,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="106"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="115"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="106"/>
-    </row>
-    <row r="10" spans="1:257" s="31" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="108"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="115"/>
+    </row>
+    <row r="10" spans="1:257" s="30" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A10" s="117"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
@@ -8680,143 +8645,143 @@
     </row>
     <row r="15" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="21"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="27"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="26"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="IW15" s="2"/>
     </row>
     <row r="16" spans="1:257" s="1" customFormat="1" ht="50.1" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="140" t="s">
+      <c r="B16" s="162" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="141"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="143" t="s">
+      <c r="C16" s="163"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="144"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="24"/>
-      <c r="K16" s="143" t="s">
+      <c r="G16" s="152"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="23"/>
+      <c r="K16" s="151" t="s">
         <v>101</v>
       </c>
-      <c r="L16" s="144"/>
-      <c r="M16" s="145"/>
+      <c r="L16" s="152"/>
+      <c r="M16" s="153"/>
       <c r="IW16" s="2"/>
     </row>
     <row r="17" spans="1:257" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="154" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="78" t="s">
+      <c r="C17" s="155"/>
+      <c r="D17" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="77"/>
-      <c r="F17" s="134" t="s">
+      <c r="E17" s="76"/>
+      <c r="F17" s="154" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="135"/>
-      <c r="H17" s="78" t="s">
+      <c r="G17" s="155"/>
+      <c r="H17" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="K17" s="134" t="s">
+      <c r="I17" s="23"/>
+      <c r="K17" s="154" t="s">
         <v>89</v>
       </c>
-      <c r="L17" s="135"/>
-      <c r="M17" s="86" t="s">
+      <c r="L17" s="155"/>
+      <c r="M17" s="85" t="s">
         <v>104</v>
       </c>
       <c r="IW17" s="2"/>
     </row>
     <row r="18" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="136" t="s">
+      <c r="B18" s="156" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="137"/>
-      <c r="D18" s="79">
+      <c r="C18" s="157"/>
+      <c r="D18" s="78">
         <v>0.75</v>
       </c>
-      <c r="E18" s="77"/>
-      <c r="F18" s="136" t="s">
+      <c r="E18" s="76"/>
+      <c r="F18" s="156" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="137"/>
-      <c r="H18" s="79">
+      <c r="G18" s="157"/>
+      <c r="H18" s="78">
         <v>0.65</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="K18" s="136" t="s">
+      <c r="I18" s="23"/>
+      <c r="K18" s="156" t="s">
         <v>102</v>
       </c>
-      <c r="L18" s="137"/>
-      <c r="M18" s="79">
+      <c r="L18" s="157"/>
+      <c r="M18" s="78">
         <v>0.85</v>
       </c>
       <c r="IW18" s="2"/>
     </row>
     <row r="19" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="138" t="s">
+      <c r="B19" s="160" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="139"/>
-      <c r="D19" s="80">
+      <c r="C19" s="161"/>
+      <c r="D19" s="79">
         <v>0.25</v>
       </c>
-      <c r="E19" s="77"/>
-      <c r="F19" s="136" t="s">
+      <c r="E19" s="76"/>
+      <c r="F19" s="156" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="137"/>
-      <c r="H19" s="79">
+      <c r="G19" s="157"/>
+      <c r="H19" s="78">
         <v>0.1</v>
       </c>
-      <c r="I19" s="24"/>
-      <c r="K19" s="136" t="s">
+      <c r="I19" s="23"/>
+      <c r="K19" s="156" t="s">
         <v>103</v>
       </c>
-      <c r="L19" s="137"/>
-      <c r="M19" s="79">
+      <c r="L19" s="157"/>
+      <c r="M19" s="78">
         <v>0.15</v>
       </c>
       <c r="IW19" s="2"/>
     </row>
     <row r="20" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="21"/>
-      <c r="F20" s="132" t="s">
+      <c r="F20" s="158" t="s">
         <v>91</v>
       </c>
-      <c r="G20" s="133"/>
-      <c r="H20" s="82">
+      <c r="G20" s="159"/>
+      <c r="H20" s="81">
         <v>0.25</v>
       </c>
-      <c r="I20" s="24"/>
+      <c r="I20" s="23"/>
       <c r="IW20" s="2"/>
     </row>
     <row r="21" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="23"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
       <c r="IW21" s="2"/>
     </row>
     <row r="22" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -8828,7 +8793,7 @@
     </row>
     <row r="23" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="23"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="IW23" s="2"/>
@@ -8840,7 +8805,7 @@
       <c r="IW24" s="2"/>
     </row>
     <row r="25" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B25" s="23"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
       <c r="IW25" s="2"/>
@@ -8852,7 +8817,7 @@
       <c r="IW26" s="2"/>
     </row>
     <row r="27" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B27" s="23"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
       <c r="IW27" s="2"/>
@@ -8861,14 +8826,14 @@
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
-      <c r="J28" s="24"/>
+      <c r="J28" s="23"/>
       <c r="IW28" s="2"/>
     </row>
     <row r="29" spans="1:257" s="1" customFormat="1">
-      <c r="B29" s="23"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
-      <c r="J29" s="24"/>
+      <c r="J29" s="23"/>
       <c r="IW29" s="2"/>
     </row>
     <row r="30" spans="1:257" s="1" customFormat="1">
@@ -8878,7 +8843,7 @@
       <c r="IW30" s="2"/>
     </row>
     <row r="31" spans="1:257" s="1" customFormat="1">
-      <c r="B31" s="23"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="IW31" s="2"/>
@@ -8890,7 +8855,7 @@
       <c r="IW32" s="2"/>
     </row>
     <row r="33" spans="2:257" s="1" customFormat="1">
-      <c r="B33" s="23"/>
+      <c r="B33" s="22"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
       <c r="IW33" s="2"/>
@@ -8902,7 +8867,7 @@
       <c r="IW34" s="2"/>
     </row>
     <row r="35" spans="2:257" s="1" customFormat="1">
-      <c r="B35" s="23"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
       <c r="IW35" s="2"/>
@@ -8920,6 +8885,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="K16:M16"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="K18:L18"/>
@@ -8928,17 +8904,6 @@
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
@@ -8994,56 +8959,56 @@
       <c r="IV4" s="1"/>
     </row>
     <row r="5" spans="1:256">
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
       <c r="IT5" s="1"/>
       <c r="IU5" s="1"/>
       <c r="IV5" s="1"/>
     </row>
     <row r="6" spans="1:256">
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
       <c r="IT6" s="1"/>
       <c r="IU6" s="1"/>
       <c r="IV6" s="1"/>
     </row>
     <row r="7" spans="1:256" ht="30">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="106"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="115"/>
       <c r="IT7" s="1"/>
       <c r="IU7" s="1"/>
       <c r="IV7" s="1"/>
     </row>
     <row r="8" spans="1:256" ht="30">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="106"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="115"/>
       <c r="IT8" s="1"/>
       <c r="IU8" s="1"/>
       <c r="IV8" s="1"/>
@@ -9053,18 +9018,18 @@
       <c r="IU9" s="1"/>
       <c r="IV9" s="1"/>
     </row>
-    <row r="10" spans="1:256" s="31" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="108"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
+    <row r="10" spans="1:256" s="30" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A10" s="117"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
     </row>
     <row r="11" spans="1:256" ht="15" thickTop="1">
       <c r="IT11" s="1"/>
@@ -9075,277 +9040,277 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:256" ht="15" thickBot="1">
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
     </row>
     <row r="14" spans="1:256" ht="30" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="152" t="s">
+      <c r="B14" s="171" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="153"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="153"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="24"/>
+      <c r="C14" s="172"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="172"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="23"/>
     </row>
     <row r="15" spans="1:256" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="155"/>
-      <c r="C15" s="156"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="156"/>
-      <c r="H15" s="156"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="24"/>
+      <c r="B15" s="174"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="23"/>
       <c r="K15" s="13"/>
       <c r="IT15" s="2"/>
     </row>
     <row r="16" spans="1:256" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="158" t="s">
+      <c r="B16" s="177" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="85"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="179"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="84"/>
       <c r="IT16" s="2"/>
     </row>
     <row r="17" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="158"/>
-      <c r="C17" s="159"/>
-      <c r="D17" s="159"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="24"/>
+      <c r="B17" s="177"/>
+      <c r="C17" s="178"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="179"/>
+      <c r="J17" s="23"/>
       <c r="K17" s="13"/>
       <c r="IT17" s="2"/>
     </row>
     <row r="18" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="159"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="24"/>
+      <c r="B18" s="177"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="178"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="179"/>
+      <c r="J18" s="23"/>
       <c r="K18" s="13"/>
       <c r="IT18" s="2"/>
     </row>
     <row r="19" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="158"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="24"/>
+      <c r="B19" s="177"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="179"/>
+      <c r="J19" s="23"/>
       <c r="IT19" s="2"/>
     </row>
     <row r="20" spans="1:254" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="155" t="s">
+      <c r="B20" s="174" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="24"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="175"/>
+      <c r="F20" s="175"/>
+      <c r="G20" s="175"/>
+      <c r="H20" s="175"/>
+      <c r="I20" s="176"/>
+      <c r="J20" s="23"/>
       <c r="IT20" s="2"/>
     </row>
     <row r="21" spans="1:254" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="24"/>
+      <c r="B21" s="174"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="175"/>
+      <c r="G21" s="175"/>
+      <c r="H21" s="175"/>
+      <c r="I21" s="176"/>
+      <c r="J21" s="23"/>
       <c r="IT21" s="2"/>
     </row>
     <row r="22" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="146" t="s">
+      <c r="B22" s="165" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="147"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="148"/>
-      <c r="J22" s="24"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="166"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="23"/>
       <c r="IT22" s="2"/>
     </row>
     <row r="23" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="146"/>
-      <c r="C23" s="147"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="148"/>
-      <c r="J23" s="24"/>
+      <c r="B23" s="165"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="166"/>
+      <c r="G23" s="166"/>
+      <c r="H23" s="166"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="23"/>
       <c r="IT23" s="2"/>
     </row>
     <row r="24" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="146"/>
-      <c r="C24" s="147"/>
-      <c r="D24" s="147"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="148"/>
-      <c r="J24" s="24"/>
+      <c r="B24" s="165"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="166"/>
+      <c r="E24" s="166"/>
+      <c r="F24" s="166"/>
+      <c r="G24" s="166"/>
+      <c r="H24" s="166"/>
+      <c r="I24" s="167"/>
+      <c r="J24" s="23"/>
       <c r="IT24" s="2"/>
     </row>
     <row r="25" spans="1:254" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="155" t="s">
+      <c r="B25" s="174" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="156"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="157"/>
-      <c r="J25" s="24"/>
+      <c r="C25" s="175"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="175"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="175"/>
+      <c r="I25" s="176"/>
+      <c r="J25" s="23"/>
       <c r="IT25" s="2"/>
     </row>
     <row r="26" spans="1:254" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="155"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="24"/>
+      <c r="B26" s="174"/>
+      <c r="C26" s="175"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="175"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="176"/>
+      <c r="J26" s="23"/>
       <c r="IT26" s="2"/>
     </row>
     <row r="27" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="146" t="s">
+      <c r="B27" s="165" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="147"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="148"/>
-      <c r="J27" s="24"/>
-      <c r="L27" s="87"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="166"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="167"/>
+      <c r="J27" s="23"/>
+      <c r="L27" s="86"/>
       <c r="IT27" s="2"/>
     </row>
     <row r="28" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="147"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="24"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="166"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="23"/>
       <c r="IT28" s="2"/>
     </row>
     <row r="29" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="24"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="166"/>
+      <c r="E29" s="166"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="166"/>
+      <c r="H29" s="166"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="23"/>
       <c r="IT29" s="2"/>
     </row>
     <row r="30" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="149"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="24"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="169"/>
+      <c r="G30" s="169"/>
+      <c r="H30" s="169"/>
+      <c r="I30" s="170"/>
+      <c r="J30" s="23"/>
       <c r="IT30" s="2"/>
     </row>
     <row r="31" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
       <c r="IT31" s="2"/>
     </row>
     <row r="32" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
-      <c r="J32" s="24"/>
+      <c r="J32" s="23"/>
       <c r="IT32" s="2"/>
     </row>
     <row r="33" spans="2:254" s="1" customFormat="1">
-      <c r="B33" s="23"/>
+      <c r="B33" s="22"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
-      <c r="J33" s="24"/>
+      <c r="J33" s="23"/>
       <c r="IT33" s="2"/>
     </row>
     <row r="34" spans="2:254" s="1" customFormat="1">
@@ -9355,7 +9320,7 @@
       <c r="IT34" s="2"/>
     </row>
     <row r="35" spans="2:254" s="1" customFormat="1">
-      <c r="B35" s="23"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
       <c r="IT35" s="2"/>
@@ -9367,7 +9332,7 @@
       <c r="IT36" s="2"/>
     </row>
     <row r="37" spans="2:254" s="1" customFormat="1">
-      <c r="B37" s="23"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
       <c r="IT37" s="2"/>
@@ -9379,7 +9344,7 @@
       <c r="IT38" s="2"/>
     </row>
     <row r="39" spans="2:254" s="1" customFormat="1">
-      <c r="B39" s="23"/>
+      <c r="B39" s="22"/>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
       <c r="IT39" s="2"/>

--- a/docs/trim1/levantamiento_informacion/1_recoleccion_informacion.xlsx
+++ b/docs/trim1/levantamiento_informacion/1_recoleccion_informacion.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7E12D2-13A6-47A3-87A4-2328AD9A4765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="712" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja de Control" sheetId="5" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Hoja de Control'!$B$2:$F$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Instrumentos!$A$1:$K$116</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Planeación!$A$1:$J$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Reportes Gráficos'!$A$1:$K$112</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Reportes Gráficos'!$A$1:$K$114</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Tabulación!$A$1:$K$116</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Técnicas!$A$1:$K$116</definedName>
   </definedNames>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="171">
   <si>
     <t>HOJA DE CONTROL</t>
   </si>
@@ -482,9 +483,6 @@
     <t>Porcentajes según su importancia:</t>
   </si>
   <si>
-    <t xml:space="preserve">Ventas </t>
-  </si>
-  <si>
     <t>Porcentajes según su Stock</t>
   </si>
   <si>
@@ -726,12 +724,21 @@
   </si>
   <si>
     <t>0.23</t>
+  </si>
+  <si>
+    <t>Facturas</t>
+  </si>
+  <si>
+    <t>Productos</t>
+  </si>
+  <si>
+    <t>Ventas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="38">
     <font>
       <sz val="11"/>
@@ -1005,7 +1012,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="66">
+  <borders count="70">
     <border>
       <left/>
       <right/>
@@ -1884,6 +1891,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1891,7 +1950,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1989,9 +2048,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2090,12 +2146,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2144,10 +2194,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2166,36 +2247,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2217,6 +2268,15 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2226,6 +2286,15 @@
     <xf numFmtId="0" fontId="25" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2247,23 +2316,38 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="6" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2274,39 +2358,6 @@
     <xf numFmtId="0" fontId="30" fillId="6" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2352,12 +2403,24 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="4" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Excel_BuiltIn_Hyperlink" xfId="2"/>
+    <cellStyle name="Excel_BuiltIn_Hyperlink" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2373,7 +2436,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2453,14 +2516,14 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Reportes Gráficos'!$G$16:$G$17</c:f>
+              <c:f>'Reportes Gráficos'!$H$16:$H$17</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Gráfico 2: Diagrama de líneas: Tipos de Productos en el Negocio (Papelería y Miscelánea)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Tipos de Productos</c:v>
+                  <c:v>Porcentajes según su Stock</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2475,77 +2538,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Reportes Gráficos'!$F$18:$F$20</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Papelería</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Regalos</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Dulces y Paquetes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Reportes Gráficos'!$G$18:$G$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="411572824"/>
-        <c:axId val="411573216"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Reportes Gráficos'!$H$16:$H$17</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Gráfico 2: Diagrama de líneas: Tipos de Productos en el Negocio (Papelería y Miscelánea)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Porcentajes según su Stock</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Reportes Gráficos'!$F$18:$F$20</c:f>
@@ -2581,7 +2573,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F182-4CE3-9DCB-3F2540E2A008}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2591,11 +2587,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="411572824"/>
         <c:axId val="411573216"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="411572824"/>
         <c:scaling>
@@ -2668,7 +2663,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2790,416 +2785,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>Gráfico</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" baseline="0"/>
-              <a:t> 1</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Reportes Gráficos'!$B$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Inventario</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Reportes Gráficos'!$C$16:$D$17</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="1">
-                  <c:v>Porcentajes según su importancia:</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Reportes Gráficos'!$C$18:$D$18</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="1">
-                  <c:v>0.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Reportes Gráficos'!$B$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ventas </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Reportes Gráficos'!$C$16:$D$17</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="1">
-                  <c:v>Porcentajes según su importancia:</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Reportes Gráficos'!$C$19:$D$19</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="411573608"/>
-        <c:axId val="411568512"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="411573608"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="411568512"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="411568512"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="411573608"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3347,6 +2933,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2238-4B68-BBE7-94E144F7407E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3395,6 +2986,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2238-4B68-BBE7-94E144F7407E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3556,6 +3152,434 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Gráfico</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Reportes Gráficos'!$B$18:$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Inventario</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Productos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Facturas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Reportes Gráficos'!$C$18:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F897-41C2-A196-D2BB344E9793}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Reportes Gráficos'!$B$18:$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Inventario</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Productos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Facturas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Reportes Gráficos'!$D$18:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F897-41C2-A196-D2BB344E9793}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="566684496"/>
+        <c:axId val="566690728"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="566684496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="566690728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="566690728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="566684496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -4228,500 +4252,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5242,6 +4772,500 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -5257,7 +5281,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5311,7 +5335,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5365,7 +5389,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5419,7 +5443,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5473,7 +5497,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5527,7 +5551,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5567,18 +5591,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1714499</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>200023</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2711902</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>68036</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Gráfico 6"/>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5588,36 +5618,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>200023</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2711902</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Gráfico 9"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5638,7 +5638,49 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Gráfico 10"/>
+        <xdr:cNvPr id="11" name="Gráfico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>781049</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5850BA-3DB1-4469-8619-169C05F9ECBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5671,7 +5713,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5786,6 +5828,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5821,6 +5880,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5996,10 +6072,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:IV78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
@@ -6025,55 +6101,55 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="C7" s="113" t="s">
+      <c r="C7" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="114"/>
-      <c r="E7" s="115"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="123"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="115"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="123"/>
     </row>
     <row r="10" spans="1:11" s="30" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="117"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
+      <c r="A10" s="125"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="13" spans="1:11" ht="30">
-      <c r="B13" s="116" t="s">
+      <c r="B13" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1">
       <c r="B15" s="2"/>
@@ -6084,56 +6160,56 @@
       <c r="B16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="118" t="s">
+      <c r="C16" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
     </row>
     <row r="17" spans="1:16" ht="18">
       <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="119" t="s">
+      <c r="C17" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
     </row>
     <row r="18" spans="1:16" ht="18">
       <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="120" t="s">
+      <c r="C18" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
     </row>
     <row r="19" spans="1:16" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A19" s="21"/>
       <c r="B19" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="119" t="s">
+      <c r="C19" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
     </row>
     <row r="20" spans="1:16" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A20" s="21"/>
       <c r="B20" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="121" t="s">
+      <c r="C20" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="121"/>
+      <c r="D20" s="119"/>
       <c r="E20" s="7" t="s">
         <v>7</v>
       </c>
@@ -6143,13 +6219,13 @@
     </row>
     <row r="21" spans="1:16" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="126" t="s">
+      <c r="B21" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="122" t="s">
+      <c r="C21" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="123"/>
+      <c r="D21" s="113"/>
       <c r="E21" s="9" t="s">
         <v>9</v>
       </c>
@@ -6159,9 +6235,9 @@
     </row>
     <row r="22" spans="1:16" ht="36.75" thickBot="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="125"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
       <c r="E22" s="10" t="s">
         <v>10</v>
       </c>
@@ -6185,17 +6261,17 @@
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:16" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="93" t="s">
+      <c r="C26" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="94" t="s">
+      <c r="D26" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="95"/>
-      <c r="F26" s="96" t="s">
+      <c r="E26" s="92"/>
+      <c r="F26" s="93" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6203,11 +6279,11 @@
       <c r="B27" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="89" t="s">
+      <c r="C27" s="86" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E27" s="111"/>
       <c r="F27" s="15" t="s">
@@ -6215,314 +6291,314 @@
       </c>
     </row>
     <row r="28" spans="1:16" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B28" s="89" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="89" t="s">
+      <c r="B28" s="86" t="s">
         <v>93</v>
       </c>
+      <c r="C28" s="86" t="s">
+        <v>92</v>
+      </c>
       <c r="D28" s="110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E28" s="111"/>
       <c r="F28" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B29" s="94" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B29" s="97" t="s">
+      <c r="C29" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="89" t="s">
-        <v>112</v>
-      </c>
       <c r="D29" s="110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E29" s="111"/>
       <c r="F29" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B30" s="94" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B30" s="97" t="s">
+      <c r="C30" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="89" t="s">
-        <v>115</v>
-      </c>
       <c r="D30" s="110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E30" s="111"/>
       <c r="F30" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B31" s="94" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B31" s="97" t="s">
+      <c r="C31" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="89" t="s">
-        <v>118</v>
-      </c>
       <c r="D31" s="110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E31" s="111"/>
       <c r="F31" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B32" s="94" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B32" s="97" t="s">
+      <c r="C32" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="89" t="s">
-        <v>121</v>
-      </c>
       <c r="D32" s="110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E32" s="111"/>
       <c r="F32" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B33" s="97" t="s">
+      <c r="B33" s="94" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="89" t="s">
-        <v>123</v>
-      </c>
       <c r="D33" s="110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E33" s="111"/>
       <c r="F33" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B34" s="94" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B34" s="97" t="s">
+      <c r="C34" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="89" t="s">
-        <v>126</v>
-      </c>
       <c r="D34" s="110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E34" s="111"/>
       <c r="F34" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B35" s="97" t="s">
+      <c r="B35" s="94" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="89" t="s">
-        <v>128</v>
-      </c>
       <c r="D35" s="110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E35" s="111"/>
       <c r="F35" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A36" s="2"/>
-      <c r="B36" s="98" t="s">
+      <c r="B36" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="89" t="s">
-        <v>130</v>
-      </c>
       <c r="D36" s="110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E36" s="111"/>
       <c r="F36" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B37" s="98" t="s">
+      <c r="B37" s="95" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="C37" s="89" t="s">
-        <v>132</v>
-      </c>
       <c r="D37" s="110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E37" s="111"/>
       <c r="F37" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="45" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B38" s="95" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B38" s="98" t="s">
+      <c r="C38" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="C38" s="89" t="s">
-        <v>135</v>
-      </c>
       <c r="D38" s="110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E38" s="111"/>
       <c r="F38" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B39" s="98" t="s">
+      <c r="B39" s="95" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="C39" s="89" t="s">
-        <v>137</v>
-      </c>
       <c r="D39" s="110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E39" s="111"/>
       <c r="F39" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B40" s="95" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B40" s="98" t="s">
+      <c r="C40" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="C40" s="89" t="s">
-        <v>140</v>
-      </c>
       <c r="D40" s="110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E40" s="111"/>
       <c r="F40" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B41" s="98" t="s">
+      <c r="B41" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="89" t="s">
-        <v>142</v>
-      </c>
       <c r="D41" s="110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E41" s="111"/>
       <c r="F41" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B42" s="98" t="s">
+      <c r="B42" s="95" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="C42" s="89" t="s">
-        <v>144</v>
-      </c>
       <c r="D42" s="110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E42" s="111"/>
       <c r="F42" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G42" s="16"/>
+    </row>
+    <row r="43" spans="1:13" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B43" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="G42" s="16"/>
-    </row>
-    <row r="43" spans="1:13" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B43" s="98" t="s">
+      <c r="C43" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="C43" s="89" t="s">
-        <v>147</v>
-      </c>
       <c r="D43" s="110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E43" s="111"/>
       <c r="F43" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
       <c r="A44" s="17"/>
-      <c r="B44" s="98" t="s">
+      <c r="B44" s="95" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="C44" s="89" t="s">
-        <v>150</v>
-      </c>
       <c r="D44" s="110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E44" s="111"/>
       <c r="F44" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
       <c r="A45" s="17"/>
-      <c r="B45" s="98" t="s">
+      <c r="B45" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="C45" s="89" t="s">
-        <v>152</v>
-      </c>
       <c r="D45" s="110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E45" s="111"/>
       <c r="F45" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
       <c r="A46" s="2"/>
-      <c r="B46" s="98" t="s">
+      <c r="B46" s="95" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="C46" s="89" t="s">
-        <v>154</v>
-      </c>
       <c r="D46" s="110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E46" s="111"/>
       <c r="F46" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G46" s="2"/>
       <c r="I46" s="19"/>
     </row>
     <row r="47" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
       <c r="A47" s="17"/>
-      <c r="B47" s="98" t="s">
+      <c r="B47" s="95" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="C47" s="89" t="s">
-        <v>157</v>
-      </c>
       <c r="D47" s="110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E47" s="111"/>
       <c r="F47" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G47" s="16"/>
       <c r="K47" s="13"/>
@@ -6531,18 +6607,18 @@
     </row>
     <row r="48" spans="1:13" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A48" s="17"/>
-      <c r="B48" s="98" t="s">
+      <c r="B48" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="86" t="s">
         <v>158</v>
       </c>
-      <c r="C48" s="89" t="s">
-        <v>159</v>
-      </c>
       <c r="D48" s="110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E48" s="111"/>
       <c r="F48" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G48" s="16"/>
       <c r="K48" s="13"/>
@@ -6551,18 +6627,18 @@
     </row>
     <row r="49" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
       <c r="A49" s="17"/>
-      <c r="B49" s="98" t="s">
+      <c r="B49" s="95" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="C49" s="89" t="s">
-        <v>161</v>
-      </c>
       <c r="D49" s="110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E49" s="111"/>
       <c r="F49" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G49" s="2"/>
       <c r="K49" s="13"/>
@@ -6571,18 +6647,18 @@
     </row>
     <row r="50" spans="1:13" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
       <c r="A50" s="17"/>
-      <c r="B50" s="98" t="s">
+      <c r="B50" s="95" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="C50" s="89" t="s">
-        <v>163</v>
-      </c>
       <c r="D50" s="110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E50" s="111"/>
       <c r="F50" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G50" s="16"/>
       <c r="H50" s="20"/>
@@ -6592,54 +6668,54 @@
     </row>
     <row r="51" spans="1:13" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
       <c r="A51" s="17"/>
-      <c r="B51" s="98" t="s">
+      <c r="B51" s="95" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" s="86" t="s">
         <v>164</v>
       </c>
-      <c r="C51" s="89" t="s">
-        <v>165</v>
-      </c>
       <c r="D51" s="110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E51" s="111"/>
       <c r="F51" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K51" s="13"/>
       <c r="L51" s="13"/>
     </row>
     <row r="52" spans="1:13" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
       <c r="A52" s="21"/>
-      <c r="B52" s="98" t="s">
+      <c r="B52" s="95" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="C52" s="89" t="s">
-        <v>167</v>
-      </c>
       <c r="D52" s="110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E52" s="111"/>
       <c r="F52" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K52" s="13"/>
       <c r="L52" s="13"/>
     </row>
     <row r="53" spans="1:13" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
       <c r="A53" s="21"/>
-      <c r="B53" s="98" t="s">
-        <v>168</v>
-      </c>
-      <c r="C53" s="89" t="s">
-        <v>163</v>
+      <c r="B53" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" s="86" t="s">
+        <v>162</v>
       </c>
       <c r="D53" s="110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E53" s="111"/>
       <c r="F53" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K53" s="13"/>
       <c r="L53" s="13"/>
@@ -6656,63 +6732,63 @@
     </row>
     <row r="55" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A55" s="21"/>
-      <c r="B55" s="99" t="s">
+      <c r="B55" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="100"/>
-      <c r="D55" s="100"/>
-      <c r="E55" s="100"/>
-      <c r="F55" s="100"/>
+      <c r="C55" s="97"/>
+      <c r="D55" s="97"/>
+      <c r="E55" s="97"/>
+      <c r="F55" s="97"/>
       <c r="G55" s="18"/>
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
     </row>
     <row r="56" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A56" s="21"/>
-      <c r="B56" s="100"/>
-      <c r="C56" s="100"/>
-      <c r="D56" s="100"/>
-      <c r="E56" s="100"/>
-      <c r="F56" s="100"/>
+      <c r="B56" s="97"/>
+      <c r="C56" s="97"/>
+      <c r="D56" s="97"/>
+      <c r="E56" s="97"/>
+      <c r="F56" s="97"/>
       <c r="G56" s="18"/>
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
     </row>
     <row r="57" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
       <c r="A57" s="21"/>
-      <c r="B57" s="101" t="s">
+      <c r="B57" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="102"/>
-      <c r="D57" s="102"/>
-      <c r="E57" s="102"/>
-      <c r="F57" s="103"/>
+      <c r="C57" s="99"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="99"/>
+      <c r="F57" s="100"/>
       <c r="G57" s="16"/>
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
     </row>
     <row r="58" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A58" s="21"/>
-      <c r="B58" s="104" t="s">
+      <c r="B58" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="C58" s="105"/>
-      <c r="D58" s="105"/>
-      <c r="E58" s="105"/>
-      <c r="F58" s="106"/>
+      <c r="C58" s="102"/>
+      <c r="D58" s="102"/>
+      <c r="E58" s="102"/>
+      <c r="F58" s="103"/>
       <c r="G58" s="16"/>
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
     </row>
     <row r="59" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A59" s="21"/>
-      <c r="B59" s="107" t="s">
+      <c r="B59" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="108"/>
-      <c r="D59" s="108"/>
-      <c r="E59" s="108"/>
-      <c r="F59" s="109"/>
+      <c r="C59" s="105"/>
+      <c r="D59" s="105"/>
+      <c r="E59" s="105"/>
+      <c r="F59" s="106"/>
       <c r="G59" s="16"/>
       <c r="K59" s="13"/>
       <c r="L59" s="13"/>
@@ -6827,6 +6903,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="D51:E51"/>
@@ -6842,43 +6943,18 @@
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A10:K10"/>
     <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C36" r:id="rId1" display="https://github.com/FazeElian/TPS_FDS-2671339-AutOsiris-SIW7/commit/2ecb800010571b5d940e7676f0266ceec1077960"/>
-    <hyperlink ref="C42" r:id="rId2" display="https://github.com/FazeElian/TPS_FDS-2671339-AutOsiris-SIW7/commit/2ecb800010571b5d940e7676f0266ceec1077960"/>
-    <hyperlink ref="C43" r:id="rId3" display="https://github.com/FazeElian/TPS_FDS-2671339-AutOsiris-SIW7/commit/ddef5646d1619856509cd4f6dfa08cbbf65d9218"/>
-    <hyperlink ref="C44" r:id="rId4" display="https://github.com/FazeElian/TPS_FDS-2671339-AutOsiris-SIW7/commit/0c769153084fe7db0108fb14201abfc7337a63a6"/>
-    <hyperlink ref="C45" r:id="rId5" display="https://github.com/FazeElian/TPS_FDS-2671339-AutOsiris-SIW7/commit/a5924840849b6af44446e8ba51c6b3dfdb20fa5b"/>
-    <hyperlink ref="C46" r:id="rId6" display="https://github.com/FazeElian/TPS_FDS-2671339-AutOsiris-SIW7/commit/1653bf22f70f0bb1794a795c1aa8e547e51318a3"/>
-    <hyperlink ref="C47" r:id="rId7" display="https://github.com/FazeElian/TPS_FDS-2671339-AutOsiris-SIW7/commit/e6e8b3c9e3916fc54fa43712278852888c255f72"/>
-    <hyperlink ref="C48" r:id="rId8" display="https://github.com/FazeElian/TPS_FDS-2671339-AutOsiris-SIW7/commit/725397936391c6848b06ebf337da927ad0bb5592"/>
-    <hyperlink ref="C49" r:id="rId9" display="https://github.com/FazeElian/TPS_FDS-2671339-AutOsiris-SIW7/commit/2eed1e38b0b118dc5f3af284241409ba06b6bfd6"/>
+    <hyperlink ref="C36" r:id="rId1" display="https://github.com/FazeElian/TPS_FDS-2671339-AutOsiris-SIW7/commit/2ecb800010571b5d940e7676f0266ceec1077960" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C42" r:id="rId2" display="https://github.com/FazeElian/TPS_FDS-2671339-AutOsiris-SIW7/commit/2ecb800010571b5d940e7676f0266ceec1077960" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C43" r:id="rId3" display="https://github.com/FazeElian/TPS_FDS-2671339-AutOsiris-SIW7/commit/ddef5646d1619856509cd4f6dfa08cbbf65d9218" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C44" r:id="rId4" display="https://github.com/FazeElian/TPS_FDS-2671339-AutOsiris-SIW7/commit/0c769153084fe7db0108fb14201abfc7337a63a6" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C45" r:id="rId5" display="https://github.com/FazeElian/TPS_FDS-2671339-AutOsiris-SIW7/commit/a5924840849b6af44446e8ba51c6b3dfdb20fa5b" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C46" r:id="rId6" display="https://github.com/FazeElian/TPS_FDS-2671339-AutOsiris-SIW7/commit/1653bf22f70f0bb1794a795c1aa8e547e51318a3" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C47" r:id="rId7" display="https://github.com/FazeElian/TPS_FDS-2671339-AutOsiris-SIW7/commit/e6e8b3c9e3916fc54fa43712278852888c255f72" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C48" r:id="rId8" display="https://github.com/FazeElian/TPS_FDS-2671339-AutOsiris-SIW7/commit/725397936391c6848b06ebf337da927ad0bb5592" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C49" r:id="rId9" display="https://github.com/FazeElian/TPS_FDS-2671339-AutOsiris-SIW7/commit/2eed1e38b0b118dc5f3af284241409ba06b6bfd6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
@@ -6888,7 +6964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:IS39"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -6913,56 +6989,56 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" s="30" customFormat="1" ht="5.0999999999999996" customHeight="1">
-      <c r="A3" s="130"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
     </row>
     <row r="4" spans="1:10" s="31" customFormat="1" ht="20.25">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="129" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
     </row>
     <row r="5" spans="1:10" s="31" customFormat="1" ht="20.25">
-      <c r="A5" s="131" t="s">
+      <c r="A5" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
     </row>
     <row r="6" spans="1:10" s="30" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A6" s="117"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
+      <c r="A6" s="125"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickTop="1"/>
     <row r="8" spans="1:10" ht="15" thickBot="1">
@@ -6976,51 +7052,51 @@
       <c r="I8" s="26"/>
     </row>
     <row r="9" spans="1:10" s="24" customFormat="1" ht="24" customHeight="1">
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="68" t="s">
+      <c r="G9" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="68" t="s">
+      <c r="H9" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="69" t="s">
+      <c r="I9" s="68" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="25" customFormat="1" ht="60" customHeight="1">
-      <c r="B10" s="128" t="s">
+      <c r="B10" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="58">
+      <c r="F10" s="57">
         <v>44991</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="56" t="s">
+      <c r="H10" s="55" t="s">
         <v>46</v>
       </c>
       <c r="I10" s="32" t="s">
@@ -7028,23 +7104,23 @@
       </c>
     </row>
     <row r="11" spans="1:10" s="25" customFormat="1" ht="42" customHeight="1">
-      <c r="B11" s="128"/>
-      <c r="C11" s="56" t="s">
+      <c r="B11" s="126"/>
+      <c r="C11" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="58">
+      <c r="F11" s="57">
         <v>44991</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="56" t="s">
+      <c r="H11" s="55" t="s">
         <v>44</v>
       </c>
       <c r="I11" s="32" t="s">
@@ -7052,25 +7128,25 @@
       </c>
     </row>
     <row r="12" spans="1:10" customFormat="1" ht="69.95" customHeight="1">
-      <c r="B12" s="128" t="s">
+      <c r="B12" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="58">
+      <c r="F12" s="57">
         <v>44999</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="56" t="s">
+      <c r="H12" s="55" t="s">
         <v>46</v>
       </c>
       <c r="I12" s="32" t="s">
@@ -7078,26 +7154,26 @@
       </c>
     </row>
     <row r="13" spans="1:10" customFormat="1" ht="45" customHeight="1" thickBot="1">
-      <c r="B13" s="129"/>
-      <c r="C13" s="57" t="s">
+      <c r="B13" s="127"/>
+      <c r="C13" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="58">
+      <c r="F13" s="57">
         <v>44999</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="57" t="s">
+      <c r="H13" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="66" t="s">
+      <c r="I13" s="65" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7285,7 +7361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:K41"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -7310,60 +7386,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="115"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="123"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="115"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="123"/>
     </row>
     <row r="10" spans="1:11" s="30" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="117"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
+      <c r="A10" s="125"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="12" spans="1:11">
@@ -7377,10 +7453,10 @@
       <c r="D15" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="59"/>
+      <c r="F15" s="58"/>
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
@@ -7390,10 +7466,10 @@
       <c r="D16" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="60">
         <v>44991</v>
       </c>
-      <c r="F16" s="59"/>
+      <c r="F16" s="58"/>
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
@@ -7403,20 +7479,20 @@
       <c r="D17" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="61">
+      <c r="E17" s="60">
         <v>44991</v>
       </c>
-      <c r="F17" s="59"/>
+      <c r="F17" s="58"/>
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A18" s="21"/>
       <c r="B18" s="16"/>
       <c r="C18" s="35"/>
-      <c r="D18" s="62" t="s">
+      <c r="D18" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="63">
+      <c r="E18" s="62">
         <v>44996</v>
       </c>
       <c r="F18" s="23"/>
@@ -7426,10 +7502,10 @@
       <c r="A19" s="21"/>
       <c r="B19" s="22"/>
       <c r="C19" s="35"/>
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="65">
+      <c r="E19" s="64">
         <v>44996</v>
       </c>
       <c r="F19" s="23"/>
@@ -7571,11 +7647,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:IW41"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -7598,60 +7674,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="115"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="123"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="115"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="123"/>
     </row>
     <row r="10" spans="1:257" s="30" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="117"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
+      <c r="A10" s="125"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
@@ -7665,7 +7741,7 @@
     <row r="15" spans="1:257" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1">
       <c r="A15" s="21"/>
       <c r="B15" s="34"/>
-      <c r="C15" s="90" t="s">
+      <c r="C15" s="87" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="40" t="s">
@@ -7683,7 +7759,7 @@
     <row r="16" spans="1:257" s="1" customFormat="1" ht="120" customHeight="1">
       <c r="A16" s="21"/>
       <c r="B16" s="35"/>
-      <c r="C16" s="91" t="s">
+      <c r="C16" s="88" t="s">
         <v>64</v>
       </c>
       <c r="D16" s="38">
@@ -7707,7 +7783,7 @@
       <c r="D17" s="38">
         <v>44991</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="44" t="s">
         <v>56</v>
       </c>
       <c r="F17" s="23"/>
@@ -7722,11 +7798,11 @@
       <c r="C18" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="71">
+      <c r="D18" s="70">
         <v>44999</v>
       </c>
-      <c r="E18" s="87" t="s">
-        <v>107</v>
+      <c r="E18" s="44" t="s">
+        <v>106</v>
       </c>
       <c r="F18" s="23"/>
       <c r="H18" s="13"/>
@@ -7736,13 +7812,13 @@
     <row r="19" spans="1:257" s="1" customFormat="1" ht="90" customHeight="1" thickBot="1">
       <c r="A19" s="21"/>
       <c r="B19" s="34"/>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="73">
+      <c r="D19" s="72">
         <v>44999</v>
       </c>
-      <c r="E19" s="88" t="s">
+      <c r="E19" s="178" t="s">
         <v>56</v>
       </c>
       <c r="F19" s="23"/>
@@ -7751,7 +7827,7 @@
     <row r="20" spans="1:257" s="1" customFormat="1" ht="69.95" customHeight="1">
       <c r="A20" s="21"/>
       <c r="B20" s="35"/>
-      <c r="C20" s="70"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
       <c r="IT20" s="2"/>
@@ -7900,7 +7976,7 @@
     <mergeCell ref="A8:K8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C16" r:id="rId1"/>
+    <hyperlink ref="C16" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
@@ -7910,7 +7986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:IW41"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
@@ -7939,60 +8015,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:253">
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
     </row>
     <row r="6" spans="1:253">
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
     </row>
     <row r="7" spans="1:253" ht="30">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="115"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="123"/>
     </row>
     <row r="8" spans="1:253" ht="30">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="115"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="123"/>
     </row>
     <row r="10" spans="1:253" s="30" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="138"/>
-      <c r="B10" s="138"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="138"/>
-      <c r="K10" s="138"/>
+      <c r="A10" s="142"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="142"/>
     </row>
     <row r="11" spans="1:253" ht="15" thickTop="1"/>
     <row r="12" spans="1:253">
@@ -8002,499 +8078,499 @@
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
     </row>
-    <row r="14" spans="1:253" s="47" customFormat="1" ht="30" customHeight="1">
-      <c r="A14" s="46"/>
-      <c r="B14" s="145" t="s">
+    <row r="14" spans="1:253" s="46" customFormat="1" ht="30" customHeight="1">
+      <c r="A14" s="45"/>
+      <c r="B14" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="146"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="140"/>
-      <c r="L14" s="140"/>
-      <c r="M14" s="140"/>
-      <c r="N14" s="140"/>
-      <c r="O14" s="140"/>
-      <c r="P14" s="140"/>
-      <c r="Q14" s="141"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="46"/>
-      <c r="AE14" s="46"/>
-      <c r="AF14" s="46"/>
-      <c r="AG14" s="46"/>
-      <c r="AH14" s="46"/>
-      <c r="AI14" s="46"/>
-      <c r="AJ14" s="46"/>
-      <c r="AK14" s="46"/>
-      <c r="AL14" s="46"/>
-      <c r="AM14" s="46"/>
-      <c r="AN14" s="46"/>
-      <c r="AO14" s="46"/>
-      <c r="AP14" s="46"/>
-      <c r="AQ14" s="46"/>
-      <c r="AR14" s="46"/>
-      <c r="AS14" s="46"/>
-      <c r="AT14" s="46"/>
-      <c r="AU14" s="46"/>
-      <c r="AV14" s="46"/>
-      <c r="AW14" s="46"/>
-      <c r="AX14" s="46"/>
-      <c r="AY14" s="46"/>
-      <c r="AZ14" s="46"/>
-      <c r="BA14" s="46"/>
-      <c r="BB14" s="46"/>
-      <c r="BC14" s="46"/>
-      <c r="BD14" s="46"/>
-      <c r="BE14" s="46"/>
-      <c r="BF14" s="46"/>
-      <c r="BG14" s="46"/>
-      <c r="BH14" s="46"/>
-      <c r="BI14" s="46"/>
-      <c r="BJ14" s="46"/>
-      <c r="BK14" s="46"/>
-      <c r="BL14" s="46"/>
-      <c r="BM14" s="46"/>
-      <c r="BN14" s="46"/>
-      <c r="BO14" s="46"/>
-      <c r="BP14" s="46"/>
-      <c r="BQ14" s="46"/>
-      <c r="BR14" s="46"/>
-      <c r="BS14" s="46"/>
-      <c r="BT14" s="46"/>
-      <c r="BU14" s="46"/>
-      <c r="BV14" s="46"/>
-      <c r="BW14" s="46"/>
-      <c r="BX14" s="46"/>
-      <c r="BY14" s="46"/>
-      <c r="BZ14" s="46"/>
-      <c r="CA14" s="46"/>
-      <c r="CB14" s="46"/>
-      <c r="CC14" s="46"/>
-      <c r="CD14" s="46"/>
-      <c r="CE14" s="46"/>
-      <c r="CF14" s="46"/>
-      <c r="CG14" s="46"/>
-      <c r="CH14" s="46"/>
-      <c r="CI14" s="46"/>
-      <c r="CJ14" s="46"/>
-      <c r="CK14" s="46"/>
-      <c r="CL14" s="46"/>
-      <c r="CM14" s="46"/>
-      <c r="CN14" s="46"/>
-      <c r="CO14" s="46"/>
-      <c r="CP14" s="46"/>
-      <c r="CQ14" s="46"/>
-      <c r="CR14" s="46"/>
-      <c r="CS14" s="46"/>
-      <c r="CT14" s="46"/>
-      <c r="CU14" s="46"/>
-      <c r="CV14" s="46"/>
-      <c r="CW14" s="46"/>
-      <c r="CX14" s="46"/>
-      <c r="CY14" s="46"/>
-      <c r="CZ14" s="46"/>
-      <c r="DA14" s="46"/>
-      <c r="DB14" s="46"/>
-      <c r="DC14" s="46"/>
-      <c r="DD14" s="46"/>
-      <c r="DE14" s="46"/>
-      <c r="DF14" s="46"/>
-      <c r="DG14" s="46"/>
-      <c r="DH14" s="46"/>
-      <c r="DI14" s="46"/>
-      <c r="DJ14" s="46"/>
-      <c r="DK14" s="46"/>
-      <c r="DL14" s="46"/>
-      <c r="DM14" s="46"/>
-      <c r="DN14" s="46"/>
-      <c r="DO14" s="46"/>
-      <c r="DP14" s="46"/>
-      <c r="DQ14" s="46"/>
-      <c r="DR14" s="46"/>
-      <c r="DS14" s="46"/>
-      <c r="DT14" s="46"/>
-      <c r="DU14" s="46"/>
-      <c r="DV14" s="46"/>
-      <c r="DW14" s="46"/>
-      <c r="DX14" s="46"/>
-      <c r="DY14" s="46"/>
-      <c r="DZ14" s="46"/>
-      <c r="EA14" s="46"/>
-      <c r="EB14" s="46"/>
-      <c r="EC14" s="46"/>
-      <c r="ED14" s="46"/>
-      <c r="EE14" s="46"/>
-      <c r="EF14" s="46"/>
-      <c r="EG14" s="46"/>
-      <c r="EH14" s="46"/>
-      <c r="EI14" s="46"/>
-      <c r="EJ14" s="46"/>
-      <c r="EK14" s="46"/>
-      <c r="EL14" s="46"/>
-      <c r="EM14" s="46"/>
-      <c r="EN14" s="46"/>
-      <c r="EO14" s="46"/>
-      <c r="EP14" s="46"/>
-      <c r="EQ14" s="46"/>
-      <c r="ER14" s="46"/>
-      <c r="ES14" s="46"/>
-      <c r="ET14" s="46"/>
-      <c r="EU14" s="46"/>
-      <c r="EV14" s="46"/>
-      <c r="EW14" s="46"/>
-      <c r="EX14" s="46"/>
-      <c r="EY14" s="46"/>
-      <c r="EZ14" s="46"/>
-      <c r="FA14" s="46"/>
-      <c r="FB14" s="46"/>
-      <c r="FC14" s="46"/>
-      <c r="FD14" s="46"/>
-      <c r="FE14" s="46"/>
-      <c r="FF14" s="46"/>
-      <c r="FG14" s="46"/>
-      <c r="FH14" s="46"/>
-      <c r="FI14" s="46"/>
-      <c r="FJ14" s="46"/>
-      <c r="FK14" s="46"/>
-      <c r="FL14" s="46"/>
-      <c r="FM14" s="46"/>
-      <c r="FN14" s="46"/>
-      <c r="FO14" s="46"/>
-      <c r="FP14" s="46"/>
-      <c r="FQ14" s="46"/>
-      <c r="FR14" s="46"/>
-      <c r="FS14" s="46"/>
-      <c r="FT14" s="46"/>
-      <c r="FU14" s="46"/>
-      <c r="FV14" s="46"/>
-      <c r="FW14" s="46"/>
-      <c r="FX14" s="46"/>
-      <c r="FY14" s="46"/>
-      <c r="FZ14" s="46"/>
-      <c r="GA14" s="46"/>
-      <c r="GB14" s="46"/>
-      <c r="GC14" s="46"/>
-      <c r="GD14" s="46"/>
-      <c r="GE14" s="46"/>
-      <c r="GF14" s="46"/>
-      <c r="GG14" s="46"/>
-      <c r="GH14" s="46"/>
-      <c r="GI14" s="46"/>
-      <c r="GJ14" s="46"/>
-      <c r="GK14" s="46"/>
-      <c r="GL14" s="46"/>
-      <c r="GM14" s="46"/>
-      <c r="GN14" s="46"/>
-      <c r="GO14" s="46"/>
-      <c r="GP14" s="46"/>
-      <c r="GQ14" s="46"/>
-      <c r="GR14" s="46"/>
-      <c r="GS14" s="46"/>
-      <c r="GT14" s="46"/>
-      <c r="GU14" s="46"/>
-      <c r="GV14" s="46"/>
-      <c r="GW14" s="46"/>
-      <c r="GX14" s="46"/>
-      <c r="GY14" s="46"/>
-      <c r="GZ14" s="46"/>
-      <c r="HA14" s="46"/>
-      <c r="HB14" s="46"/>
-      <c r="HC14" s="46"/>
-      <c r="HD14" s="46"/>
-      <c r="HE14" s="46"/>
-      <c r="HF14" s="46"/>
-      <c r="HG14" s="46"/>
-      <c r="HH14" s="46"/>
-      <c r="HI14" s="46"/>
-      <c r="HJ14" s="46"/>
-      <c r="HK14" s="46"/>
-      <c r="HL14" s="46"/>
-      <c r="HM14" s="46"/>
-      <c r="HN14" s="46"/>
-      <c r="HO14" s="46"/>
-      <c r="HP14" s="46"/>
-      <c r="HQ14" s="46"/>
-      <c r="HR14" s="46"/>
-      <c r="HS14" s="46"/>
-      <c r="HT14" s="46"/>
-      <c r="HU14" s="46"/>
-      <c r="HV14" s="46"/>
-      <c r="HW14" s="46"/>
-      <c r="HX14" s="46"/>
-      <c r="HY14" s="46"/>
-      <c r="HZ14" s="46"/>
-      <c r="IA14" s="46"/>
-      <c r="IB14" s="46"/>
-      <c r="IC14" s="46"/>
-      <c r="ID14" s="46"/>
-      <c r="IE14" s="46"/>
-      <c r="IF14" s="46"/>
-      <c r="IG14" s="46"/>
-      <c r="IH14" s="46"/>
-      <c r="II14" s="46"/>
-      <c r="IJ14" s="46"/>
-      <c r="IK14" s="46"/>
-      <c r="IL14" s="46"/>
-      <c r="IM14" s="46"/>
-      <c r="IN14" s="46"/>
-      <c r="IO14" s="46"/>
-      <c r="IP14" s="46"/>
-      <c r="IQ14" s="46"/>
-      <c r="IR14" s="46"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="144"/>
+      <c r="K14" s="144"/>
+      <c r="L14" s="144"/>
+      <c r="M14" s="144"/>
+      <c r="N14" s="144"/>
+      <c r="O14" s="144"/>
+      <c r="P14" s="144"/>
+      <c r="Q14" s="145"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="45"/>
+      <c r="AD14" s="45"/>
+      <c r="AE14" s="45"/>
+      <c r="AF14" s="45"/>
+      <c r="AG14" s="45"/>
+      <c r="AH14" s="45"/>
+      <c r="AI14" s="45"/>
+      <c r="AJ14" s="45"/>
+      <c r="AK14" s="45"/>
+      <c r="AL14" s="45"/>
+      <c r="AM14" s="45"/>
+      <c r="AN14" s="45"/>
+      <c r="AO14" s="45"/>
+      <c r="AP14" s="45"/>
+      <c r="AQ14" s="45"/>
+      <c r="AR14" s="45"/>
+      <c r="AS14" s="45"/>
+      <c r="AT14" s="45"/>
+      <c r="AU14" s="45"/>
+      <c r="AV14" s="45"/>
+      <c r="AW14" s="45"/>
+      <c r="AX14" s="45"/>
+      <c r="AY14" s="45"/>
+      <c r="AZ14" s="45"/>
+      <c r="BA14" s="45"/>
+      <c r="BB14" s="45"/>
+      <c r="BC14" s="45"/>
+      <c r="BD14" s="45"/>
+      <c r="BE14" s="45"/>
+      <c r="BF14" s="45"/>
+      <c r="BG14" s="45"/>
+      <c r="BH14" s="45"/>
+      <c r="BI14" s="45"/>
+      <c r="BJ14" s="45"/>
+      <c r="BK14" s="45"/>
+      <c r="BL14" s="45"/>
+      <c r="BM14" s="45"/>
+      <c r="BN14" s="45"/>
+      <c r="BO14" s="45"/>
+      <c r="BP14" s="45"/>
+      <c r="BQ14" s="45"/>
+      <c r="BR14" s="45"/>
+      <c r="BS14" s="45"/>
+      <c r="BT14" s="45"/>
+      <c r="BU14" s="45"/>
+      <c r="BV14" s="45"/>
+      <c r="BW14" s="45"/>
+      <c r="BX14" s="45"/>
+      <c r="BY14" s="45"/>
+      <c r="BZ14" s="45"/>
+      <c r="CA14" s="45"/>
+      <c r="CB14" s="45"/>
+      <c r="CC14" s="45"/>
+      <c r="CD14" s="45"/>
+      <c r="CE14" s="45"/>
+      <c r="CF14" s="45"/>
+      <c r="CG14" s="45"/>
+      <c r="CH14" s="45"/>
+      <c r="CI14" s="45"/>
+      <c r="CJ14" s="45"/>
+      <c r="CK14" s="45"/>
+      <c r="CL14" s="45"/>
+      <c r="CM14" s="45"/>
+      <c r="CN14" s="45"/>
+      <c r="CO14" s="45"/>
+      <c r="CP14" s="45"/>
+      <c r="CQ14" s="45"/>
+      <c r="CR14" s="45"/>
+      <c r="CS14" s="45"/>
+      <c r="CT14" s="45"/>
+      <c r="CU14" s="45"/>
+      <c r="CV14" s="45"/>
+      <c r="CW14" s="45"/>
+      <c r="CX14" s="45"/>
+      <c r="CY14" s="45"/>
+      <c r="CZ14" s="45"/>
+      <c r="DA14" s="45"/>
+      <c r="DB14" s="45"/>
+      <c r="DC14" s="45"/>
+      <c r="DD14" s="45"/>
+      <c r="DE14" s="45"/>
+      <c r="DF14" s="45"/>
+      <c r="DG14" s="45"/>
+      <c r="DH14" s="45"/>
+      <c r="DI14" s="45"/>
+      <c r="DJ14" s="45"/>
+      <c r="DK14" s="45"/>
+      <c r="DL14" s="45"/>
+      <c r="DM14" s="45"/>
+      <c r="DN14" s="45"/>
+      <c r="DO14" s="45"/>
+      <c r="DP14" s="45"/>
+      <c r="DQ14" s="45"/>
+      <c r="DR14" s="45"/>
+      <c r="DS14" s="45"/>
+      <c r="DT14" s="45"/>
+      <c r="DU14" s="45"/>
+      <c r="DV14" s="45"/>
+      <c r="DW14" s="45"/>
+      <c r="DX14" s="45"/>
+      <c r="DY14" s="45"/>
+      <c r="DZ14" s="45"/>
+      <c r="EA14" s="45"/>
+      <c r="EB14" s="45"/>
+      <c r="EC14" s="45"/>
+      <c r="ED14" s="45"/>
+      <c r="EE14" s="45"/>
+      <c r="EF14" s="45"/>
+      <c r="EG14" s="45"/>
+      <c r="EH14" s="45"/>
+      <c r="EI14" s="45"/>
+      <c r="EJ14" s="45"/>
+      <c r="EK14" s="45"/>
+      <c r="EL14" s="45"/>
+      <c r="EM14" s="45"/>
+      <c r="EN14" s="45"/>
+      <c r="EO14" s="45"/>
+      <c r="EP14" s="45"/>
+      <c r="EQ14" s="45"/>
+      <c r="ER14" s="45"/>
+      <c r="ES14" s="45"/>
+      <c r="ET14" s="45"/>
+      <c r="EU14" s="45"/>
+      <c r="EV14" s="45"/>
+      <c r="EW14" s="45"/>
+      <c r="EX14" s="45"/>
+      <c r="EY14" s="45"/>
+      <c r="EZ14" s="45"/>
+      <c r="FA14" s="45"/>
+      <c r="FB14" s="45"/>
+      <c r="FC14" s="45"/>
+      <c r="FD14" s="45"/>
+      <c r="FE14" s="45"/>
+      <c r="FF14" s="45"/>
+      <c r="FG14" s="45"/>
+      <c r="FH14" s="45"/>
+      <c r="FI14" s="45"/>
+      <c r="FJ14" s="45"/>
+      <c r="FK14" s="45"/>
+      <c r="FL14" s="45"/>
+      <c r="FM14" s="45"/>
+      <c r="FN14" s="45"/>
+      <c r="FO14" s="45"/>
+      <c r="FP14" s="45"/>
+      <c r="FQ14" s="45"/>
+      <c r="FR14" s="45"/>
+      <c r="FS14" s="45"/>
+      <c r="FT14" s="45"/>
+      <c r="FU14" s="45"/>
+      <c r="FV14" s="45"/>
+      <c r="FW14" s="45"/>
+      <c r="FX14" s="45"/>
+      <c r="FY14" s="45"/>
+      <c r="FZ14" s="45"/>
+      <c r="GA14" s="45"/>
+      <c r="GB14" s="45"/>
+      <c r="GC14" s="45"/>
+      <c r="GD14" s="45"/>
+      <c r="GE14" s="45"/>
+      <c r="GF14" s="45"/>
+      <c r="GG14" s="45"/>
+      <c r="GH14" s="45"/>
+      <c r="GI14" s="45"/>
+      <c r="GJ14" s="45"/>
+      <c r="GK14" s="45"/>
+      <c r="GL14" s="45"/>
+      <c r="GM14" s="45"/>
+      <c r="GN14" s="45"/>
+      <c r="GO14" s="45"/>
+      <c r="GP14" s="45"/>
+      <c r="GQ14" s="45"/>
+      <c r="GR14" s="45"/>
+      <c r="GS14" s="45"/>
+      <c r="GT14" s="45"/>
+      <c r="GU14" s="45"/>
+      <c r="GV14" s="45"/>
+      <c r="GW14" s="45"/>
+      <c r="GX14" s="45"/>
+      <c r="GY14" s="45"/>
+      <c r="GZ14" s="45"/>
+      <c r="HA14" s="45"/>
+      <c r="HB14" s="45"/>
+      <c r="HC14" s="45"/>
+      <c r="HD14" s="45"/>
+      <c r="HE14" s="45"/>
+      <c r="HF14" s="45"/>
+      <c r="HG14" s="45"/>
+      <c r="HH14" s="45"/>
+      <c r="HI14" s="45"/>
+      <c r="HJ14" s="45"/>
+      <c r="HK14" s="45"/>
+      <c r="HL14" s="45"/>
+      <c r="HM14" s="45"/>
+      <c r="HN14" s="45"/>
+      <c r="HO14" s="45"/>
+      <c r="HP14" s="45"/>
+      <c r="HQ14" s="45"/>
+      <c r="HR14" s="45"/>
+      <c r="HS14" s="45"/>
+      <c r="HT14" s="45"/>
+      <c r="HU14" s="45"/>
+      <c r="HV14" s="45"/>
+      <c r="HW14" s="45"/>
+      <c r="HX14" s="45"/>
+      <c r="HY14" s="45"/>
+      <c r="HZ14" s="45"/>
+      <c r="IA14" s="45"/>
+      <c r="IB14" s="45"/>
+      <c r="IC14" s="45"/>
+      <c r="ID14" s="45"/>
+      <c r="IE14" s="45"/>
+      <c r="IF14" s="45"/>
+      <c r="IG14" s="45"/>
+      <c r="IH14" s="45"/>
+      <c r="II14" s="45"/>
+      <c r="IJ14" s="45"/>
+      <c r="IK14" s="45"/>
+      <c r="IL14" s="45"/>
+      <c r="IM14" s="45"/>
+      <c r="IN14" s="45"/>
+      <c r="IO14" s="45"/>
+      <c r="IP14" s="45"/>
+      <c r="IQ14" s="45"/>
+      <c r="IR14" s="45"/>
     </row>
     <row r="15" spans="1:253" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="142" t="s">
+      <c r="B15" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="144"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="148"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="IS15" s="2"/>
     </row>
     <row r="16" spans="1:253" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="82"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="81"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="IS16" s="2"/>
     </row>
     <row r="17" spans="1:257" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="135" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="138"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="IS17" s="2"/>
     </row>
     <row r="18" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="148"/>
-      <c r="D18" s="149"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="48"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="IS18" s="2"/>
     </row>
     <row r="19" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="132" t="s">
+      <c r="B19" s="49"/>
+      <c r="C19" s="130" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="134"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="132"/>
       <c r="IS19" s="2"/>
     </row>
     <row r="20" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="132" t="s">
+      <c r="B20" s="49"/>
+      <c r="C20" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="134"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="132"/>
       <c r="IS20" s="2"/>
     </row>
     <row r="21" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="132" t="s">
+      <c r="B21" s="49"/>
+      <c r="C21" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="133"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="134"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="132"/>
       <c r="IS21" s="2"/>
     </row>
     <row r="22" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="132" t="s">
+      <c r="B22" s="49"/>
+      <c r="C22" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="134"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="132"/>
       <c r="IS22" s="2"/>
     </row>
     <row r="23" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="132" t="s">
+      <c r="B23" s="49"/>
+      <c r="C23" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="134"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="132"/>
       <c r="IS23" s="2"/>
     </row>
     <row r="24" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="132" t="s">
+      <c r="B24" s="49"/>
+      <c r="C24" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="133"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="134"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="132"/>
       <c r="IS24" s="2"/>
     </row>
     <row r="25" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="132" t="s">
+      <c r="B25" s="49"/>
+      <c r="C25" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="133"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="134"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="132"/>
       <c r="IS25" s="2"/>
     </row>
     <row r="26" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="132" t="s">
+      <c r="B26" s="49"/>
+      <c r="C26" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="133"/>
-      <c r="E26" s="133"/>
-      <c r="F26" s="134"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="132"/>
       <c r="IS26" s="2"/>
     </row>
     <row r="27" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="132" t="s">
+      <c r="B27" s="49"/>
+      <c r="C27" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="133"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="134"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="132"/>
       <c r="IS27" s="2"/>
     </row>
     <row r="28" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B28" s="50"/>
-      <c r="C28" s="148"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="150"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="141"/>
       <c r="IS28" s="2"/>
     </row>
     <row r="29" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B29" s="50"/>
-      <c r="C29" s="135" t="s">
+      <c r="B29" s="49"/>
+      <c r="C29" s="136" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="137"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="138"/>
       <c r="IS29" s="2"/>
     </row>
     <row r="30" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B30" s="51"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="54"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="53"/>
       <c r="IW30" s="2"/>
     </row>
     <row r="31" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B31" s="55"/>
-      <c r="C31" s="132" t="s">
+      <c r="B31" s="54"/>
+      <c r="C31" s="130" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="133"/>
-      <c r="E31" s="133"/>
-      <c r="F31" s="134"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="132"/>
       <c r="IW31" s="2"/>
     </row>
     <row r="32" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="B32" s="51"/>
-      <c r="C32" s="132" t="s">
+      <c r="B32" s="50"/>
+      <c r="C32" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="133"/>
-      <c r="E32" s="133"/>
-      <c r="F32" s="134"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="132"/>
       <c r="J32" s="23"/>
       <c r="IW32" s="2"/>
     </row>
     <row r="33" spans="2:257" s="1" customFormat="1" ht="15.75">
-      <c r="B33" s="55"/>
-      <c r="C33" s="132" t="s">
+      <c r="B33" s="54"/>
+      <c r="C33" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="133"/>
-      <c r="E33" s="133"/>
-      <c r="F33" s="134"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="132"/>
       <c r="J33" s="23"/>
       <c r="IW33" s="2"/>
     </row>
     <row r="34" spans="2:257" s="1" customFormat="1" ht="15.75">
-      <c r="B34" s="51"/>
-      <c r="C34" s="132" t="s">
+      <c r="B34" s="50"/>
+      <c r="C34" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="133"/>
-      <c r="E34" s="133"/>
-      <c r="F34" s="134"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="131"/>
+      <c r="F34" s="132"/>
       <c r="IW34" s="2"/>
     </row>
     <row r="35" spans="2:257" s="1" customFormat="1">
-      <c r="B35" s="55"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
       <c r="IW35" s="2"/>
     </row>
     <row r="36" spans="2:257" s="1" customFormat="1">
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
       <c r="IW36" s="2"/>
     </row>
     <row r="37" spans="2:257" s="1" customFormat="1">
-      <c r="B37" s="55"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
       <c r="IW37" s="2"/>
     </row>
     <row r="38" spans="2:257" s="1" customFormat="1">
@@ -8522,6 +8598,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="H14:Q14"/>
+    <mergeCell ref="B15:F15"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="C17:F17"/>
@@ -8538,17 +8625,6 @@
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="H14:Q14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A8:K8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
@@ -8558,11 +8634,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:IW37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A2:IW39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -8584,60 +8660,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="115"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="123"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="115"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="123"/>
     </row>
     <row r="10" spans="1:257" s="30" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="117"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
+      <c r="A10" s="125"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
@@ -8645,12 +8721,12 @@
     </row>
     <row r="15" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
       <c r="E15" s="21"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="75"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="74"/>
       <c r="H15" s="26"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
@@ -8658,137 +8734,152 @@
     </row>
     <row r="16" spans="1:257" s="1" customFormat="1" ht="50.1" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="162" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="163"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="151" t="s">
+      <c r="B16" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="152"/>
-      <c r="H16" s="153"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="160" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="161"/>
+      <c r="H16" s="162"/>
       <c r="I16" s="23"/>
-      <c r="K16" s="151" t="s">
-        <v>101</v>
-      </c>
-      <c r="L16" s="152"/>
-      <c r="M16" s="153"/>
+      <c r="K16" s="160" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" s="161"/>
+      <c r="M16" s="162"/>
       <c r="IW16" s="2"/>
     </row>
     <row r="17" spans="1:257" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="154" t="s">
+      <c r="B17" s="151" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="155"/>
-      <c r="D17" s="77" t="s">
+      <c r="C17" s="152"/>
+      <c r="D17" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="76"/>
-      <c r="F17" s="154" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="155"/>
-      <c r="H17" s="77" t="s">
+      <c r="E17" s="75"/>
+      <c r="F17" s="151" t="s">
         <v>88</v>
       </c>
+      <c r="G17" s="152"/>
+      <c r="H17" s="76" t="s">
+        <v>87</v>
+      </c>
       <c r="I17" s="23"/>
-      <c r="K17" s="154" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="155"/>
-      <c r="M17" s="85" t="s">
-        <v>104</v>
+      <c r="K17" s="151" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" s="152"/>
+      <c r="M17" s="84" t="s">
+        <v>103</v>
       </c>
       <c r="IW17" s="2"/>
     </row>
     <row r="18" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="156" t="s">
+      <c r="B18" s="153" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="157"/>
-      <c r="D18" s="78">
-        <v>0.75</v>
-      </c>
-      <c r="E18" s="76"/>
-      <c r="F18" s="156" t="s">
+      <c r="C18" s="154"/>
+      <c r="D18" s="77">
+        <v>0.45</v>
+      </c>
+      <c r="E18" s="75"/>
+      <c r="F18" s="153" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="154"/>
+      <c r="H18" s="77">
+        <v>0.65</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="K18" s="153" t="s">
+        <v>101</v>
+      </c>
+      <c r="L18" s="154"/>
+      <c r="M18" s="77">
+        <v>0.85</v>
+      </c>
+      <c r="IW18" s="2"/>
+    </row>
+    <row r="19" spans="1:257" s="107" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A19" s="21"/>
+      <c r="B19" s="180" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" s="181"/>
+      <c r="D19" s="179">
+        <v>0.25</v>
+      </c>
+      <c r="E19" s="75"/>
+      <c r="F19" s="153" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="154"/>
+      <c r="H19" s="77">
+        <v>0.1</v>
+      </c>
+      <c r="I19" s="23"/>
+      <c r="K19" s="153" t="s">
+        <v>102</v>
+      </c>
+      <c r="L19" s="154"/>
+      <c r="M19" s="77">
+        <v>0.15</v>
+      </c>
+      <c r="IW19" s="2"/>
+    </row>
+    <row r="20" spans="1:257" s="107" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A20" s="21"/>
+      <c r="B20" s="180" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="181"/>
+      <c r="D20" s="179">
+        <v>0.25</v>
+      </c>
+      <c r="E20" s="75"/>
+      <c r="F20" s="149" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="157"/>
-      <c r="H18" s="78">
-        <v>0.65</v>
-      </c>
-      <c r="I18" s="23"/>
-      <c r="K18" s="156" t="s">
-        <v>102</v>
-      </c>
-      <c r="L18" s="157"/>
-      <c r="M18" s="78">
-        <v>0.85</v>
-      </c>
-      <c r="IW18" s="2"/>
-    </row>
-    <row r="19" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A19" s="21"/>
-      <c r="B19" s="160" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="161"/>
-      <c r="D19" s="79">
+      <c r="G20" s="150"/>
+      <c r="H20" s="80">
         <v>0.25</v>
       </c>
-      <c r="E19" s="76"/>
-      <c r="F19" s="156" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="157"/>
-      <c r="H19" s="78">
-        <v>0.1</v>
-      </c>
-      <c r="I19" s="23"/>
-      <c r="K19" s="156" t="s">
-        <v>103</v>
-      </c>
-      <c r="L19" s="157"/>
-      <c r="M19" s="78">
+      <c r="I20" s="23"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="IW20" s="2"/>
+    </row>
+    <row r="21" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A21" s="21"/>
+      <c r="B21" s="155" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="156"/>
+      <c r="D21" s="78">
         <v>0.15</v>
       </c>
-      <c r="IW19" s="2"/>
-    </row>
-    <row r="20" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A20" s="21"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="158" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="159"/>
-      <c r="H20" s="81">
-        <v>0.25</v>
-      </c>
-      <c r="I20" s="23"/>
-      <c r="IW20" s="2"/>
-    </row>
-    <row r="21" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
+      <c r="E21" s="75"/>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
+      <c r="I21" s="23"/>
       <c r="IW21" s="2"/>
     </row>
     <row r="22" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="21"/>
+      <c r="I22" s="23"/>
       <c r="IW22" s="2"/>
     </row>
     <row r="23" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -8799,12 +8890,14 @@
       <c r="IW23" s="2"/>
     </row>
     <row r="24" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A24" s="21"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="IW24" s="2"/>
     </row>
     <row r="25" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A25" s="21"/>
       <c r="B25" s="22"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -8826,26 +8919,26 @@
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
-      <c r="J28" s="23"/>
       <c r="IW28" s="2"/>
     </row>
-    <row r="29" spans="1:257" s="1" customFormat="1">
+    <row r="29" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B29" s="22"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
-      <c r="J29" s="23"/>
       <c r="IW29" s="2"/>
     </row>
-    <row r="30" spans="1:257" s="1" customFormat="1">
+    <row r="30" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
+      <c r="J30" s="23"/>
       <c r="IW30" s="2"/>
     </row>
     <row r="31" spans="1:257" s="1" customFormat="1">
       <c r="B31" s="22"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
+      <c r="J31" s="23"/>
       <c r="IW31" s="2"/>
     </row>
     <row r="32" spans="1:257" s="1" customFormat="1">
@@ -8873,29 +8966,30 @@
       <c r="IW35" s="2"/>
     </row>
     <row r="36" spans="2:257" s="1" customFormat="1">
-      <c r="B36" s="18"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
       <c r="IW36" s="2"/>
     </row>
     <row r="37" spans="2:257" s="1" customFormat="1">
-      <c r="C37" s="18"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="16"/>
       <c r="D37" s="16"/>
       <c r="IW37" s="2"/>
     </row>
+    <row r="38" spans="2:257" s="1" customFormat="1">
+      <c r="B38" s="18"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="IW38" s="2"/>
+    </row>
+    <row r="39" spans="2:257" s="1" customFormat="1">
+      <c r="C39" s="18"/>
+      <c r="D39" s="16"/>
+      <c r="IW39" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B16:D16"/>
+  <mergeCells count="21">
     <mergeCell ref="K16:M16"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="K18:L18"/>
@@ -8904,6 +8998,19 @@
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
@@ -8913,7 +9020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:IV41"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -8959,56 +9066,56 @@
       <c r="IV4" s="1"/>
     </row>
     <row r="5" spans="1:256">
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
       <c r="IT5" s="1"/>
       <c r="IU5" s="1"/>
       <c r="IV5" s="1"/>
     </row>
     <row r="6" spans="1:256">
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
       <c r="IT6" s="1"/>
       <c r="IU6" s="1"/>
       <c r="IV6" s="1"/>
     </row>
     <row r="7" spans="1:256" ht="30">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="115"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="123"/>
       <c r="IT7" s="1"/>
       <c r="IU7" s="1"/>
       <c r="IV7" s="1"/>
     </row>
     <row r="8" spans="1:256" ht="30">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="115"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="123"/>
       <c r="IT8" s="1"/>
       <c r="IU8" s="1"/>
       <c r="IV8" s="1"/>
@@ -9019,17 +9126,17 @@
       <c r="IV9" s="1"/>
     </row>
     <row r="10" spans="1:256" s="30" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="117"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
+      <c r="A10" s="125"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
     </row>
     <row r="11" spans="1:256" ht="15" thickTop="1">
       <c r="IT11" s="1"/>
@@ -9051,240 +9158,240 @@
     </row>
     <row r="14" spans="1:256" ht="30" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="171" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="172"/>
-      <c r="D14" s="172"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="172"/>
-      <c r="I14" s="173"/>
+      <c r="B14" s="169" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="171"/>
       <c r="J14" s="23"/>
     </row>
     <row r="15" spans="1:256" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="174"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="175"/>
-      <c r="I15" s="176"/>
+      <c r="B15" s="172"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="174"/>
       <c r="J15" s="23"/>
       <c r="K15" s="13"/>
       <c r="IT15" s="2"/>
     </row>
     <row r="16" spans="1:256" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="177" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="178"/>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="179"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="84"/>
+      <c r="B16" s="175" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="176"/>
+      <c r="D16" s="176"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="176"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="176"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="83"/>
       <c r="IT16" s="2"/>
     </row>
     <row r="17" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="177"/>
-      <c r="C17" s="178"/>
-      <c r="D17" s="178"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="178"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="179"/>
+      <c r="B17" s="175"/>
+      <c r="C17" s="176"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="177"/>
       <c r="J17" s="23"/>
       <c r="K17" s="13"/>
       <c r="IT17" s="2"/>
     </row>
     <row r="18" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="177"/>
-      <c r="C18" s="178"/>
-      <c r="D18" s="178"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="178"/>
-      <c r="G18" s="178"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="179"/>
+      <c r="B18" s="175"/>
+      <c r="C18" s="176"/>
+      <c r="D18" s="176"/>
+      <c r="E18" s="176"/>
+      <c r="F18" s="176"/>
+      <c r="G18" s="176"/>
+      <c r="H18" s="176"/>
+      <c r="I18" s="177"/>
       <c r="J18" s="23"/>
       <c r="K18" s="13"/>
       <c r="IT18" s="2"/>
     </row>
     <row r="19" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="177"/>
-      <c r="C19" s="178"/>
-      <c r="D19" s="178"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="178"/>
-      <c r="G19" s="178"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="179"/>
+      <c r="B19" s="175"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="176"/>
+      <c r="E19" s="176"/>
+      <c r="F19" s="176"/>
+      <c r="G19" s="176"/>
+      <c r="H19" s="176"/>
+      <c r="I19" s="177"/>
       <c r="J19" s="23"/>
       <c r="IT19" s="2"/>
     </row>
     <row r="20" spans="1:254" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="174" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="175"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="175"/>
-      <c r="F20" s="175"/>
-      <c r="G20" s="175"/>
-      <c r="H20" s="175"/>
-      <c r="I20" s="176"/>
+      <c r="B20" s="172" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="173"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="173"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="174"/>
       <c r="J20" s="23"/>
       <c r="IT20" s="2"/>
     </row>
     <row r="21" spans="1:254" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="174"/>
-      <c r="C21" s="175"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="175"/>
-      <c r="F21" s="175"/>
-      <c r="G21" s="175"/>
-      <c r="H21" s="175"/>
-      <c r="I21" s="176"/>
+      <c r="B21" s="172"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="174"/>
       <c r="J21" s="23"/>
       <c r="IT21" s="2"/>
     </row>
     <row r="22" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="165" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="166"/>
-      <c r="D22" s="166"/>
-      <c r="E22" s="166"/>
-      <c r="F22" s="166"/>
-      <c r="G22" s="166"/>
-      <c r="H22" s="166"/>
-      <c r="I22" s="167"/>
+      <c r="B22" s="163" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="164"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="165"/>
       <c r="J22" s="23"/>
       <c r="IT22" s="2"/>
     </row>
     <row r="23" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="165"/>
-      <c r="C23" s="166"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="166"/>
-      <c r="F23" s="166"/>
-      <c r="G23" s="166"/>
-      <c r="H23" s="166"/>
-      <c r="I23" s="167"/>
+      <c r="B23" s="163"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="165"/>
       <c r="J23" s="23"/>
       <c r="IT23" s="2"/>
     </row>
     <row r="24" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="165"/>
-      <c r="C24" s="166"/>
-      <c r="D24" s="166"/>
-      <c r="E24" s="166"/>
-      <c r="F24" s="166"/>
-      <c r="G24" s="166"/>
-      <c r="H24" s="166"/>
-      <c r="I24" s="167"/>
+      <c r="B24" s="163"/>
+      <c r="C24" s="164"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="164"/>
+      <c r="I24" s="165"/>
       <c r="J24" s="23"/>
       <c r="IT24" s="2"/>
     </row>
     <row r="25" spans="1:254" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="174" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="175"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="175"/>
-      <c r="I25" s="176"/>
+      <c r="B25" s="172" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="173"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="173"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="173"/>
+      <c r="H25" s="173"/>
+      <c r="I25" s="174"/>
       <c r="J25" s="23"/>
       <c r="IT25" s="2"/>
     </row>
     <row r="26" spans="1:254" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="174"/>
-      <c r="C26" s="175"/>
-      <c r="D26" s="175"/>
-      <c r="E26" s="175"/>
-      <c r="F26" s="175"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="175"/>
-      <c r="I26" s="176"/>
+      <c r="B26" s="172"/>
+      <c r="C26" s="173"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="173"/>
+      <c r="F26" s="173"/>
+      <c r="G26" s="173"/>
+      <c r="H26" s="173"/>
+      <c r="I26" s="174"/>
       <c r="J26" s="23"/>
       <c r="IT26" s="2"/>
     </row>
     <row r="27" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="165" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="166"/>
-      <c r="D27" s="166"/>
-      <c r="E27" s="166"/>
-      <c r="F27" s="166"/>
-      <c r="G27" s="166"/>
-      <c r="H27" s="166"/>
-      <c r="I27" s="167"/>
+      <c r="B27" s="163" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="164"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="164"/>
+      <c r="F27" s="164"/>
+      <c r="G27" s="164"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="165"/>
       <c r="J27" s="23"/>
-      <c r="L27" s="86"/>
+      <c r="L27" s="85"/>
       <c r="IT27" s="2"/>
     </row>
     <row r="28" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="165"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="166"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
-      <c r="H28" s="166"/>
-      <c r="I28" s="167"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="164"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="165"/>
       <c r="J28" s="23"/>
       <c r="IT28" s="2"/>
     </row>
     <row r="29" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="165"/>
-      <c r="C29" s="166"/>
-      <c r="D29" s="166"/>
-      <c r="E29" s="166"/>
-      <c r="F29" s="166"/>
-      <c r="G29" s="166"/>
-      <c r="H29" s="166"/>
-      <c r="I29" s="167"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="164"/>
+      <c r="H29" s="164"/>
+      <c r="I29" s="165"/>
       <c r="J29" s="23"/>
       <c r="IT29" s="2"/>
     </row>
     <row r="30" spans="1:254" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="168"/>
-      <c r="C30" s="169"/>
-      <c r="D30" s="169"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="169"/>
-      <c r="G30" s="169"/>
-      <c r="H30" s="169"/>
-      <c r="I30" s="170"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="168"/>
       <c r="J30" s="23"/>
       <c r="IT30" s="2"/>
     </row>
